--- a/DataSet/LoanIQ_DataSet/EVG_PTYLIQ04_BaselineNonAgentSyndication.xlsx
+++ b/DataSet/LoanIQ_DataSet/EVG_PTYLIQ04_BaselineNonAgentSyndication.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="7" activeTab="9" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="7" activeTab="7" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CRED01_DealSetup" sheetId="1" state="visible" r:id="rId1"/>
@@ -214,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -327,6 +327,7 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="9" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,8 +640,8 @@
   <dimension ref="A1:FD7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H2" sqref="H2"/>
+      <pane xSplit="2" topLeftCell="DB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DB2" sqref="DB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -780,7 +781,7 @@
     <col width="39.44140625" customWidth="1" style="60" min="154" max="154"/>
     <col width="20.88671875" customWidth="1" style="60" min="155" max="155"/>
     <col width="27.33203125" bestFit="1" customWidth="1" style="60" min="156" max="156"/>
-    <col width="14" bestFit="1" customWidth="1" min="157" max="157"/>
+    <col width="14" bestFit="1" customWidth="1" style="78" min="157" max="157"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="15" thickBot="1">
@@ -1591,17 +1592,17 @@
       </c>
       <c r="F2" s="60" t="inlineStr">
         <is>
-          <t>S4NA_31072020212408LEP</t>
+          <t>S4NA_19082020145407QEL</t>
         </is>
       </c>
       <c r="G2" s="60" t="inlineStr">
         <is>
-          <t>S431072020212410DJH</t>
+          <t>S419082020145410UNG</t>
         </is>
       </c>
       <c r="H2" s="60" t="inlineStr">
         <is>
-          <t>S4REV31072020213654</t>
+          <t>S4REV19082020150304</t>
         </is>
       </c>
       <c r="I2" s="29" t="inlineStr">
@@ -1732,7 +1733,7 @@
       </c>
       <c r="AN2" s="61" t="inlineStr">
         <is>
-          <t>02-Jun-2020</t>
+          <t>09-Sep-2020</t>
         </is>
       </c>
       <c r="AO2" s="29" t="inlineStr">
@@ -1827,7 +1828,7 @@
       </c>
       <c r="BS2" s="61" t="inlineStr">
         <is>
-          <t>02-Jun-2020</t>
+          <t>09-Sep-2020</t>
         </is>
       </c>
       <c r="BU2" s="61" t="inlineStr">
@@ -1837,12 +1838,12 @@
       </c>
       <c r="BV2" s="60" t="inlineStr">
         <is>
-          <t>02-Jun-2020</t>
+          <t>09-Sep-2020</t>
         </is>
       </c>
       <c r="BY2" s="60" t="inlineStr">
         <is>
-          <t>02-Jun-2020</t>
+          <t>09-Sep-2020</t>
         </is>
       </c>
       <c r="CA2" s="6" t="inlineStr">
@@ -1982,12 +1983,12 @@
       </c>
       <c r="DX2" s="61" t="inlineStr">
         <is>
-          <t>02-Jun-2020</t>
+          <t>09-Sep-2020</t>
         </is>
       </c>
       <c r="DY2" s="61" t="inlineStr">
         <is>
-          <t>02-Jun-2020</t>
+          <t>09-Sep-2020</t>
         </is>
       </c>
       <c r="DZ2" s="59" t="inlineStr">
@@ -2047,18 +2048,18 @@
       </c>
       <c r="EK2" s="61" t="inlineStr">
         <is>
-          <t>02-Jun-2020</t>
+          <t>09-Sep-2020</t>
         </is>
       </c>
       <c r="EL2" s="61" t="inlineStr">
         <is>
-          <t>02-Jun-2020</t>
+          <t>09-Sep-2020</t>
         </is>
       </c>
       <c r="EM2" s="18" t="n"/>
       <c r="EN2" s="61" t="inlineStr">
         <is>
-          <t>02-Jun-2020</t>
+          <t>09-Sep-2020</t>
         </is>
       </c>
       <c r="EO2" s="59" t="inlineStr">
@@ -2147,7 +2148,7 @@
       <c r="EU5" s="59" t="n"/>
       <c r="EV5" s="59" t="n"/>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" ht="12.75" customHeight="1" s="78">
       <c r="DL7" s="60" t="n"/>
       <c r="DM7" s="60" t="n"/>
       <c r="DN7" s="60" t="n"/>
@@ -2186,8 +2187,8 @@
   </sheetPr>
   <dimension ref="A1:AR15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
@@ -2221,19 +2222,19 @@
     <col width="16.33203125" bestFit="1" customWidth="1" style="61" min="28" max="28"/>
     <col width="31.33203125" bestFit="1" customWidth="1" style="23" min="29" max="29"/>
     <col width="16.6640625" bestFit="1" customWidth="1" style="23" min="30" max="30"/>
-    <col width="20.5546875" bestFit="1" customWidth="1" min="31" max="31"/>
-    <col width="16.109375" bestFit="1" customWidth="1" min="32" max="32"/>
-    <col width="21.88671875" bestFit="1" customWidth="1" min="33" max="33"/>
-    <col width="27" bestFit="1" customWidth="1" min="34" max="34"/>
-    <col width="24.33203125" bestFit="1" customWidth="1" min="35" max="35"/>
-    <col width="16.5546875" bestFit="1" customWidth="1" min="36" max="36"/>
-    <col width="26.88671875" bestFit="1" customWidth="1" min="37" max="37"/>
-    <col width="20.88671875" bestFit="1" customWidth="1" min="38" max="38"/>
-    <col width="20.88671875" customWidth="1" min="39" max="40"/>
-    <col width="23.5546875" bestFit="1" customWidth="1" min="41" max="41"/>
-    <col width="21.109375" bestFit="1" customWidth="1" min="42" max="42"/>
-    <col width="15.6640625" bestFit="1" customWidth="1" min="43" max="43"/>
-    <col width="16" bestFit="1" customWidth="1" min="44" max="44"/>
+    <col width="20.5546875" bestFit="1" customWidth="1" style="78" min="31" max="31"/>
+    <col width="16.109375" bestFit="1" customWidth="1" style="78" min="32" max="32"/>
+    <col width="21.88671875" bestFit="1" customWidth="1" style="78" min="33" max="33"/>
+    <col width="27" bestFit="1" customWidth="1" style="78" min="34" max="34"/>
+    <col width="24.33203125" bestFit="1" customWidth="1" style="78" min="35" max="35"/>
+    <col width="16.5546875" bestFit="1" customWidth="1" style="78" min="36" max="36"/>
+    <col width="26.88671875" bestFit="1" customWidth="1" style="78" min="37" max="37"/>
+    <col width="20.88671875" bestFit="1" customWidth="1" style="78" min="38" max="38"/>
+    <col width="20.88671875" customWidth="1" style="78" min="39" max="40"/>
+    <col width="23.5546875" bestFit="1" customWidth="1" style="78" min="41" max="41"/>
+    <col width="21.109375" bestFit="1" customWidth="1" style="78" min="42" max="42"/>
+    <col width="15.6640625" bestFit="1" customWidth="1" style="78" min="43" max="43"/>
+    <col width="16" bestFit="1" customWidth="1" style="78" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="22" thickBot="1">
@@ -2471,7 +2472,7 @@
       </c>
       <c r="C2" s="60" t="inlineStr">
         <is>
-          <t>S4NA_31072020212408LEP</t>
+          <t>S4NA_19082020145407QEL</t>
         </is>
       </c>
       <c r="D2" s="23" t="inlineStr">
@@ -2481,12 +2482,12 @@
       </c>
       <c r="E2" s="60" t="inlineStr">
         <is>
-          <t>S4REV31072020213654</t>
+          <t>S4REV19082020150304</t>
         </is>
       </c>
       <c r="F2" s="60" t="inlineStr">
         <is>
-          <t>60000133</t>
+          <t>60000394</t>
         </is>
       </c>
       <c r="G2" s="66" t="inlineStr">
@@ -2641,7 +2642,7 @@
       </c>
       <c r="AN2" s="77" t="inlineStr">
         <is>
-          <t>07-Jul-2020</t>
+          <t>09-Sep-2020</t>
         </is>
       </c>
       <c r="AO2" s="62" t="inlineStr">
@@ -3016,7 +3017,7 @@
       </c>
       <c r="C2" s="60" t="inlineStr">
         <is>
-          <t>S4NA_31072020212408LEP</t>
+          <t>S4NA_19082020145407QEL</t>
         </is>
       </c>
       <c r="D2" s="60" t="n">
@@ -3088,10 +3089,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV2"/>
+  <dimension ref="A1:AW2"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView topLeftCell="AQ1" zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
+      <selection activeCell="AX2" sqref="AX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
@@ -3137,14 +3138,15 @@
     <col width="14.44140625" customWidth="1" style="60" min="39" max="39"/>
     <col width="17" customWidth="1" style="60" min="40" max="40"/>
     <col width="23.109375" customWidth="1" style="60" min="41" max="41"/>
-    <col width="14.88671875" customWidth="1" style="60" min="42" max="42"/>
-    <col width="14.109375" customWidth="1" style="60" min="43" max="43"/>
-    <col width="20.44140625" customWidth="1" style="60" min="44" max="44"/>
-    <col width="35.33203125" customWidth="1" style="60" min="45" max="45"/>
-    <col width="20.6640625" customWidth="1" style="60" min="46" max="46"/>
-    <col width="34.33203125" customWidth="1" style="60" min="47" max="47"/>
-    <col width="18" customWidth="1" style="60" min="48" max="48"/>
-    <col width="38.33203125" customWidth="1" min="49" max="49"/>
+    <col width="25.6640625" bestFit="1" customWidth="1" style="60" min="42" max="42"/>
+    <col width="14.88671875" customWidth="1" style="60" min="43" max="43"/>
+    <col width="14.109375" customWidth="1" style="60" min="44" max="44"/>
+    <col width="20.44140625" customWidth="1" style="60" min="45" max="45"/>
+    <col width="35.33203125" customWidth="1" style="60" min="46" max="46"/>
+    <col width="20.6640625" customWidth="1" style="60" min="47" max="47"/>
+    <col width="34.33203125" customWidth="1" style="60" min="48" max="48"/>
+    <col width="18" customWidth="1" style="60" min="49" max="49"/>
+    <col width="38.33203125" customWidth="1" style="78" min="50" max="50"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customFormat="1" customHeight="1" s="15" thickBot="1">
@@ -3355,35 +3357,40 @@
       </c>
       <c r="AP1" s="36" t="inlineStr">
         <is>
+          <t>Portfolio</t>
+        </is>
+      </c>
+      <c r="AQ1" s="36" t="inlineStr">
+        <is>
           <t>App_Username</t>
         </is>
       </c>
-      <c r="AQ1" s="36" t="inlineStr">
+      <c r="AR1" s="36" t="inlineStr">
         <is>
           <t>App_Password</t>
         </is>
       </c>
-      <c r="AR1" s="36" t="inlineStr">
+      <c r="AS1" s="36" t="inlineStr">
         <is>
           <t>WIPTransaction_Type</t>
         </is>
       </c>
-      <c r="AS1" s="36" t="inlineStr">
+      <c r="AT1" s="36" t="inlineStr">
         <is>
           <t>Transaction_Status_AwaitingApproval</t>
         </is>
       </c>
-      <c r="AT1" s="36" t="inlineStr">
+      <c r="AU1" s="36" t="inlineStr">
         <is>
           <t>DealTransaction_Type</t>
         </is>
       </c>
-      <c r="AU1" s="36" t="inlineStr">
+      <c r="AV1" s="36" t="inlineStr">
         <is>
           <t>Transaction_Status_AwaitingRelease</t>
         </is>
       </c>
-      <c r="AV1" s="15" t="inlineStr">
+      <c r="AW1" s="15" t="inlineStr">
         <is>
           <t>PercentOfDeal_HB</t>
         </is>
@@ -3402,7 +3409,7 @@
       </c>
       <c r="C2" s="60" t="inlineStr">
         <is>
-          <t>S4NA_31072020212408LEP</t>
+          <t>S4NA_19082020145407QEL</t>
         </is>
       </c>
       <c r="D2" s="60" t="inlineStr">
@@ -3427,7 +3434,7 @@
       </c>
       <c r="H2" s="60" t="inlineStr">
         <is>
-          <t>S4TRM31072020222321AXO</t>
+          <t>S4TRM20082020165350HUY</t>
         </is>
       </c>
       <c r="I2" s="60" t="inlineStr">
@@ -3447,22 +3454,22 @@
       </c>
       <c r="L2" s="60" t="inlineStr">
         <is>
-          <t>02-Jun-2020</t>
+          <t>09-Sep-2020</t>
         </is>
       </c>
       <c r="M2" s="60" t="inlineStr">
         <is>
-          <t>02-Jun-2020</t>
+          <t>09-Sep-2020</t>
         </is>
       </c>
       <c r="N2" s="60" t="inlineStr">
         <is>
-          <t>02-Jun-2021</t>
+          <t>09-Sep-2021</t>
         </is>
       </c>
       <c r="O2" s="17" t="inlineStr">
         <is>
-          <t>02-Jun-2021</t>
+          <t>09-Sep-2021</t>
         </is>
       </c>
       <c r="P2" s="17" t="inlineStr">
@@ -3583,37 +3590,42 @@
           <t>IT_COL-Corporate Lending</t>
         </is>
       </c>
-      <c r="AP2" s="60" t="inlineStr">
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>Hold for Investment - Australia</t>
+        </is>
+      </c>
+      <c r="AQ2" s="60" t="inlineStr">
         <is>
           <t>JCAPR01</t>
         </is>
       </c>
-      <c r="AQ2" s="60" t="inlineStr">
+      <c r="AR2" s="60" t="inlineStr">
         <is>
           <t>password</t>
         </is>
       </c>
-      <c r="AR2" s="60" t="inlineStr">
+      <c r="AS2" s="60" t="inlineStr">
         <is>
           <t>Deals</t>
         </is>
       </c>
-      <c r="AS2" s="60" t="inlineStr">
+      <c r="AT2" s="60" t="inlineStr">
         <is>
           <t>Awaiting Approval</t>
         </is>
       </c>
-      <c r="AT2" s="60" t="inlineStr">
+      <c r="AU2" s="60" t="inlineStr">
         <is>
           <t>Deal Amendment</t>
         </is>
       </c>
-      <c r="AU2" s="60" t="inlineStr">
+      <c r="AV2" s="60" t="inlineStr">
         <is>
           <t>Awaiting Release</t>
         </is>
       </c>
-      <c r="AV2" s="60" t="inlineStr">
+      <c r="AW2" s="60" t="inlineStr">
         <is>
           <t>.40</t>
         </is>
@@ -3861,7 +3873,7 @@
       </c>
       <c r="C2" s="60" t="inlineStr">
         <is>
-          <t>S4NA_31072020212408LEP</t>
+          <t>S4NA_19082020145407QEL</t>
         </is>
       </c>
       <c r="D2" s="60" t="inlineStr">
@@ -4268,12 +4280,12 @@
       </c>
       <c r="C2" s="60" t="inlineStr">
         <is>
-          <t>S4NA_31072020212408LEP</t>
+          <t>S4NA_19082020145407QEL</t>
         </is>
       </c>
       <c r="D2" s="60" t="inlineStr">
         <is>
-          <t>S4REV31072020213654</t>
+          <t>S4REV19082020150304</t>
         </is>
       </c>
       <c r="E2" s="60" t="inlineStr">
@@ -7719,10 +7731,10 @@
   <dimension ref="A1:AX2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
@@ -7773,8 +7785,8 @@
     <col width="17.6640625" customWidth="1" style="60" min="46" max="46"/>
     <col width="21.109375" customWidth="1" style="60" min="47" max="47"/>
     <col width="20.88671875" customWidth="1" style="60" min="48" max="48"/>
-    <col width="25.77734375" bestFit="1" customWidth="1" min="49" max="49"/>
-    <col width="27.33203125" bestFit="1" customWidth="1" min="50" max="50"/>
+    <col width="25.77734375" bestFit="1" customWidth="1" style="78" min="49" max="49"/>
+    <col width="27.33203125" bestFit="1" customWidth="1" style="78" min="50" max="50"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="15" thickBot="1">
@@ -8047,12 +8059,12 @@
       </c>
       <c r="F2" s="60" t="inlineStr">
         <is>
-          <t>S4NA_31072020212408LEP</t>
+          <t>S4NA_19082020145407QEL</t>
         </is>
       </c>
       <c r="G2" s="60" t="inlineStr">
         <is>
-          <t>S4REV31072020213654</t>
+          <t>S4REV19082020150304</t>
         </is>
       </c>
       <c r="I2" s="17" t="inlineStr">
@@ -8082,22 +8094,22 @@
       </c>
       <c r="P2" s="60" t="inlineStr">
         <is>
-          <t>02-Jun-2020</t>
+          <t>09-Sep-2020</t>
         </is>
       </c>
       <c r="Q2" s="18" t="inlineStr">
         <is>
-          <t>02-Jun-2020</t>
+          <t>09-Sep-2020</t>
         </is>
       </c>
       <c r="R2" s="60" t="inlineStr">
         <is>
-          <t>02-Jun-2023</t>
+          <t>09-Sep-2023</t>
         </is>
       </c>
       <c r="S2" s="60" t="inlineStr">
         <is>
-          <t>02-Jun-2023</t>
+          <t>09-Sep-2023</t>
         </is>
       </c>
       <c r="T2" s="29" t="n"/>
@@ -8227,8 +8239,8 @@
     <col width="32" customWidth="1" style="60" min="44" max="45"/>
     <col width="25" customWidth="1" style="60" min="46" max="49"/>
     <col width="25.6640625" customWidth="1" style="60" min="50" max="53"/>
-    <col width="13.109375" bestFit="1" customWidth="1" min="54" max="54"/>
-    <col width="10.44140625" bestFit="1" customWidth="1" min="55" max="55"/>
+    <col width="13.109375" bestFit="1" customWidth="1" style="78" min="54" max="54"/>
+    <col width="10.44140625" bestFit="1" customWidth="1" style="78" min="55" max="55"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="15" thickBot="1">
@@ -8521,7 +8533,7 @@
       </c>
       <c r="C2" s="60" t="inlineStr">
         <is>
-          <t>S4REV31072020213654</t>
+          <t>S4REV19082020150304</t>
         </is>
       </c>
       <c r="D2" s="62" t="inlineStr">
@@ -8716,8 +8728,8 @@
   </sheetPr>
   <dimension ref="A1:AC26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
@@ -8907,7 +8919,7 @@
       </c>
       <c r="C2" s="60" t="inlineStr">
         <is>
-          <t>S4NA_31072020212408LEP</t>
+          <t>S4NA_19082020145407QEL</t>
         </is>
       </c>
       <c r="D2" s="60" t="inlineStr">
@@ -8982,7 +8994,7 @@
       </c>
       <c r="R2" s="60" t="inlineStr">
         <is>
-          <t>02-Jun-2020</t>
+          <t>09-Sep-2020</t>
         </is>
       </c>
       <c r="S2" s="23" t="inlineStr">
@@ -8997,7 +9009,7 @@
       </c>
       <c r="V2" s="60" t="inlineStr">
         <is>
-          <t>02-Jun-2023</t>
+          <t>09-Sep-2023</t>
         </is>
       </c>
       <c r="W2" s="23" t="inlineStr">
@@ -9041,7 +9053,7 @@
       <c r="J3" s="23" t="n"/>
       <c r="Q3" s="23" t="n"/>
     </row>
-    <row r="26" ht="15" customHeight="1">
+    <row r="26" ht="15" customHeight="1" s="78">
       <c r="A26" s="63" t="n"/>
     </row>
   </sheetData>
@@ -9059,8 +9071,8 @@
   </sheetPr>
   <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -9091,7 +9103,7 @@
     <col width="32.6640625" customWidth="1" style="20" min="28" max="28"/>
     <col width="34" customWidth="1" style="20" min="29" max="30"/>
     <col width="31.88671875" customWidth="1" style="20" min="31" max="36"/>
-    <col width="25.88671875" bestFit="1" customWidth="1" min="37" max="37"/>
+    <col width="25.88671875" bestFit="1" customWidth="1" style="78" min="37" max="37"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="15" thickBot="1">
@@ -9299,7 +9311,7 @@
       </c>
       <c r="D2" s="60" t="inlineStr">
         <is>
-          <t>S4NA_31072020212408LEP</t>
+          <t>S4NA_19082020145407QEL</t>
         </is>
       </c>
       <c r="E2" s="62" t="inlineStr">
@@ -9309,7 +9321,7 @@
       </c>
       <c r="F2" s="60" t="inlineStr">
         <is>
-          <t>S4REV31072020213654</t>
+          <t>S4REV19082020150304</t>
         </is>
       </c>
       <c r="G2" s="62" t="inlineStr">
@@ -9339,7 +9351,7 @@
       </c>
       <c r="L2" s="60" t="inlineStr">
         <is>
-          <t>60000133</t>
+          <t>60000394</t>
         </is>
       </c>
       <c r="M2" s="62" t="inlineStr">
@@ -9359,12 +9371,12 @@
       </c>
       <c r="P2" s="72" t="inlineStr">
         <is>
-          <t>07-Jul-2020</t>
+          <t>09-Sep-2020</t>
         </is>
       </c>
       <c r="Q2" s="60" t="inlineStr">
         <is>
-          <t>02-Jun-2023</t>
+          <t>09-Sep-2023</t>
         </is>
       </c>
       <c r="R2" s="62" t="inlineStr">
@@ -9374,7 +9386,7 @@
       </c>
       <c r="S2" s="62" t="inlineStr">
         <is>
-          <t>Weekly</t>
+          <t>None</t>
         </is>
       </c>
       <c r="T2" s="62" t="inlineStr">
@@ -10305,17 +10317,17 @@
       </c>
       <c r="C2" s="60" t="inlineStr">
         <is>
-          <t>S4NA_31072020212408LEP</t>
+          <t>S4NA_19082020145407QEL</t>
         </is>
       </c>
       <c r="D2" s="60" t="inlineStr">
         <is>
-          <t>S4REV31072020213654</t>
+          <t>S4REV19082020150304</t>
         </is>
       </c>
       <c r="E2" s="66" t="inlineStr">
         <is>
-          <t>01-Apr-2023</t>
+          <t>01-Jun-2024</t>
         </is>
       </c>
       <c r="H2" s="6" t="n"/>
@@ -10355,10 +10367,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DZ8"/>
+  <dimension ref="A1:EA8"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
@@ -10367,115 +10379,115 @@
     <col width="60.33203125" customWidth="1" style="60" min="2" max="2"/>
     <col width="32.6640625" customWidth="1" style="60" min="3" max="5"/>
     <col width="18.5546875" customWidth="1" style="60" min="6" max="6"/>
-    <col width="27.109375" customWidth="1" style="60" min="7" max="7"/>
-    <col width="38.44140625" customWidth="1" style="60" min="8" max="9"/>
-    <col width="29.44140625" customWidth="1" style="60" min="10" max="13"/>
-    <col width="32.33203125" customWidth="1" style="60" min="14" max="15"/>
-    <col width="27.109375" bestFit="1" customWidth="1" style="60" min="16" max="16"/>
-    <col width="18.6640625" customWidth="1" style="60" min="17" max="17"/>
-    <col width="20.5546875" customWidth="1" style="60" min="18" max="18"/>
+    <col width="32.6640625" customWidth="1" style="60" min="7" max="8"/>
+    <col width="27.109375" customWidth="1" style="60" min="9" max="9"/>
+    <col width="38.44140625" customWidth="1" style="60" min="10" max="11"/>
+    <col width="29.44140625" customWidth="1" style="60" min="12" max="15"/>
+    <col width="32.33203125" customWidth="1" style="60" min="16" max="17"/>
+    <col width="27.109375" bestFit="1" customWidth="1" style="60" min="18" max="18"/>
     <col width="18.6640625" customWidth="1" style="60" min="19" max="19"/>
-    <col width="18.33203125" customWidth="1" style="60" min="20" max="20"/>
-    <col width="21.88671875" customWidth="1" style="60" min="21" max="21"/>
-    <col width="25.109375" customWidth="1" style="60" min="22" max="22"/>
-    <col width="22.44140625" customWidth="1" style="60" min="23" max="23"/>
-    <col width="27.5546875" customWidth="1" style="60" min="24" max="24"/>
-    <col width="23.44140625" customWidth="1" style="60" min="25" max="25"/>
-    <col width="27.109375" customWidth="1" style="60" min="26" max="26"/>
-    <col width="29" customWidth="1" style="60" min="27" max="27"/>
-    <col width="20.109375" customWidth="1" style="60" min="28" max="28"/>
-    <col width="24.109375" customWidth="1" style="60" min="29" max="30"/>
-    <col width="9.44140625" customWidth="1" style="60" min="31" max="31"/>
-    <col width="17.6640625" customWidth="1" style="60" min="32" max="33"/>
-    <col width="20.44140625" customWidth="1" style="60" min="34" max="34"/>
-    <col width="17.5546875" customWidth="1" style="60" min="35" max="35"/>
-    <col width="21.109375" customWidth="1" style="60" min="36" max="36"/>
-    <col width="19.33203125" customWidth="1" style="60" min="37" max="38"/>
-    <col width="19.6640625" customWidth="1" style="60" min="39" max="39"/>
-    <col width="35" customWidth="1" style="60" min="40" max="40"/>
-    <col width="18.109375" customWidth="1" style="60" min="41" max="41"/>
-    <col width="19" customWidth="1" style="60" min="42" max="42"/>
-    <col width="32.44140625" customWidth="1" style="60" min="43" max="43"/>
-    <col width="17.33203125" customWidth="1" style="60" min="44" max="44"/>
-    <col width="28.6640625" customWidth="1" style="60" min="45" max="45"/>
-    <col width="23.5546875" customWidth="1" style="60" min="46" max="46"/>
-    <col width="45.33203125" customWidth="1" style="60" min="47" max="47"/>
-    <col width="29.88671875" customWidth="1" style="60" min="48" max="48"/>
-    <col width="14.33203125" customWidth="1" style="60" min="49" max="49"/>
-    <col width="23" customWidth="1" style="60" min="50" max="50"/>
-    <col width="19.88671875" customWidth="1" style="60" min="51" max="54"/>
-    <col width="24.6640625" customWidth="1" style="60" min="55" max="56"/>
-    <col width="25" customWidth="1" style="60" min="57" max="57"/>
-    <col width="24.44140625" customWidth="1" style="60" min="58" max="58"/>
-    <col width="30.44140625" customWidth="1" style="60" min="59" max="59"/>
-    <col width="36" customWidth="1" style="60" min="60" max="60"/>
-    <col width="34.44140625" customWidth="1" style="60" min="61" max="61"/>
-    <col width="26.6640625" customWidth="1" style="60" min="62" max="62"/>
-    <col width="17.33203125" customWidth="1" style="60" min="63" max="64"/>
-    <col width="34.109375" customWidth="1" style="60" min="65" max="65"/>
-    <col width="28.44140625" customWidth="1" style="60" min="66" max="66"/>
-    <col width="24.6640625" customWidth="1" style="60" min="67" max="67"/>
-    <col width="30.33203125" customWidth="1" style="60" min="68" max="68"/>
-    <col width="17.5546875" customWidth="1" style="60" min="69" max="69"/>
-    <col width="20.33203125" customWidth="1" style="60" min="70" max="70"/>
-    <col width="12.109375" customWidth="1" style="60" min="71" max="71"/>
-    <col width="21.44140625" customWidth="1" style="60" min="72" max="72"/>
-    <col width="24.109375" customWidth="1" style="60" min="73" max="73"/>
-    <col width="16" customWidth="1" style="60" min="74" max="74"/>
-    <col width="14" customWidth="1" style="60" min="75" max="75"/>
-    <col width="16.6640625" customWidth="1" style="60" min="76" max="76"/>
-    <col width="10" customWidth="1" style="60" min="77" max="77"/>
-    <col width="8.5546875" customWidth="1" style="60" min="78" max="78"/>
-    <col width="19.109375" customWidth="1" style="60" min="79" max="79"/>
-    <col width="37.6640625" customWidth="1" style="60" min="80" max="80"/>
-    <col width="15.88671875" customWidth="1" style="60" min="81" max="81"/>
-    <col width="9.33203125" customWidth="1" style="60" min="82" max="82"/>
-    <col width="16.6640625" customWidth="1" style="60" min="83" max="84"/>
-    <col width="12.88671875" customWidth="1" style="60" min="85" max="85"/>
-    <col width="32.44140625" customWidth="1" style="60" min="86" max="86"/>
-    <col width="11.6640625" customWidth="1" style="60" min="87" max="87"/>
-    <col width="35" customWidth="1" style="60" min="88" max="88"/>
-    <col width="18.109375" customWidth="1" style="60" min="89" max="89"/>
-    <col width="15.6640625" customWidth="1" style="60" min="90" max="90"/>
-    <col width="24" customWidth="1" style="60" min="91" max="91"/>
-    <col width="11.5546875" customWidth="1" style="60" min="92" max="92"/>
-    <col width="8.33203125" customWidth="1" style="60" min="93" max="93"/>
-    <col width="16.5546875" customWidth="1" style="60" min="94" max="94"/>
-    <col width="32.88671875" customWidth="1" style="60" min="95" max="95"/>
-    <col width="18.6640625" customWidth="1" style="60" min="96" max="96"/>
-    <col width="18.33203125" customWidth="1" style="60" min="97" max="97"/>
-    <col width="10.44140625" customWidth="1" style="60" min="98" max="98"/>
-    <col width="9.6640625" customWidth="1" style="60" min="99" max="99"/>
-    <col width="12.6640625" customWidth="1" style="60" min="100" max="100"/>
-    <col width="11.6640625" customWidth="1" style="60" min="101" max="101"/>
-    <col width="24" customWidth="1" style="60" min="102" max="102"/>
-    <col width="43.6640625" customWidth="1" style="60" min="103" max="103"/>
-    <col width="44.88671875" customWidth="1" style="60" min="104" max="104"/>
-    <col width="30.109375" customWidth="1" style="60" min="105" max="105"/>
-    <col width="29.44140625" customWidth="1" style="60" min="106" max="106"/>
-    <col width="25.33203125" customWidth="1" style="60" min="107" max="107"/>
-    <col width="9.5546875" customWidth="1" style="60" min="108" max="108"/>
-    <col width="25.6640625" customWidth="1" style="60" min="109" max="109"/>
-    <col width="19.6640625" customWidth="1" style="60" min="110" max="110"/>
-    <col width="28.5546875" customWidth="1" style="60" min="111" max="111"/>
-    <col width="21.109375" customWidth="1" style="60" min="112" max="112"/>
-    <col width="14.5546875" customWidth="1" style="60" min="113" max="113"/>
-    <col width="20.5546875" customWidth="1" style="60" min="114" max="114"/>
-    <col width="18.33203125" customWidth="1" style="60" min="115" max="115"/>
-    <col width="18.88671875" customWidth="1" style="60" min="116" max="116"/>
-    <col width="35" customWidth="1" style="60" min="117" max="117"/>
-    <col width="20" customWidth="1" style="60" min="118" max="118"/>
-    <col width="32.44140625" customWidth="1" style="60" min="119" max="119"/>
-    <col width="21.5546875" customWidth="1" style="60" min="120" max="120"/>
-    <col width="13.5546875" customWidth="1" style="60" min="121" max="121"/>
-    <col width="26.33203125" customWidth="1" style="60" min="122" max="122"/>
-    <col width="19.109375" customWidth="1" style="60" min="123" max="123"/>
-    <col width="44" customWidth="1" style="60" min="124" max="124"/>
-    <col width="23.5546875" customWidth="1" style="60" min="125" max="125"/>
-    <col width="26.33203125" customWidth="1" style="60" min="126" max="126"/>
-    <col width="34.88671875" customWidth="1" style="60" min="127" max="127"/>
-    <col width="9.109375" customWidth="1" style="60" min="128" max="128"/>
-    <col width="15.88671875" customWidth="1" style="60" min="129" max="129"/>
+    <col width="20.5546875" customWidth="1" style="60" min="20" max="20"/>
+    <col width="18.6640625" customWidth="1" style="60" min="21" max="21"/>
+    <col width="36.5546875" customWidth="1" style="60" min="22" max="22"/>
+    <col width="25.109375" customWidth="1" style="60" min="23" max="23"/>
+    <col width="22.44140625" customWidth="1" style="60" min="24" max="24"/>
+    <col width="27.5546875" customWidth="1" style="60" min="25" max="25"/>
+    <col width="23.44140625" customWidth="1" style="60" min="26" max="26"/>
+    <col width="27.109375" customWidth="1" style="60" min="27" max="27"/>
+    <col width="29" customWidth="1" style="60" min="28" max="28"/>
+    <col width="20.109375" customWidth="1" style="60" min="29" max="29"/>
+    <col width="24.109375" customWidth="1" style="60" min="30" max="31"/>
+    <col width="9.44140625" customWidth="1" style="60" min="32" max="32"/>
+    <col width="17.6640625" customWidth="1" style="60" min="33" max="34"/>
+    <col width="20.44140625" customWidth="1" style="60" min="35" max="35"/>
+    <col width="17.5546875" customWidth="1" style="60" min="36" max="36"/>
+    <col width="21.109375" customWidth="1" style="60" min="37" max="37"/>
+    <col width="19.33203125" customWidth="1" style="60" min="38" max="39"/>
+    <col width="19.6640625" customWidth="1" style="60" min="40" max="40"/>
+    <col width="35" customWidth="1" style="60" min="41" max="41"/>
+    <col width="18.109375" customWidth="1" style="60" min="42" max="42"/>
+    <col width="19" customWidth="1" style="60" min="43" max="43"/>
+    <col width="32.44140625" customWidth="1" style="60" min="44" max="44"/>
+    <col width="17.33203125" customWidth="1" style="60" min="45" max="45"/>
+    <col width="28.6640625" customWidth="1" style="60" min="46" max="46"/>
+    <col width="23.5546875" customWidth="1" style="60" min="47" max="47"/>
+    <col width="45.33203125" customWidth="1" style="60" min="48" max="48"/>
+    <col width="29.88671875" customWidth="1" style="60" min="49" max="49"/>
+    <col width="14.33203125" customWidth="1" style="60" min="50" max="50"/>
+    <col width="23" customWidth="1" style="60" min="51" max="51"/>
+    <col width="19.88671875" customWidth="1" style="60" min="52" max="55"/>
+    <col width="24.6640625" customWidth="1" style="60" min="56" max="57"/>
+    <col width="25" customWidth="1" style="60" min="58" max="58"/>
+    <col width="24.44140625" customWidth="1" style="60" min="59" max="59"/>
+    <col width="30.44140625" customWidth="1" style="60" min="60" max="60"/>
+    <col width="36" customWidth="1" style="60" min="61" max="61"/>
+    <col width="34.44140625" customWidth="1" style="60" min="62" max="62"/>
+    <col width="26.6640625" customWidth="1" style="60" min="63" max="63"/>
+    <col width="17.33203125" customWidth="1" style="60" min="64" max="65"/>
+    <col width="34.109375" customWidth="1" style="60" min="66" max="66"/>
+    <col width="28.44140625" customWidth="1" style="60" min="67" max="67"/>
+    <col width="24.6640625" customWidth="1" style="60" min="68" max="68"/>
+    <col width="30.33203125" customWidth="1" style="60" min="69" max="69"/>
+    <col width="17.5546875" customWidth="1" style="60" min="70" max="70"/>
+    <col width="20.33203125" customWidth="1" style="60" min="71" max="71"/>
+    <col width="12.109375" customWidth="1" style="60" min="72" max="72"/>
+    <col width="21.44140625" customWidth="1" style="60" min="73" max="73"/>
+    <col width="24.109375" customWidth="1" style="60" min="74" max="74"/>
+    <col width="16" customWidth="1" style="60" min="75" max="75"/>
+    <col width="14" customWidth="1" style="60" min="76" max="76"/>
+    <col width="16.6640625" customWidth="1" style="60" min="77" max="77"/>
+    <col width="10" customWidth="1" style="60" min="78" max="78"/>
+    <col width="8.5546875" customWidth="1" style="60" min="79" max="79"/>
+    <col width="19.109375" customWidth="1" style="60" min="80" max="80"/>
+    <col width="37.6640625" customWidth="1" style="60" min="81" max="81"/>
+    <col width="15.88671875" customWidth="1" style="60" min="82" max="82"/>
+    <col width="9.33203125" customWidth="1" style="60" min="83" max="83"/>
+    <col width="16.6640625" customWidth="1" style="60" min="84" max="85"/>
+    <col width="12.88671875" customWidth="1" style="60" min="86" max="86"/>
+    <col width="32.44140625" customWidth="1" style="60" min="87" max="87"/>
+    <col width="11.6640625" customWidth="1" style="60" min="88" max="88"/>
+    <col width="35" customWidth="1" style="60" min="89" max="89"/>
+    <col width="18.109375" customWidth="1" style="60" min="90" max="90"/>
+    <col width="15.6640625" customWidth="1" style="60" min="91" max="91"/>
+    <col width="24" customWidth="1" style="60" min="92" max="92"/>
+    <col width="11.5546875" customWidth="1" style="60" min="93" max="93"/>
+    <col width="8.33203125" customWidth="1" style="60" min="94" max="94"/>
+    <col width="16.5546875" customWidth="1" style="60" min="95" max="95"/>
+    <col width="32.88671875" customWidth="1" style="60" min="96" max="96"/>
+    <col width="18.6640625" customWidth="1" style="60" min="97" max="97"/>
+    <col width="18.33203125" customWidth="1" style="60" min="98" max="98"/>
+    <col width="10.44140625" customWidth="1" style="60" min="99" max="99"/>
+    <col width="9.6640625" customWidth="1" style="60" min="100" max="100"/>
+    <col width="12.6640625" customWidth="1" style="60" min="101" max="101"/>
+    <col width="11.6640625" customWidth="1" style="60" min="102" max="102"/>
+    <col width="24" customWidth="1" style="60" min="103" max="103"/>
+    <col width="43.6640625" customWidth="1" style="60" min="104" max="104"/>
+    <col width="44.88671875" customWidth="1" style="60" min="105" max="105"/>
+    <col width="30.109375" customWidth="1" style="60" min="106" max="106"/>
+    <col width="29.44140625" customWidth="1" style="60" min="107" max="107"/>
+    <col width="25.33203125" customWidth="1" style="60" min="108" max="108"/>
+    <col width="9.5546875" customWidth="1" style="60" min="109" max="109"/>
+    <col width="25.6640625" customWidth="1" style="60" min="110" max="110"/>
+    <col width="19.6640625" customWidth="1" style="60" min="111" max="111"/>
+    <col width="28.5546875" customWidth="1" style="60" min="112" max="112"/>
+    <col width="21.109375" customWidth="1" style="60" min="113" max="113"/>
+    <col width="14.5546875" customWidth="1" style="60" min="114" max="114"/>
+    <col width="20.5546875" customWidth="1" style="60" min="115" max="115"/>
+    <col width="18.33203125" customWidth="1" style="60" min="116" max="116"/>
+    <col width="18.88671875" customWidth="1" style="60" min="117" max="117"/>
+    <col width="35" customWidth="1" style="60" min="118" max="118"/>
+    <col width="20" customWidth="1" style="60" min="119" max="119"/>
+    <col width="32.44140625" customWidth="1" style="60" min="120" max="120"/>
+    <col width="21.5546875" customWidth="1" style="60" min="121" max="121"/>
+    <col width="13.5546875" customWidth="1" style="60" min="122" max="122"/>
+    <col width="26.33203125" customWidth="1" style="60" min="123" max="123"/>
+    <col width="19.109375" customWidth="1" style="60" min="124" max="124"/>
+    <col width="44" customWidth="1" style="60" min="125" max="125"/>
+    <col width="23.5546875" customWidth="1" style="60" min="126" max="126"/>
+    <col width="26.33203125" customWidth="1" style="60" min="127" max="127"/>
+    <col width="34.88671875" customWidth="1" style="60" min="128" max="128"/>
+    <col width="9.109375" customWidth="1" style="60" min="129" max="129"/>
+    <col width="15.88671875" customWidth="1" style="60" min="130" max="130"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="15" thickBot="1">
@@ -10509,72 +10521,86 @@
           <t>New_Loan_Alias</t>
         </is>
       </c>
-      <c r="G1" s="16" t="inlineStr">
+      <c r="G1" s="14" t="inlineStr">
+        <is>
+          <t>Facility_SellAmount</t>
+        </is>
+      </c>
+      <c r="H1" s="14" t="inlineStr">
+        <is>
+          <t>Facility_SellAmount2</t>
+        </is>
+      </c>
+      <c r="I1" s="16" t="inlineStr">
         <is>
           <t>LenderShare_Type</t>
         </is>
       </c>
-      <c r="H1" s="14" t="inlineStr">
+      <c r="J1" s="14" t="inlineStr">
         <is>
           <t>Lender_ShortName</t>
         </is>
       </c>
-      <c r="I1" s="13" t="inlineStr">
+      <c r="K1" s="13" t="inlineStr">
         <is>
           <t>Seller_Riskbook</t>
         </is>
       </c>
-      <c r="J1" s="16" t="inlineStr">
+      <c r="L1" s="16" t="inlineStr">
         <is>
           <t>AssignmentSell_PercentofDeal</t>
         </is>
       </c>
-      <c r="K1" s="16" t="inlineStr">
+      <c r="M1" s="16" t="inlineStr">
         <is>
           <t>AssignmentSell_IntFeeType</t>
         </is>
       </c>
-      <c r="L1" s="16" t="inlineStr">
+      <c r="N1" s="16" t="inlineStr">
         <is>
           <t>BuyandSellPrice_Percentage</t>
         </is>
       </c>
-      <c r="M1" s="15" t="inlineStr">
+      <c r="O1" s="15" t="inlineStr">
         <is>
           <t>AssignmentSell_ContactName</t>
         </is>
       </c>
-      <c r="N1" s="15" t="inlineStr">
+      <c r="P1" s="15" t="inlineStr">
         <is>
           <t>AssignmentSell_SGLender</t>
         </is>
       </c>
-      <c r="O1" s="15" t="inlineStr">
+      <c r="Q1" s="15" t="inlineStr">
         <is>
           <t>AssignmentSell_SGAlias</t>
         </is>
       </c>
-      <c r="P1" s="14" t="inlineStr">
+      <c r="R1" s="14" t="inlineStr">
         <is>
           <t>AssignmentSell_CircledDate</t>
         </is>
       </c>
-      <c r="Q1" s="15" t="inlineStr">
+      <c r="S1" s="15" t="inlineStr">
         <is>
           <t>WIPTransaction_Type</t>
         </is>
       </c>
-      <c r="R1" s="15" t="inlineStr">
+      <c r="T1" s="15" t="inlineStr">
         <is>
           <t>Lender_Host</t>
         </is>
       </c>
-      <c r="S1" s="15" t="inlineStr">
+      <c r="U1" s="15" t="inlineStr">
         <is>
           <t>CircleTransaction_Type</t>
         </is>
       </c>
-      <c r="BZ1" s="16" t="n"/>
+      <c r="V1" s="12" t="inlineStr">
+        <is>
+          <t>PortfolioBranch</t>
+        </is>
+      </c>
       <c r="CA1" s="16" t="n"/>
       <c r="CB1" s="16" t="n"/>
       <c r="CC1" s="16" t="n"/>
@@ -10626,6 +10652,7 @@
       <c r="DW1" s="16" t="n"/>
       <c r="DX1" s="16" t="n"/>
       <c r="DY1" s="16" t="n"/>
+      <c r="DZ1" s="16" t="n"/>
     </row>
     <row r="2" customFormat="1" s="60">
       <c r="A2" s="60" t="inlineStr">
@@ -10640,114 +10667,130 @@
       </c>
       <c r="C2" s="60" t="inlineStr">
         <is>
-          <t>S4NA_31072020212408LEP</t>
+          <t>S4NA_19082020145407QEL</t>
         </is>
       </c>
       <c r="D2" s="60" t="inlineStr">
         <is>
-          <t>S4REV31072020213654</t>
+          <t>S4REV19082020150304</t>
         </is>
       </c>
       <c r="E2" s="60" t="inlineStr">
         <is>
-          <t>S4TRM31072020222321AXO</t>
+          <t>S4TRM20082020165350HUY</t>
         </is>
       </c>
       <c r="F2" s="66" t="inlineStr">
         <is>
-          <t>60000135</t>
-        </is>
-      </c>
-      <c r="G2" s="60" t="inlineStr">
+          <t>60000394</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>50,000,000.00</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>50,000.00</t>
+        </is>
+      </c>
+      <c r="I2" s="60" t="inlineStr">
         <is>
           <t>Assignment</t>
         </is>
       </c>
-      <c r="H2" s="60" t="inlineStr">
+      <c r="J2" s="60" t="inlineStr">
         <is>
           <t>LENDSHORT0414</t>
         </is>
       </c>
-      <c r="I2" s="61" t="inlineStr">
+      <c r="K2" s="61" t="inlineStr">
         <is>
           <t>IT_COL</t>
         </is>
       </c>
-      <c r="J2" s="66" t="inlineStr">
+      <c r="L2" s="66" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="K2" s="17" t="inlineStr">
+      <c r="M2" s="17" t="inlineStr">
         <is>
           <t>Actual\Settlement Date</t>
         </is>
       </c>
-      <c r="L2" s="60" t="n">
+      <c r="N2" s="60" t="n">
         <v>100</v>
       </c>
-      <c r="M2" s="18" t="inlineStr">
+      <c r="O2" s="18" t="inlineStr">
         <is>
           <t>NHB,  Lending</t>
         </is>
       </c>
-      <c r="N2" s="6" t="inlineStr">
+      <c r="P2" s="6" t="inlineStr">
         <is>
           <t>COMMONWEALTHBANKOFAUSTCB001</t>
         </is>
       </c>
-      <c r="O2" s="62" t="inlineStr">
-        <is>
-          <t>BUSINESS VERIFICATION</t>
-        </is>
-      </c>
-      <c r="P2" s="18" t="n"/>
-      <c r="Q2" s="60" t="inlineStr">
+      <c r="Q2" s="62" t="inlineStr">
+        <is>
+          <t>AGENCY</t>
+        </is>
+      </c>
+      <c r="R2" s="18" t="inlineStr">
+        <is>
+          <t>09-Sep-2020</t>
+        </is>
+      </c>
+      <c r="S2" s="60" t="inlineStr">
         <is>
           <t>Circles</t>
         </is>
       </c>
-      <c r="R2" s="60" t="inlineStr">
+      <c r="T2" s="60" t="inlineStr">
         <is>
           <t>Host Bank</t>
         </is>
       </c>
-      <c r="S2" s="60" t="inlineStr">
+      <c r="U2" s="60" t="inlineStr">
         <is>
           <t>Assignment</t>
         </is>
       </c>
-      <c r="DZ2" s="60" t="inlineStr">
+      <c r="V2" s="62" t="inlineStr">
+        <is>
+          <t>Commonwealth Bank of Australia - DBU</t>
+        </is>
+      </c>
+      <c r="EA2" s="60" t="inlineStr">
         <is>
           <t>TERM_SC42533</t>
         </is>
       </c>
     </row>
     <row r="3" customFormat="1" s="60">
-      <c r="P3" s="62" t="n"/>
-      <c r="Q3" s="62" t="n"/>
+      <c r="R3" s="62" t="n"/>
       <c r="S3" s="62" t="n"/>
-      <c r="T3" s="62" t="n"/>
-      <c r="U3" s="6" t="n"/>
-      <c r="V3" s="6" t="n"/>
-      <c r="W3" s="8" t="n"/>
-      <c r="X3" s="6" t="n"/>
-      <c r="Y3" s="19" t="n"/>
+      <c r="U3" s="62" t="n"/>
+      <c r="W3" s="6" t="n"/>
+      <c r="X3" s="8" t="n"/>
+      <c r="Y3" s="6" t="n"/>
+      <c r="Z3" s="19" t="n"/>
     </row>
     <row r="4" customFormat="1" s="60">
       <c r="C4" s="62" t="n"/>
       <c r="D4" s="62" t="n"/>
       <c r="E4" s="62" t="n"/>
       <c r="G4" s="62" t="n"/>
-      <c r="M4" s="62" t="n"/>
-      <c r="N4" s="62" t="n"/>
+      <c r="H4" s="62" t="n"/>
+      <c r="I4" s="62" t="n"/>
       <c r="O4" s="62" t="n"/>
       <c r="P4" s="62" t="n"/>
       <c r="Q4" s="62" t="n"/>
+      <c r="R4" s="62" t="n"/>
       <c r="S4" s="62" t="n"/>
-      <c r="T4" s="62" t="n"/>
-      <c r="U4" s="6" t="n"/>
-      <c r="V4" s="6" t="n"/>
+      <c r="U4" s="62" t="n"/>
       <c r="W4" s="6" t="n"/>
       <c r="X4" s="6" t="n"/>
       <c r="Y4" s="6" t="n"/>
@@ -10757,13 +10800,13 @@
       <c r="AC4" s="6" t="n"/>
       <c r="AD4" s="6" t="n"/>
       <c r="AE4" s="6" t="n"/>
-      <c r="AG4" s="6" t="n"/>
+      <c r="AF4" s="6" t="n"/>
       <c r="AH4" s="6" t="n"/>
       <c r="AI4" s="6" t="n"/>
       <c r="AJ4" s="6" t="n"/>
-      <c r="AL4" s="6" t="n"/>
+      <c r="AK4" s="6" t="n"/>
       <c r="AM4" s="6" t="n"/>
-      <c r="AO4" s="6" t="n"/>
+      <c r="AN4" s="6" t="n"/>
       <c r="AP4" s="6" t="n"/>
       <c r="AQ4" s="6" t="n"/>
       <c r="AR4" s="6" t="n"/>
@@ -10772,21 +10815,21 @@
       <c r="AU4" s="6" t="n"/>
       <c r="AV4" s="6" t="n"/>
       <c r="AW4" s="6" t="n"/>
-      <c r="AY4" s="6" t="n"/>
+      <c r="AX4" s="6" t="n"/>
       <c r="AZ4" s="6" t="n"/>
       <c r="BA4" s="6" t="n"/>
-      <c r="BC4" s="6" t="n"/>
+      <c r="BB4" s="6" t="n"/>
       <c r="BD4" s="6" t="n"/>
       <c r="BE4" s="6" t="n"/>
       <c r="BF4" s="6" t="n"/>
       <c r="BG4" s="6" t="n"/>
       <c r="BH4" s="6" t="n"/>
-      <c r="BK4" s="6" t="n"/>
-      <c r="BM4" s="6" t="n"/>
+      <c r="BI4" s="6" t="n"/>
+      <c r="BL4" s="6" t="n"/>
       <c r="BN4" s="6" t="n"/>
-      <c r="BS4" s="6" t="n"/>
-      <c r="BV4" s="6" t="n"/>
-      <c r="BY4" s="6" t="n"/>
+      <c r="BO4" s="6" t="n"/>
+      <c r="BT4" s="6" t="n"/>
+      <c r="BW4" s="6" t="n"/>
       <c r="BZ4" s="6" t="n"/>
       <c r="CA4" s="6" t="n"/>
       <c r="CB4" s="6" t="n"/>
@@ -10796,7 +10839,7 @@
       <c r="CF4" s="6" t="n"/>
       <c r="CG4" s="6" t="n"/>
       <c r="CH4" s="6" t="n"/>
-      <c r="CJ4" s="6" t="n"/>
+      <c r="CI4" s="6" t="n"/>
       <c r="CK4" s="6" t="n"/>
       <c r="CL4" s="6" t="n"/>
       <c r="CM4" s="6" t="n"/>
@@ -10808,7 +10851,7 @@
       <c r="CS4" s="6" t="n"/>
       <c r="CT4" s="6" t="n"/>
       <c r="CU4" s="6" t="n"/>
-      <c r="CX4" s="6" t="n"/>
+      <c r="CV4" s="6" t="n"/>
       <c r="CY4" s="6" t="n"/>
       <c r="CZ4" s="6" t="n"/>
       <c r="DA4" s="6" t="n"/>
@@ -10819,8 +10862,8 @@
       <c r="DF4" s="6" t="n"/>
       <c r="DG4" s="6" t="n"/>
       <c r="DH4" s="6" t="n"/>
-      <c r="DL4" s="6" t="n"/>
-      <c r="DN4" s="6" t="n"/>
+      <c r="DI4" s="6" t="n"/>
+      <c r="DM4" s="6" t="n"/>
       <c r="DO4" s="6" t="n"/>
       <c r="DP4" s="6" t="n"/>
       <c r="DQ4" s="6" t="n"/>
@@ -10832,27 +10875,25 @@
       <c r="DW4" s="6" t="n"/>
       <c r="DX4" s="6" t="n"/>
       <c r="DY4" s="6" t="n"/>
+      <c r="DZ4" s="6" t="n"/>
     </row>
     <row r="5" customFormat="1" s="60">
-      <c r="M5" s="17" t="n"/>
-      <c r="O5" s="18" t="n"/>
+      <c r="O5" s="17" t="n"/>
+      <c r="Q5" s="18" t="n"/>
     </row>
     <row r="6" customFormat="1" s="60">
-      <c r="Q6" s="62" t="n"/>
       <c r="S6" s="62" t="n"/>
-      <c r="T6" s="62" t="n"/>
+      <c r="U6" s="62" t="n"/>
     </row>
     <row r="7" customFormat="1" s="60">
-      <c r="P7" s="62" t="n"/>
-      <c r="Q7" s="62" t="n"/>
+      <c r="R7" s="62" t="n"/>
       <c r="S7" s="62" t="n"/>
-      <c r="T7" s="62" t="n"/>
+      <c r="U7" s="62" t="n"/>
     </row>
     <row r="8" customFormat="1" s="60">
-      <c r="P8" s="62" t="n"/>
-      <c r="Q8" s="62" t="n"/>
+      <c r="R8" s="62" t="n"/>
       <c r="S8" s="62" t="n"/>
-      <c r="T8" s="62" t="n"/>
+      <c r="U8" s="62" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -10869,8 +10910,8 @@
   </sheetPr>
   <dimension ref="A1:AO4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="AE1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM2" sqref="AM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -10908,11 +10949,11 @@
     <col width="29.88671875" bestFit="1" customWidth="1" style="20" min="31" max="31"/>
     <col width="18.109375" bestFit="1" customWidth="1" style="20" min="32" max="32"/>
     <col width="14.88671875" bestFit="1" customWidth="1" style="20" min="33" max="33"/>
-    <col width="22.88671875" bestFit="1" customWidth="1" min="34" max="34"/>
-    <col width="20.5546875" bestFit="1" customWidth="1" min="35" max="36"/>
-    <col width="16.109375" bestFit="1" customWidth="1" min="37" max="37"/>
-    <col width="18" bestFit="1" customWidth="1" min="38" max="38"/>
-    <col width="39.5546875" bestFit="1" customWidth="1" min="39" max="39"/>
+    <col width="22.88671875" bestFit="1" customWidth="1" style="78" min="34" max="34"/>
+    <col width="20.5546875" bestFit="1" customWidth="1" style="78" min="35" max="36"/>
+    <col width="16.109375" bestFit="1" customWidth="1" style="78" min="37" max="37"/>
+    <col width="18" bestFit="1" customWidth="1" style="78" min="38" max="38"/>
+    <col width="39.5546875" bestFit="1" customWidth="1" style="78" min="39" max="39"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="15" thickBot="1">
@@ -11125,12 +11166,12 @@
       </c>
       <c r="C2" s="60" t="inlineStr">
         <is>
-          <t>S4NA_31072020212408LEP</t>
+          <t>S4NA_19082020145407QEL</t>
         </is>
       </c>
       <c r="D2" s="60" t="inlineStr">
         <is>
-          <t>S4REV31072020213654</t>
+          <t>S4REV19082020150304</t>
         </is>
       </c>
       <c r="E2" s="60" t="inlineStr">
@@ -11140,7 +11181,7 @@
       </c>
       <c r="F2" s="66" t="inlineStr">
         <is>
-          <t>60000133</t>
+          <t>60000394</t>
         </is>
       </c>
       <c r="G2" s="60" t="inlineStr">

--- a/DataSet/LoanIQ_DataSet/EVG_PTYLIQ04_BaselineNonAgentSyndication.xlsx
+++ b/DataSet/LoanIQ_DataSet/EVG_PTYLIQ04_BaselineNonAgentSyndication.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\LoanIQ_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66211209-B008-4E57-9CF2-34165E88C49A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7B9510-ED11-4AC7-BB61-D6EF765C1FF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="12885" firstSheet="14" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRED01_DealSetup" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="1007">
   <si>
     <t>rowid</t>
   </si>
@@ -3033,10 +3033,34 @@
     <t>IMTUSD2-1946</t>
   </si>
   <si>
-    <t>Entity</t>
-  </si>
-  <si>
-    <t>AU</t>
+    <t>UserZone</t>
+  </si>
+  <si>
+    <t>UserBranch</t>
+  </si>
+  <si>
+    <t>GST_Number</t>
+  </si>
+  <si>
+    <t>67895843245</t>
+  </si>
+  <si>
+    <t>Address_Line_3</t>
+  </si>
+  <si>
+    <t>Address_Line_4</t>
+  </si>
+  <si>
+    <t>Pimpama Qld 30</t>
+  </si>
+  <si>
+    <t>Pennyroyal 40</t>
+  </si>
+  <si>
+    <t>Short_Name_Prefix</t>
+  </si>
+  <si>
+    <t>ESPS1 7120655</t>
   </si>
 </sst>
 </file>
@@ -3047,7 +3071,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3120,8 +3144,14 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3161,6 +3191,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3225,7 +3261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -3339,7 +3375,13 @@
     <xf numFmtId="49" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3657,11 +3699,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:FE7"/>
+  <dimension ref="A1:FD7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="EY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="FE2" sqref="FE2"/>
+      <pane xSplit="2" topLeftCell="DB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DB2" sqref="DB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3804,7 +3846,7 @@
     <col min="157" max="157" width="14" style="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:161" s="15" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:160" s="15" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4273,11 +4315,8 @@
       <c r="EZ1" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="FE1" s="15" t="s">
-        <v>997</v>
-      </c>
     </row>
-    <row r="2" spans="1:161" s="60" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:160" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>156</v>
       </c>
@@ -4632,14 +4671,11 @@
       <c r="FD2" s="60" t="s">
         <v>228</v>
       </c>
-      <c r="FE2" s="79" t="s">
-        <v>998</v>
-      </c>
     </row>
-    <row r="3" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:160" x14ac:dyDescent="0.25">
       <c r="CD3" s="62"/>
     </row>
-    <row r="5" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:160" x14ac:dyDescent="0.25">
       <c r="DZ5" s="59"/>
       <c r="EH5" s="59"/>
       <c r="EI5" s="59"/>
@@ -4656,7 +4692,7 @@
       <c r="EU5" s="59"/>
       <c r="EV5" s="59"/>
     </row>
-    <row r="7" spans="1:161" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:160" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="DL7" s="60"/>
       <c r="DM7" s="60"/>
       <c r="DN7" s="60"/>
@@ -4692,10 +4728,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AS15"/>
+  <dimension ref="A1:AR15"/>
   <sheetViews>
-    <sheetView topLeftCell="AK1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AS1" sqref="AS1:AS2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4744,7 +4780,7 @@
     <col min="44" max="44" width="16" style="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="22" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" s="22" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -4877,11 +4913,8 @@
       <c r="AR1" s="22" t="s">
         <v>599</v>
       </c>
-      <c r="AS1" s="15" t="s">
-        <v>997</v>
-      </c>
     </row>
-    <row r="2" spans="1:45" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>156</v>
       </c>
@@ -5009,11 +5042,8 @@
       <c r="AR2" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="AS2" s="79" t="s">
-        <v>998</v>
-      </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="C9" s="60"/>
       <c r="D9" s="62"/>
       <c r="E9" s="60"/>
@@ -5024,15 +5054,15 @@
       <c r="J9" s="62"/>
       <c r="K9" s="60"/>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
       <c r="O13" s="28"/>
       <c r="Q13" s="28"/>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="N14" s="28"/>
       <c r="O14" s="28"/>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
       <c r="N15" s="28"/>
       <c r="O15" s="28"/>
     </row>
@@ -5048,10 +5078,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q2"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5074,7 +5104,7 @@
     <col min="16" max="16" width="16.85546875" style="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="15" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="15" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -5123,11 +5153,8 @@
       <c r="P1" s="14" t="s">
         <v>624</v>
       </c>
-      <c r="Q1" s="15" t="s">
-        <v>997</v>
-      </c>
     </row>
-    <row r="2" spans="1:17" s="60" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="60" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="60" t="s">
         <v>156</v>
       </c>
@@ -5175,9 +5202,6 @@
       </c>
       <c r="P2" s="60" t="s">
         <v>632</v>
-      </c>
-      <c r="Q2" s="79" t="s">
-        <v>998</v>
       </c>
     </row>
   </sheetData>
@@ -5194,8 +5218,8 @@
   </sheetPr>
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5262,9 +5286,6 @@
       <c r="O1" s="12" t="s">
         <v>635</v>
       </c>
-      <c r="P1" s="15" t="s">
-        <v>997</v>
-      </c>
     </row>
     <row r="2" spans="1:18" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
@@ -5308,9 +5329,6 @@
       </c>
       <c r="O2" s="60" t="s">
         <v>462</v>
-      </c>
-      <c r="P2" s="79" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -5332,7 +5350,7 @@
   <dimension ref="A1:AX2"/>
   <sheetViews>
     <sheetView topLeftCell="AQ1" zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
-      <selection activeCell="AX1" sqref="AX1:AX2"/>
+      <selection activeCell="AX2" sqref="AX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5389,7 +5407,7 @@
     <col min="50" max="50" width="38.28515625" style="78" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -5537,11 +5555,8 @@
       <c r="AW1" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="AX1" s="15" t="s">
-        <v>997</v>
-      </c>
     </row>
-    <row r="2" spans="1:50" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
         <v>156</v>
       </c>
@@ -5688,9 +5703,6 @@
       </c>
       <c r="AW2" s="60" t="s">
         <v>688</v>
-      </c>
-      <c r="AX2" s="79" t="s">
-        <v>998</v>
       </c>
     </row>
   </sheetData>
@@ -5708,8 +5720,8 @@
   <dimension ref="A1:DY2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1:H2"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5854,9 +5866,6 @@
       <c r="G1" s="15" t="s">
         <v>691</v>
       </c>
-      <c r="H1" s="15" t="s">
-        <v>997</v>
-      </c>
       <c r="BZ1" s="16"/>
       <c r="CA1" s="16"/>
       <c r="CB1" s="16"/>
@@ -5932,9 +5941,6 @@
       <c r="G2" s="60" t="s">
         <v>206</v>
       </c>
-      <c r="H2" s="79" t="s">
-        <v>998</v>
-      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -5948,10 +5954,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BG2"/>
+  <dimension ref="A1:BF2"/>
   <sheetViews>
-    <sheetView topLeftCell="AZ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BG1" sqref="BG1:BG2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6013,7 +6019,7 @@
     <col min="58" max="58" width="34.28515625" style="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="48" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:58" s="48" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
@@ -6188,11 +6194,8 @@
       <c r="BF1" s="51" t="s">
         <v>674</v>
       </c>
-      <c r="BG1" s="15" t="s">
-        <v>997</v>
-      </c>
     </row>
-    <row r="2" spans="1:59" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>156</v>
       </c>
@@ -6289,9 +6292,6 @@
       </c>
       <c r="BF2" s="60" t="s">
         <v>564</v>
-      </c>
-      <c r="BG2" s="79" t="s">
-        <v>998</v>
       </c>
     </row>
   </sheetData>
@@ -6309,8 +6309,8 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T1" sqref="T1:T2"/>
+      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6404,9 +6404,7 @@
       <c r="S1" s="14" t="s">
         <v>624</v>
       </c>
-      <c r="T1" s="15" t="s">
-        <v>997</v>
-      </c>
+      <c r="T1" s="16"/>
       <c r="U1" s="16"/>
       <c r="V1" s="16"/>
       <c r="W1" s="16"/>
@@ -6472,9 +6470,6 @@
       <c r="S2" s="60" t="s">
         <v>632</v>
       </c>
-      <c r="T2" s="79" t="s">
-        <v>998</v>
-      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -6488,10 +6483,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:EM2"/>
+  <dimension ref="A1:EL2"/>
   <sheetViews>
-    <sheetView topLeftCell="DU1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="EM1" sqref="EM1:EM2"/>
+    <sheetView topLeftCell="CM1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CP2" sqref="CP2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6580,7 +6575,7 @@
     <col min="96" max="96" width="34.85546875" style="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:143" s="34" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:142" s="34" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -7007,11 +7002,8 @@
       <c r="EL1" s="12" t="s">
         <v>903</v>
       </c>
-      <c r="EM1" s="15" t="s">
-        <v>997</v>
-      </c>
     </row>
-    <row r="2" spans="1:143" s="61" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:142" s="61" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
         <v>156</v>
       </c>
@@ -7433,9 +7425,6 @@
       </c>
       <c r="EL2" s="23" t="s">
         <v>993</v>
-      </c>
-      <c r="EM2" s="79" t="s">
-        <v>998</v>
       </c>
     </row>
   </sheetData>
@@ -7450,10 +7439,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:EN2"/>
+  <dimension ref="A1:EM2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DW1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="EJ13" sqref="EJ13"/>
+    <sheetView topLeftCell="CN1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CQ2" sqref="CQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7543,7 +7532,7 @@
     <col min="108" max="108" width="20" style="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:144" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:143" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7973,11 +7962,8 @@
       <c r="EM1" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="EN1" s="15" t="s">
-        <v>997</v>
-      </c>
     </row>
-    <row r="2" spans="1:144" s="61" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:143" s="61" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
         <v>156</v>
       </c>
@@ -8402,9 +8388,6 @@
       </c>
       <c r="EM2" s="23" t="s">
         <v>993</v>
-      </c>
-      <c r="EN2" s="79" t="s">
-        <v>998</v>
       </c>
     </row>
   </sheetData>
@@ -8419,13 +8402,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AX2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AT2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AY2" sqref="AY2"/>
+      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8480,7 +8463,7 @@
     <col min="50" max="50" width="27.28515625" style="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="15" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" s="15" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -8631,11 +8614,8 @@
       <c r="AX1" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="AY1" s="15" t="s">
-        <v>997</v>
-      </c>
     </row>
-    <row r="2" spans="1:51" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:50" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>156</v>
       </c>
@@ -8724,9 +8704,6 @@
       </c>
       <c r="AX2" s="17" t="s">
         <v>277</v>
-      </c>
-      <c r="AY2" s="17" t="s">
-        <v>998</v>
       </c>
     </row>
   </sheetData>
@@ -8741,13 +8718,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BC2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="BA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BD1" sqref="BD1"/>
+      <selection pane="bottomRight" activeCell="BH7" sqref="BH7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8783,7 +8760,7 @@
     <col min="55" max="55" width="10.42578125" style="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" s="15" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" s="15" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -8949,11 +8926,8 @@
       <c r="BC1" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="BD1" s="15" t="s">
-        <v>997</v>
-      </c>
     </row>
-    <row r="2" spans="1:56" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:55" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="60" t="s">
         <v>156</v>
       </c>
@@ -9068,9 +9042,6 @@
       </c>
       <c r="BC2" s="17" t="s">
         <v>156</v>
-      </c>
-      <c r="BD2" s="79" t="s">
-        <v>998</v>
       </c>
     </row>
   </sheetData>
@@ -9085,10 +9056,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD26"/>
+  <dimension ref="A1:AC26"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1"/>
+    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9122,7 +9093,7 @@
     <col min="29" max="29" width="30.7109375" style="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="53" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="53" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -9208,11 +9179,8 @@
       <c r="AC1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="53" t="s">
-        <v>997</v>
-      </c>
     </row>
-    <row r="2" spans="1:30" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>156</v>
       </c>
@@ -9297,11 +9265,8 @@
       <c r="AC2" s="60" t="s">
         <v>219</v>
       </c>
-      <c r="AD2" s="23" t="s">
-        <v>998</v>
-      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
       <c r="Q3" s="23"/>
@@ -9321,10 +9286,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL17"/>
+  <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9358,7 +9323,7 @@
     <col min="37" max="37" width="25.85546875" style="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="15" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="15" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -9470,11 +9435,8 @@
       <c r="AK1" s="15" t="s">
         <v>410</v>
       </c>
-      <c r="AL1" s="15" t="s">
-        <v>997</v>
-      </c>
     </row>
-    <row r="2" spans="1:38" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
         <v>156</v>
       </c>
@@ -9586,11 +9548,8 @@
       <c r="AK2" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="AL2" s="23" t="s">
-        <v>998</v>
-      </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="G16" s="32"/>
       <c r="I16" s="33"/>
     </row>
@@ -9610,11 +9569,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:CW2"/>
+  <dimension ref="A1:CY2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AX1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BB5" sqref="BB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9650,62 +9609,63 @@
     <col min="32" max="32" width="15.5703125" style="61" customWidth="1"/>
     <col min="33" max="33" width="10.5703125" style="61" customWidth="1"/>
     <col min="34" max="35" width="15.28515625" style="61" customWidth="1"/>
-    <col min="36" max="36" width="10.42578125" style="61" customWidth="1"/>
-    <col min="37" max="37" width="14.85546875" style="61" customWidth="1"/>
-    <col min="38" max="38" width="19.7109375" style="61" customWidth="1"/>
-    <col min="39" max="39" width="14" style="61" customWidth="1"/>
-    <col min="40" max="40" width="14.42578125" style="61" customWidth="1"/>
-    <col min="41" max="41" width="20.7109375" style="61" customWidth="1"/>
-    <col min="42" max="42" width="13.85546875" style="61" customWidth="1"/>
-    <col min="43" max="43" width="10" style="61" customWidth="1"/>
-    <col min="44" max="44" width="38.28515625" style="61" customWidth="1"/>
-    <col min="45" max="45" width="21.140625" style="61" customWidth="1"/>
-    <col min="46" max="46" width="24.28515625" style="61" customWidth="1"/>
-    <col min="47" max="47" width="18.42578125" style="61" customWidth="1"/>
-    <col min="48" max="48" width="16.7109375" style="61" customWidth="1"/>
-    <col min="49" max="49" width="28.85546875" style="61" customWidth="1"/>
-    <col min="50" max="50" width="14.28515625" style="61" customWidth="1"/>
-    <col min="51" max="51" width="23" style="61" customWidth="1"/>
-    <col min="52" max="55" width="19.85546875" style="61" customWidth="1"/>
-    <col min="56" max="57" width="24.7109375" style="61" customWidth="1"/>
-    <col min="58" max="58" width="25" style="61" customWidth="1"/>
-    <col min="59" max="59" width="24.42578125" style="61" customWidth="1"/>
-    <col min="60" max="60" width="30.42578125" style="61" customWidth="1"/>
-    <col min="61" max="61" width="36" style="61" customWidth="1"/>
-    <col min="62" max="62" width="34.42578125" style="61" customWidth="1"/>
-    <col min="63" max="63" width="26.7109375" style="61" customWidth="1"/>
-    <col min="64" max="65" width="17.28515625" style="61" customWidth="1"/>
-    <col min="66" max="66" width="34.140625" style="61" customWidth="1"/>
-    <col min="67" max="67" width="28.42578125" style="61" customWidth="1"/>
-    <col min="68" max="68" width="24.7109375" style="61" customWidth="1"/>
-    <col min="69" max="69" width="30.28515625" style="61" customWidth="1"/>
-    <col min="70" max="70" width="17.5703125" style="61" customWidth="1"/>
-    <col min="71" max="71" width="20.28515625" style="61" customWidth="1"/>
-    <col min="72" max="72" width="12.140625" style="61" customWidth="1"/>
-    <col min="73" max="73" width="21.42578125" style="61" customWidth="1"/>
-    <col min="74" max="74" width="24.140625" style="61" customWidth="1"/>
-    <col min="75" max="75" width="16" style="61" customWidth="1"/>
-    <col min="76" max="76" width="14" style="61" customWidth="1"/>
-    <col min="77" max="77" width="16.7109375" style="61" customWidth="1"/>
-    <col min="78" max="78" width="10.42578125" style="61" customWidth="1"/>
-    <col min="79" max="79" width="37.7109375" style="61" customWidth="1"/>
-    <col min="80" max="81" width="16.7109375" style="61" customWidth="1"/>
-    <col min="82" max="84" width="20.140625" style="61" customWidth="1"/>
-    <col min="85" max="85" width="17.7109375" style="61" customWidth="1"/>
-    <col min="86" max="86" width="24.5703125" style="61" customWidth="1"/>
-    <col min="87" max="89" width="19.42578125" style="61" customWidth="1"/>
-    <col min="90" max="90" width="21.140625" style="61" customWidth="1"/>
-    <col min="91" max="91" width="32.42578125" style="61" customWidth="1"/>
-    <col min="92" max="93" width="17.28515625" style="61" customWidth="1"/>
-    <col min="94" max="96" width="17.5703125" style="61" customWidth="1"/>
-    <col min="97" max="97" width="26.28515625" style="61" customWidth="1"/>
-    <col min="98" max="98" width="35" style="61" customWidth="1"/>
-    <col min="99" max="99" width="26.5703125" style="61" customWidth="1"/>
-    <col min="100" max="100" width="24.85546875" style="61" customWidth="1"/>
-    <col min="101" max="101" width="20" style="61" customWidth="1"/>
+    <col min="36" max="37" width="15.28515625" style="80" customWidth="1"/>
+    <col min="38" max="38" width="10.42578125" style="61" customWidth="1"/>
+    <col min="39" max="39" width="14.85546875" style="61" customWidth="1"/>
+    <col min="40" max="40" width="19.7109375" style="61" customWidth="1"/>
+    <col min="41" max="41" width="14" style="61" customWidth="1"/>
+    <col min="42" max="42" width="14.42578125" style="61" customWidth="1"/>
+    <col min="43" max="43" width="20.7109375" style="61" customWidth="1"/>
+    <col min="44" max="44" width="13.85546875" style="61" customWidth="1"/>
+    <col min="45" max="45" width="10" style="61" customWidth="1"/>
+    <col min="46" max="46" width="38.28515625" style="61" customWidth="1"/>
+    <col min="47" max="47" width="21.140625" style="61" customWidth="1"/>
+    <col min="48" max="48" width="24.28515625" style="61" customWidth="1"/>
+    <col min="49" max="49" width="18.42578125" style="61" customWidth="1"/>
+    <col min="50" max="50" width="16.7109375" style="61" customWidth="1"/>
+    <col min="51" max="51" width="28.85546875" style="61" customWidth="1"/>
+    <col min="52" max="52" width="14.28515625" style="61" customWidth="1"/>
+    <col min="53" max="53" width="23" style="61" customWidth="1"/>
+    <col min="54" max="57" width="19.85546875" style="61" customWidth="1"/>
+    <col min="58" max="59" width="24.7109375" style="61" customWidth="1"/>
+    <col min="60" max="60" width="25" style="61" customWidth="1"/>
+    <col min="61" max="61" width="24.42578125" style="61" customWidth="1"/>
+    <col min="62" max="62" width="30.42578125" style="61" customWidth="1"/>
+    <col min="63" max="63" width="36" style="61" customWidth="1"/>
+    <col min="64" max="64" width="34.42578125" style="61" customWidth="1"/>
+    <col min="65" max="65" width="26.7109375" style="61" customWidth="1"/>
+    <col min="66" max="67" width="17.28515625" style="61" customWidth="1"/>
+    <col min="68" max="68" width="34.140625" style="61" customWidth="1"/>
+    <col min="69" max="69" width="28.42578125" style="61" customWidth="1"/>
+    <col min="70" max="70" width="24.7109375" style="61" customWidth="1"/>
+    <col min="71" max="71" width="30.28515625" style="61" customWidth="1"/>
+    <col min="72" max="72" width="17.5703125" style="61" customWidth="1"/>
+    <col min="73" max="73" width="20.28515625" style="61" customWidth="1"/>
+    <col min="74" max="74" width="12.140625" style="61" customWidth="1"/>
+    <col min="75" max="75" width="21.42578125" style="61" customWidth="1"/>
+    <col min="76" max="76" width="24.140625" style="61" customWidth="1"/>
+    <col min="77" max="77" width="16" style="61" customWidth="1"/>
+    <col min="78" max="78" width="14" style="61" customWidth="1"/>
+    <col min="79" max="79" width="16.7109375" style="61" customWidth="1"/>
+    <col min="80" max="80" width="10.42578125" style="61" customWidth="1"/>
+    <col min="81" max="81" width="37.7109375" style="61" customWidth="1"/>
+    <col min="82" max="83" width="16.7109375" style="61" customWidth="1"/>
+    <col min="84" max="86" width="20.140625" style="61" customWidth="1"/>
+    <col min="87" max="87" width="17.7109375" style="61" customWidth="1"/>
+    <col min="88" max="88" width="24.5703125" style="61" customWidth="1"/>
+    <col min="89" max="91" width="19.42578125" style="61" customWidth="1"/>
+    <col min="92" max="92" width="21.140625" style="61" customWidth="1"/>
+    <col min="93" max="93" width="32.42578125" style="61" customWidth="1"/>
+    <col min="94" max="95" width="17.28515625" style="61" customWidth="1"/>
+    <col min="96" max="98" width="17.5703125" style="61" customWidth="1"/>
+    <col min="99" max="99" width="26.28515625" style="61" customWidth="1"/>
+    <col min="100" max="100" width="35" style="61" customWidth="1"/>
+    <col min="101" max="101" width="26.5703125" style="61" customWidth="1"/>
+    <col min="102" max="102" width="24.85546875" style="61" customWidth="1"/>
+    <col min="103" max="103" width="20" style="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9811,53 +9771,63 @@
       <c r="AI1" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="84" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AK1" s="84" t="s">
+        <v>1002</v>
+      </c>
+      <c r="AL1" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AV1" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AW1" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AY1" s="4" t="s">
         <v>997</v>
       </c>
-      <c r="AX1" s="4"/>
-      <c r="AY1" s="4"/>
-      <c r="AZ1" s="4"/>
-      <c r="BA1" s="4"/>
-      <c r="BB1" s="4"/>
+      <c r="AZ1" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="BA1" s="81" t="s">
+        <v>999</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>1005</v>
+      </c>
       <c r="BC1" s="4"/>
       <c r="BD1" s="4"/>
       <c r="BE1" s="4"/>
@@ -9905,8 +9875,10 @@
       <c r="CU1" s="4"/>
       <c r="CV1" s="4"/>
       <c r="CW1" s="4"/>
+      <c r="CX1" s="4"/>
+      <c r="CY1" s="4"/>
     </row>
-    <row r="2" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
         <v>156</v>
       </c>
@@ -9961,8 +9933,8 @@
       <c r="R2" s="61" t="s">
         <v>484</v>
       </c>
-      <c r="S2" s="60" t="s">
-        <v>485</v>
+      <c r="S2" s="60">
+        <v>7120655</v>
       </c>
       <c r="T2" s="6" t="s">
         <v>486</v>
@@ -10012,47 +9984,62 @@
       <c r="AI2" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="AJ2" s="9" t="s">
+      <c r="AJ2" s="85" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AK2" s="85" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AL2" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="AK2" s="9" t="s">
+      <c r="AM2" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="AL2" s="9" t="s">
+      <c r="AN2" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="AM2" s="10" t="s">
+      <c r="AO2" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="AN2" s="10" t="s">
+      <c r="AP2" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="AO2" s="9" t="s">
+      <c r="AQ2" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="AP2" s="9" t="s">
+      <c r="AR2" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="AQ2" s="9" t="s">
+      <c r="AS2" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AT2" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AU2" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="AT2" s="61" t="s">
+      <c r="AV2" s="61" t="s">
         <v>506</v>
       </c>
-      <c r="AU2" s="61" t="s">
+      <c r="AW2" s="61" t="s">
         <v>507</v>
       </c>
-      <c r="AV2" s="61" t="s">
+      <c r="AX2" s="61" t="s">
         <v>508</v>
       </c>
-      <c r="AW2" s="61" t="s">
-        <v>998</v>
+      <c r="AY2" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="AZ2" s="79" t="s">
+        <v>375</v>
+      </c>
+      <c r="BA2" s="82" t="s">
+        <v>1000</v>
+      </c>
+      <c r="BB2" s="83" t="s">
+        <v>1006</v>
       </c>
     </row>
   </sheetData>
@@ -10070,7 +10057,7 @@
   <dimension ref="A1:CH2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10137,9 +10124,7 @@
       <c r="E1" s="14" t="s">
         <v>509</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>997</v>
-      </c>
+      <c r="F1" s="15"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -10237,9 +10222,6 @@
       <c r="E2" s="66" t="s">
         <v>510</v>
       </c>
-      <c r="F2" s="79" t="s">
-        <v>998</v>
-      </c>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -10278,8 +10260,8 @@
   </sheetPr>
   <dimension ref="A1:EA8"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:W2"/>
+    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10466,9 +10448,6 @@
       <c r="V1" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="W1" s="15" t="s">
-        <v>997</v>
-      </c>
       <c r="CA1" s="16"/>
       <c r="CB1" s="16"/>
       <c r="CC1" s="16"/>
@@ -10588,9 +10567,6 @@
       </c>
       <c r="V2" s="62" t="s">
         <v>375</v>
-      </c>
-      <c r="W2" s="79" t="s">
-        <v>998</v>
       </c>
       <c r="EA2" s="60" t="s">
         <v>532</v>
@@ -10736,8 +10712,8 @@
   </sheetPr>
   <dimension ref="A1:AO4"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN1" sqref="AN1:AN2"/>
+    <sheetView topLeftCell="AE1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM2" sqref="AM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10900,9 +10876,6 @@
       <c r="AM1" s="43" t="s">
         <v>355</v>
       </c>
-      <c r="AN1" s="15" t="s">
-        <v>997</v>
-      </c>
     </row>
     <row r="2" spans="1:41" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
@@ -11021,9 +10994,6 @@
       </c>
       <c r="AM2" s="60" t="s">
         <v>570</v>
-      </c>
-      <c r="AN2" s="79" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">

--- a/DataSet/LoanIQ_DataSet/EVG_PTYLIQ04_BaselineNonAgentSyndication.xlsx
+++ b/DataSet/LoanIQ_DataSet/EVG_PTYLIQ04_BaselineNonAgentSyndication.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\LoanIQ_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7B9510-ED11-4AC7-BB61-D6EF765C1FF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECC2013-CA81-4BB1-9AE2-1E675128F949}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRED01_DealSetup" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="1007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="1008">
   <si>
     <t>rowid</t>
   </si>
@@ -3061,6 +3061,9 @@
   </si>
   <si>
     <t>ESPS1 7120655</t>
+  </si>
+  <si>
+    <t>Borrower1_LegalName</t>
   </si>
 </sst>
 </file>
@@ -9286,10 +9289,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AK17"/>
+  <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9300,30 +9303,30 @@
     <col min="4" max="4" width="25.140625" style="20" customWidth="1"/>
     <col min="5" max="7" width="24" style="20" customWidth="1"/>
     <col min="8" max="9" width="34.28515625" style="20" customWidth="1"/>
-    <col min="10" max="11" width="24" style="20" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" style="20" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" style="20" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" style="20" customWidth="1"/>
-    <col min="15" max="15" width="22.5703125" style="20" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" style="20" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" style="20" customWidth="1"/>
-    <col min="18" max="18" width="28.7109375" style="20" customWidth="1"/>
-    <col min="19" max="19" width="23" style="20" customWidth="1"/>
-    <col min="20" max="20" width="18.7109375" style="20" customWidth="1"/>
-    <col min="21" max="21" width="30.28515625" style="20" customWidth="1"/>
-    <col min="22" max="22" width="27.7109375" style="20" customWidth="1"/>
-    <col min="23" max="23" width="22.85546875" style="20" customWidth="1"/>
-    <col min="24" max="24" width="26.85546875" style="20" customWidth="1"/>
-    <col min="25" max="25" width="37.140625" style="20" customWidth="1"/>
-    <col min="26" max="26" width="25" style="20" customWidth="1"/>
-    <col min="27" max="27" width="19.85546875" style="20" customWidth="1"/>
-    <col min="28" max="28" width="32.7109375" style="20" customWidth="1"/>
-    <col min="29" max="30" width="34" style="20" customWidth="1"/>
-    <col min="31" max="36" width="31.85546875" style="20" customWidth="1"/>
-    <col min="37" max="37" width="25.85546875" style="78" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="24" style="20" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" style="20" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" style="20" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" style="20" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" style="20" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" style="20" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="28.7109375" style="20" customWidth="1"/>
+    <col min="20" max="20" width="23" style="20" customWidth="1"/>
+    <col min="21" max="21" width="18.7109375" style="20" customWidth="1"/>
+    <col min="22" max="22" width="30.28515625" style="20" customWidth="1"/>
+    <col min="23" max="23" width="27.7109375" style="20" customWidth="1"/>
+    <col min="24" max="24" width="22.85546875" style="20" customWidth="1"/>
+    <col min="25" max="25" width="26.85546875" style="20" customWidth="1"/>
+    <col min="26" max="26" width="37.140625" style="20" customWidth="1"/>
+    <col min="27" max="27" width="25" style="20" customWidth="1"/>
+    <col min="28" max="28" width="19.85546875" style="20" customWidth="1"/>
+    <col min="29" max="29" width="32.7109375" style="20" customWidth="1"/>
+    <col min="30" max="31" width="34" style="20" customWidth="1"/>
+    <col min="32" max="37" width="31.85546875" style="20" customWidth="1"/>
+    <col min="38" max="38" width="25.85546875" style="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="15" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="15" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -9354,89 +9357,92 @@
       <c r="J1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="L1" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>388</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="R1" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="T1" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="U1" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="V1" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="W1" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="X1" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="Y1" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Z1" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="AA1" s="15" t="s">
         <v>400</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AB1" s="15" t="s">
         <v>401</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AC1" s="15" t="s">
         <v>402</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AD1" s="15" t="s">
         <v>403</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AE1" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="AE1" s="15" t="s">
+      <c r="AF1" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="AF1" s="15" t="s">
+      <c r="AG1" s="15" t="s">
         <v>406</v>
       </c>
-      <c r="AG1" s="15" t="s">
+      <c r="AH1" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AI1" s="14" t="s">
         <v>407</v>
       </c>
-      <c r="AI1" s="14" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="AJ1" s="14" t="s">
+      <c r="AK1" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="AK1" s="15" t="s">
+      <c r="AL1" s="15" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
         <v>156</v>
       </c>
@@ -9467,89 +9473,90 @@
       <c r="J2" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="K2" s="62" t="s">
+      <c r="K2" s="83"/>
+      <c r="L2" s="62" t="s">
         <v>274</v>
       </c>
-      <c r="L2" s="60" t="s">
+      <c r="M2" s="60" t="s">
         <v>413</v>
       </c>
-      <c r="M2" s="62" t="s">
+      <c r="N2" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="N2" s="62" t="s">
+      <c r="O2" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="O2" s="62" t="s">
+      <c r="P2" s="62" t="s">
         <v>414</v>
       </c>
-      <c r="P2" s="72" t="s">
+      <c r="Q2" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="Q2" s="60" t="s">
+      <c r="R2" s="60" t="s">
         <v>273</v>
       </c>
-      <c r="R2" s="62" t="s">
+      <c r="S2" s="62" t="s">
         <v>415</v>
       </c>
-      <c r="S2" s="62" t="s">
+      <c r="T2" s="62" t="s">
         <v>416</v>
       </c>
-      <c r="T2" s="62" t="s">
+      <c r="U2" s="62" t="s">
         <v>417</v>
       </c>
-      <c r="U2" s="62" t="s">
+      <c r="V2" s="62" t="s">
         <v>418</v>
       </c>
-      <c r="V2" s="62" t="s">
+      <c r="W2" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="W2" s="23" t="s">
+      <c r="X2" s="23" t="s">
         <v>419</v>
       </c>
-      <c r="X2" s="62" t="s">
+      <c r="Y2" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="Y2" s="23" t="s">
+      <c r="Z2" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="Z2" s="23" t="s">
+      <c r="AA2" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="AA2" s="23" t="s">
+      <c r="AB2" s="23" t="s">
         <v>422</v>
       </c>
-      <c r="AB2" s="62" t="s">
+      <c r="AC2" s="62" t="s">
         <v>423</v>
       </c>
-      <c r="AC2" s="62" t="s">
+      <c r="AD2" s="62" t="s">
         <v>424</v>
       </c>
-      <c r="AD2" s="62" t="s">
+      <c r="AE2" s="62" t="s">
         <v>425</v>
       </c>
-      <c r="AE2" s="62" t="s">
+      <c r="AF2" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="AF2" s="23" t="s">
+      <c r="AG2" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="AG2" s="23" t="s">
+      <c r="AH2" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="AI2" s="20" t="s">
+      <c r="AJ2" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="AJ2" s="20" t="s">
+      <c r="AK2" s="20" t="s">
         <v>427</v>
       </c>
-      <c r="AK2" s="23" t="s">
+      <c r="AL2" s="23" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="G16" s="32"/>
       <c r="I16" s="33"/>
     </row>
@@ -9571,7 +9578,7 @@
   </sheetPr>
   <dimension ref="A1:CY2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="AX1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="BB5" sqref="BB5"/>
     </sheetView>

--- a/DataSet/LoanIQ_DataSet/EVG_PTYLIQ04_BaselineNonAgentSyndication.xlsx
+++ b/DataSet/LoanIQ_DataSet/EVG_PTYLIQ04_BaselineNonAgentSyndication.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\LoanIQ_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECC2013-CA81-4BB1-9AE2-1E675128F949}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9885E363-F61B-4875-BEDA-2B59A5E380AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="12" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRED01_DealSetup" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="1009">
   <si>
     <t>rowid</t>
   </si>
@@ -3064,6 +3064,9 @@
   </si>
   <si>
     <t>Borrower1_LegalName</t>
+  </si>
+  <si>
+    <t>Contact_FullName</t>
   </si>
 </sst>
 </file>
@@ -3705,8 +3708,8 @@
   <dimension ref="A1:FD7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="DB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DB2" sqref="DB2"/>
+      <pane xSplit="2" topLeftCell="ED1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="EI2" sqref="EI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7442,10 +7445,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:EM2"/>
+  <dimension ref="A1:EN2"/>
   <sheetViews>
-    <sheetView topLeftCell="CN1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CQ2" sqref="CQ2"/>
+    <sheetView tabSelected="1" topLeftCell="BA1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BH1" sqref="BH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7535,7 +7538,7 @@
     <col min="108" max="108" width="20" style="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:143" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:144" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7965,8 +7968,11 @@
       <c r="EM1" s="2" t="s">
         <v>903</v>
       </c>
+      <c r="EN1" s="84" t="s">
+        <v>1008</v>
+      </c>
     </row>
-    <row r="2" spans="1:143" s="61" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:144" s="61" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
         <v>156</v>
       </c>
@@ -8392,11 +8398,14 @@
       <c r="EM2" s="23" t="s">
         <v>993</v>
       </c>
+      <c r="EN2" s="61" t="s">
+        <v>219</v>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9291,8 +9300,8 @@
   </sheetPr>
   <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DataSet/LoanIQ_DataSet/EVG_PTYLIQ04_BaselineNonAgentSyndication.xlsx
+++ b/DataSet/LoanIQ_DataSet/EVG_PTYLIQ04_BaselineNonAgentSyndication.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\LoanIQ_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9885E363-F61B-4875-BEDA-2B59A5E380AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C861355D-379E-4CC6-BDA7-1457D39BD66D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="12" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="932" firstSheet="9" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRED01_DealSetup" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="1009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="1010">
   <si>
     <t>rowid</t>
   </si>
@@ -3067,6 +3067,9 @@
   </si>
   <si>
     <t>Contact_FullName</t>
+  </si>
+  <si>
+    <t>Contact_Initials</t>
   </si>
 </sst>
 </file>
@@ -3708,8 +3711,8 @@
   <dimension ref="A1:FD7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="ED1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="EI2" sqref="EI2"/>
+      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7445,10 +7448,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:EN2"/>
+  <dimension ref="A1:EO2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BH1" sqref="BH1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7538,7 +7541,7 @@
     <col min="108" max="108" width="20" style="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:144" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:145" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7971,8 +7974,11 @@
       <c r="EN1" s="84" t="s">
         <v>1008</v>
       </c>
+      <c r="EO1" s="84" t="s">
+        <v>1009</v>
+      </c>
     </row>
-    <row r="2" spans="1:144" s="61" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:145" s="61" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
         <v>156</v>
       </c>
@@ -8400,6 +8406,9 @@
       </c>
       <c r="EN2" s="61" t="s">
         <v>219</v>
+      </c>
+      <c r="EO2" s="61" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/DataSet/LoanIQ_DataSet/EVG_PTYLIQ04_BaselineNonAgentSyndication.xlsx
+++ b/DataSet/LoanIQ_DataSet/EVG_PTYLIQ04_BaselineNonAgentSyndication.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\LoanIQ_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C861355D-379E-4CC6-BDA7-1457D39BD66D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407C03B5-73A9-472A-BDDC-7D923C7E0369}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="932" firstSheet="9" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="1010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="1012">
   <si>
     <t>rowid</t>
   </si>
@@ -3070,6 +3070,12 @@
   </si>
   <si>
     <t>Contact_Initials</t>
+  </si>
+  <si>
+    <t>Borrower1_ShortName</t>
+  </si>
+  <si>
+    <t>Facility_Borrower</t>
   </si>
 </sst>
 </file>
@@ -3708,11 +3714,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:FD7"/>
+  <dimension ref="A1:FE7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q2" sqref="Q2"/>
+      <selection pane="topRight" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3730,132 +3736,132 @@
     <col min="11" max="11" width="16.85546875" style="60" customWidth="1"/>
     <col min="12" max="12" width="21.85546875" style="60" customWidth="1"/>
     <col min="13" max="14" width="16.85546875" style="60" customWidth="1"/>
-    <col min="15" max="15" width="20" style="60" customWidth="1"/>
-    <col min="16" max="16" width="22" style="60" customWidth="1"/>
-    <col min="17" max="17" width="17.85546875" style="60" customWidth="1"/>
-    <col min="18" max="19" width="26.85546875" style="60" customWidth="1"/>
-    <col min="20" max="20" width="23.28515625" style="60" customWidth="1"/>
-    <col min="21" max="21" width="22.85546875" style="60" customWidth="1"/>
-    <col min="22" max="22" width="35" style="60" customWidth="1"/>
-    <col min="23" max="23" width="22" style="60" customWidth="1"/>
-    <col min="24" max="24" width="24" style="60" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="31.7109375" style="60" customWidth="1"/>
-    <col min="26" max="26" width="27.85546875" style="60" customWidth="1"/>
-    <col min="27" max="27" width="32.42578125" style="60" customWidth="1"/>
-    <col min="28" max="30" width="29.7109375" style="60" customWidth="1"/>
-    <col min="31" max="33" width="25.140625" style="60" customWidth="1"/>
-    <col min="34" max="34" width="18.5703125" style="60" customWidth="1"/>
-    <col min="35" max="35" width="18.85546875" style="60" customWidth="1"/>
-    <col min="36" max="36" width="16.28515625" style="60" customWidth="1"/>
-    <col min="37" max="37" width="32" style="60" customWidth="1"/>
-    <col min="38" max="38" width="23" style="60" customWidth="1"/>
-    <col min="39" max="39" width="14.28515625" style="60" customWidth="1"/>
-    <col min="40" max="40" width="23" style="60" customWidth="1"/>
-    <col min="41" max="41" width="20.42578125" style="60" customWidth="1"/>
-    <col min="42" max="42" width="27.140625" style="60" customWidth="1"/>
-    <col min="43" max="43" width="21.140625" style="60" customWidth="1"/>
-    <col min="44" max="45" width="19.28515625" style="60" customWidth="1"/>
-    <col min="46" max="46" width="23.42578125" style="60" customWidth="1"/>
-    <col min="47" max="47" width="44.85546875" style="60" customWidth="1"/>
-    <col min="48" max="48" width="19.85546875" style="60" customWidth="1"/>
-    <col min="49" max="49" width="44.85546875" style="60" customWidth="1"/>
-    <col min="50" max="51" width="19.85546875" style="60" customWidth="1"/>
-    <col min="52" max="53" width="24.7109375" style="60" customWidth="1"/>
-    <col min="54" max="54" width="25" style="60" customWidth="1"/>
-    <col min="55" max="55" width="24.42578125" style="60" customWidth="1"/>
-    <col min="56" max="56" width="28.85546875" style="60" customWidth="1"/>
-    <col min="57" max="57" width="36" style="60" customWidth="1"/>
-    <col min="58" max="58" width="34.42578125" style="60" customWidth="1"/>
-    <col min="59" max="59" width="26.7109375" style="60" customWidth="1"/>
-    <col min="60" max="60" width="27.140625" style="60" customWidth="1"/>
-    <col min="61" max="61" width="30.140625" style="60" customWidth="1"/>
-    <col min="62" max="63" width="35.140625" style="60" customWidth="1"/>
-    <col min="64" max="65" width="29.42578125" style="60" customWidth="1"/>
-    <col min="66" max="67" width="25.85546875" style="60" customWidth="1"/>
-    <col min="68" max="69" width="31.28515625" style="60" customWidth="1"/>
-    <col min="70" max="70" width="17.5703125" style="60" customWidth="1"/>
-    <col min="71" max="71" width="20.28515625" style="60" customWidth="1"/>
-    <col min="72" max="72" width="12.140625" style="60" customWidth="1"/>
-    <col min="73" max="73" width="21.42578125" style="60" customWidth="1"/>
-    <col min="74" max="74" width="24.140625" style="60" customWidth="1"/>
-    <col min="75" max="75" width="16" style="60" customWidth="1"/>
-    <col min="76" max="76" width="14" style="60" customWidth="1"/>
-    <col min="77" max="77" width="16.7109375" style="60" customWidth="1"/>
-    <col min="78" max="78" width="11.28515625" style="60" customWidth="1"/>
-    <col min="79" max="79" width="36.28515625" style="60" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="24" style="60" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="32.42578125" style="60" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="32.42578125" style="60" customWidth="1"/>
-    <col min="83" max="83" width="17.28515625" style="60" customWidth="1"/>
-    <col min="84" max="84" width="43.7109375" style="60" customWidth="1"/>
-    <col min="85" max="85" width="23.5703125" style="60" customWidth="1"/>
-    <col min="86" max="86" width="44" style="60" customWidth="1"/>
-    <col min="87" max="87" width="35" style="60" customWidth="1"/>
-    <col min="88" max="88" width="34.85546875" style="60" customWidth="1"/>
-    <col min="89" max="89" width="16.7109375" style="60" customWidth="1"/>
-    <col min="90" max="90" width="21" style="60" customWidth="1"/>
-    <col min="91" max="92" width="22" style="60" customWidth="1"/>
-    <col min="93" max="93" width="43.7109375" style="60" customWidth="1"/>
-    <col min="94" max="94" width="24.5703125" style="60" customWidth="1"/>
-    <col min="95" max="97" width="19.42578125" style="60" customWidth="1"/>
-    <col min="98" max="98" width="21.140625" style="60" customWidth="1"/>
-    <col min="99" max="99" width="18.140625" style="60" customWidth="1"/>
-    <col min="100" max="100" width="32.42578125" style="60" customWidth="1"/>
-    <col min="101" max="102" width="17.28515625" style="60" customWidth="1"/>
-    <col min="103" max="105" width="17.5703125" style="60" customWidth="1"/>
-    <col min="106" max="106" width="26.28515625" style="60" customWidth="1"/>
-    <col min="107" max="107" width="35" style="60" customWidth="1"/>
-    <col min="108" max="108" width="26.5703125" style="60" customWidth="1"/>
-    <col min="109" max="110" width="26.42578125" style="60" customWidth="1"/>
-    <col min="111" max="111" width="27.28515625" style="60" customWidth="1"/>
-    <col min="112" max="112" width="20" style="60" customWidth="1"/>
-    <col min="113" max="113" width="11.85546875" style="60" customWidth="1"/>
-    <col min="114" max="114" width="19.7109375" style="60" customWidth="1"/>
-    <col min="115" max="115" width="19.28515625" style="60" customWidth="1"/>
-    <col min="116" max="116" width="36.7109375" style="59" customWidth="1"/>
-    <col min="117" max="117" width="18.140625" style="59" customWidth="1"/>
-    <col min="118" max="118" width="15.5703125" style="59" customWidth="1"/>
-    <col min="119" max="119" width="23.28515625" style="59" customWidth="1"/>
-    <col min="120" max="120" width="11.28515625" style="59" customWidth="1"/>
-    <col min="121" max="121" width="8.7109375" style="59" customWidth="1"/>
-    <col min="122" max="122" width="16.28515625" style="59" customWidth="1"/>
-    <col min="123" max="123" width="34.42578125" style="59" customWidth="1"/>
-    <col min="124" max="124" width="18.7109375" style="59" customWidth="1"/>
-    <col min="125" max="125" width="18" style="59" customWidth="1"/>
-    <col min="126" max="126" width="10.7109375" style="59" customWidth="1"/>
-    <col min="127" max="127" width="9.42578125" style="59" customWidth="1"/>
-    <col min="128" max="128" width="12.7109375" style="59" customWidth="1"/>
-    <col min="129" max="129" width="11.7109375" style="59" customWidth="1"/>
-    <col min="130" max="130" width="23.42578125" style="60" customWidth="1"/>
-    <col min="131" max="131" width="42.140625" style="59" customWidth="1"/>
-    <col min="132" max="132" width="47.85546875" style="59" customWidth="1"/>
-    <col min="133" max="133" width="29" style="59" customWidth="1"/>
-    <col min="134" max="134" width="28.28515625" style="59" customWidth="1"/>
-    <col min="135" max="135" width="24.5703125" style="59" customWidth="1"/>
-    <col min="136" max="136" width="8.85546875" style="59" customWidth="1"/>
-    <col min="137" max="137" width="25" style="59" customWidth="1"/>
-    <col min="138" max="138" width="19.28515625" style="60" customWidth="1"/>
-    <col min="139" max="139" width="28.42578125" style="60" customWidth="1"/>
-    <col min="140" max="140" width="21.140625" style="60" customWidth="1"/>
-    <col min="141" max="141" width="14.42578125" style="59" customWidth="1"/>
-    <col min="142" max="142" width="20.42578125" style="60" customWidth="1"/>
-    <col min="143" max="143" width="24" style="60" customWidth="1"/>
-    <col min="144" max="145" width="18.28515625" style="60" customWidth="1"/>
-    <col min="146" max="146" width="35" style="60" customWidth="1"/>
-    <col min="147" max="147" width="19.28515625" style="60" customWidth="1"/>
-    <col min="148" max="148" width="32.28515625" style="60" customWidth="1"/>
-    <col min="149" max="149" width="21.140625" style="60" customWidth="1"/>
-    <col min="150" max="150" width="12.7109375" style="60" customWidth="1"/>
-    <col min="151" max="151" width="18.28515625" style="60" customWidth="1"/>
-    <col min="152" max="152" width="25.28515625" style="60" customWidth="1"/>
-    <col min="153" max="153" width="33.5703125" style="60" customWidth="1"/>
-    <col min="154" max="154" width="39.42578125" style="60" customWidth="1"/>
-    <col min="155" max="155" width="20.85546875" style="60" customWidth="1"/>
-    <col min="156" max="156" width="27.28515625" style="60" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="14" style="78" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="20" style="60" customWidth="1"/>
+    <col min="17" max="17" width="22" style="60" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" style="60" customWidth="1"/>
+    <col min="19" max="20" width="26.85546875" style="60" customWidth="1"/>
+    <col min="21" max="21" width="23.28515625" style="60" customWidth="1"/>
+    <col min="22" max="22" width="22.85546875" style="60" customWidth="1"/>
+    <col min="23" max="23" width="35" style="60" customWidth="1"/>
+    <col min="24" max="24" width="22" style="60" customWidth="1"/>
+    <col min="25" max="25" width="24" style="60" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.7109375" style="60" customWidth="1"/>
+    <col min="27" max="27" width="27.85546875" style="60" customWidth="1"/>
+    <col min="28" max="28" width="32.42578125" style="60" customWidth="1"/>
+    <col min="29" max="31" width="29.7109375" style="60" customWidth="1"/>
+    <col min="32" max="34" width="25.140625" style="60" customWidth="1"/>
+    <col min="35" max="35" width="18.5703125" style="60" customWidth="1"/>
+    <col min="36" max="36" width="18.85546875" style="60" customWidth="1"/>
+    <col min="37" max="37" width="16.28515625" style="60" customWidth="1"/>
+    <col min="38" max="38" width="32" style="60" customWidth="1"/>
+    <col min="39" max="39" width="23" style="60" customWidth="1"/>
+    <col min="40" max="40" width="14.28515625" style="60" customWidth="1"/>
+    <col min="41" max="41" width="23" style="60" customWidth="1"/>
+    <col min="42" max="42" width="20.42578125" style="60" customWidth="1"/>
+    <col min="43" max="43" width="27.140625" style="60" customWidth="1"/>
+    <col min="44" max="44" width="21.140625" style="60" customWidth="1"/>
+    <col min="45" max="46" width="19.28515625" style="60" customWidth="1"/>
+    <col min="47" max="47" width="23.42578125" style="60" customWidth="1"/>
+    <col min="48" max="48" width="44.85546875" style="60" customWidth="1"/>
+    <col min="49" max="49" width="19.85546875" style="60" customWidth="1"/>
+    <col min="50" max="50" width="44.85546875" style="60" customWidth="1"/>
+    <col min="51" max="52" width="19.85546875" style="60" customWidth="1"/>
+    <col min="53" max="54" width="24.7109375" style="60" customWidth="1"/>
+    <col min="55" max="55" width="25" style="60" customWidth="1"/>
+    <col min="56" max="56" width="24.42578125" style="60" customWidth="1"/>
+    <col min="57" max="57" width="28.85546875" style="60" customWidth="1"/>
+    <col min="58" max="58" width="36" style="60" customWidth="1"/>
+    <col min="59" max="59" width="34.42578125" style="60" customWidth="1"/>
+    <col min="60" max="60" width="26.7109375" style="60" customWidth="1"/>
+    <col min="61" max="61" width="27.140625" style="60" customWidth="1"/>
+    <col min="62" max="62" width="30.140625" style="60" customWidth="1"/>
+    <col min="63" max="64" width="35.140625" style="60" customWidth="1"/>
+    <col min="65" max="66" width="29.42578125" style="60" customWidth="1"/>
+    <col min="67" max="68" width="25.85546875" style="60" customWidth="1"/>
+    <col min="69" max="70" width="31.28515625" style="60" customWidth="1"/>
+    <col min="71" max="71" width="17.5703125" style="60" customWidth="1"/>
+    <col min="72" max="72" width="20.28515625" style="60" customWidth="1"/>
+    <col min="73" max="73" width="12.140625" style="60" customWidth="1"/>
+    <col min="74" max="74" width="21.42578125" style="60" customWidth="1"/>
+    <col min="75" max="75" width="24.140625" style="60" customWidth="1"/>
+    <col min="76" max="76" width="16" style="60" customWidth="1"/>
+    <col min="77" max="77" width="14" style="60" customWidth="1"/>
+    <col min="78" max="78" width="16.7109375" style="60" customWidth="1"/>
+    <col min="79" max="79" width="11.28515625" style="60" customWidth="1"/>
+    <col min="80" max="80" width="36.28515625" style="60" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="24" style="60" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="32.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="32.42578125" style="60" customWidth="1"/>
+    <col min="84" max="84" width="17.28515625" style="60" customWidth="1"/>
+    <col min="85" max="85" width="43.7109375" style="60" customWidth="1"/>
+    <col min="86" max="86" width="23.5703125" style="60" customWidth="1"/>
+    <col min="87" max="87" width="44" style="60" customWidth="1"/>
+    <col min="88" max="88" width="35" style="60" customWidth="1"/>
+    <col min="89" max="89" width="34.85546875" style="60" customWidth="1"/>
+    <col min="90" max="90" width="16.7109375" style="60" customWidth="1"/>
+    <col min="91" max="91" width="21" style="60" customWidth="1"/>
+    <col min="92" max="93" width="22" style="60" customWidth="1"/>
+    <col min="94" max="94" width="43.7109375" style="60" customWidth="1"/>
+    <col min="95" max="95" width="24.5703125" style="60" customWidth="1"/>
+    <col min="96" max="98" width="19.42578125" style="60" customWidth="1"/>
+    <col min="99" max="99" width="21.140625" style="60" customWidth="1"/>
+    <col min="100" max="100" width="18.140625" style="60" customWidth="1"/>
+    <col min="101" max="101" width="32.42578125" style="60" customWidth="1"/>
+    <col min="102" max="103" width="17.28515625" style="60" customWidth="1"/>
+    <col min="104" max="106" width="17.5703125" style="60" customWidth="1"/>
+    <col min="107" max="107" width="26.28515625" style="60" customWidth="1"/>
+    <col min="108" max="108" width="35" style="60" customWidth="1"/>
+    <col min="109" max="109" width="26.5703125" style="60" customWidth="1"/>
+    <col min="110" max="111" width="26.42578125" style="60" customWidth="1"/>
+    <col min="112" max="112" width="27.28515625" style="60" customWidth="1"/>
+    <col min="113" max="113" width="20" style="60" customWidth="1"/>
+    <col min="114" max="114" width="11.85546875" style="60" customWidth="1"/>
+    <col min="115" max="115" width="19.7109375" style="60" customWidth="1"/>
+    <col min="116" max="116" width="19.28515625" style="60" customWidth="1"/>
+    <col min="117" max="117" width="36.7109375" style="59" customWidth="1"/>
+    <col min="118" max="118" width="18.140625" style="59" customWidth="1"/>
+    <col min="119" max="119" width="15.5703125" style="59" customWidth="1"/>
+    <col min="120" max="120" width="23.28515625" style="59" customWidth="1"/>
+    <col min="121" max="121" width="11.28515625" style="59" customWidth="1"/>
+    <col min="122" max="122" width="8.7109375" style="59" customWidth="1"/>
+    <col min="123" max="123" width="16.28515625" style="59" customWidth="1"/>
+    <col min="124" max="124" width="34.42578125" style="59" customWidth="1"/>
+    <col min="125" max="125" width="18.7109375" style="59" customWidth="1"/>
+    <col min="126" max="126" width="18" style="59" customWidth="1"/>
+    <col min="127" max="127" width="10.7109375" style="59" customWidth="1"/>
+    <col min="128" max="128" width="9.42578125" style="59" customWidth="1"/>
+    <col min="129" max="129" width="12.7109375" style="59" customWidth="1"/>
+    <col min="130" max="130" width="11.7109375" style="59" customWidth="1"/>
+    <col min="131" max="131" width="23.42578125" style="60" customWidth="1"/>
+    <col min="132" max="132" width="42.140625" style="59" customWidth="1"/>
+    <col min="133" max="133" width="47.85546875" style="59" customWidth="1"/>
+    <col min="134" max="134" width="29" style="59" customWidth="1"/>
+    <col min="135" max="135" width="28.28515625" style="59" customWidth="1"/>
+    <col min="136" max="136" width="24.5703125" style="59" customWidth="1"/>
+    <col min="137" max="137" width="8.85546875" style="59" customWidth="1"/>
+    <col min="138" max="138" width="25" style="59" customWidth="1"/>
+    <col min="139" max="139" width="19.28515625" style="60" customWidth="1"/>
+    <col min="140" max="140" width="28.42578125" style="60" customWidth="1"/>
+    <col min="141" max="141" width="21.140625" style="60" customWidth="1"/>
+    <col min="142" max="142" width="14.42578125" style="59" customWidth="1"/>
+    <col min="143" max="143" width="20.42578125" style="60" customWidth="1"/>
+    <col min="144" max="144" width="24" style="60" customWidth="1"/>
+    <col min="145" max="146" width="18.28515625" style="60" customWidth="1"/>
+    <col min="147" max="147" width="35" style="60" customWidth="1"/>
+    <col min="148" max="148" width="19.28515625" style="60" customWidth="1"/>
+    <col min="149" max="149" width="32.28515625" style="60" customWidth="1"/>
+    <col min="150" max="150" width="21.140625" style="60" customWidth="1"/>
+    <col min="151" max="151" width="12.7109375" style="60" customWidth="1"/>
+    <col min="152" max="152" width="18.28515625" style="60" customWidth="1"/>
+    <col min="153" max="153" width="25.28515625" style="60" customWidth="1"/>
+    <col min="154" max="154" width="33.5703125" style="60" customWidth="1"/>
+    <col min="155" max="155" width="39.42578125" style="60" customWidth="1"/>
+    <col min="156" max="156" width="20.85546875" style="60" customWidth="1"/>
+    <col min="157" max="157" width="27.28515625" style="60" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="14" style="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:160" s="15" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:161" s="15" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3901,431 +3907,434 @@
       <c r="O1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="14" t="s">
+        <v>1010</v>
+      </c>
+      <c r="Q1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="R1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="S1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="T1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="U1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="V1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="W1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="X1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="Y1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Z1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="AA1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AB1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AC1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AD1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AE1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="15" t="s">
+      <c r="AF1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="15" t="s">
+      <c r="AG1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="15" t="s">
+      <c r="AH1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AI1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="14" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="15" t="s">
+      <c r="AK1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="15" t="s">
+      <c r="AL1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="15" t="s">
+      <c r="AM1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="15" t="s">
+      <c r="AN1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="14" t="s">
+      <c r="AO1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="15" t="s">
+      <c r="AP1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="15" t="s">
+      <c r="AQ1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="15" t="s">
+      <c r="AR1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="15" t="s">
+      <c r="AS1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="15" t="s">
+      <c r="AT1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="15" t="s">
+      <c r="AU1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="15" t="s">
+      <c r="AV1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="15" t="s">
+      <c r="AW1" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="15" t="s">
+      <c r="AX1" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="15" t="s">
+      <c r="AY1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="14" t="s">
+      <c r="AZ1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="15" t="s">
+      <c r="BA1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="15" t="s">
+      <c r="BB1" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="15" t="s">
+      <c r="BC1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="15" t="s">
+      <c r="BD1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="15" t="s">
+      <c r="BE1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="14" t="s">
+      <c r="BF1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="14" t="s">
+      <c r="BG1" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="15" t="s">
+      <c r="BH1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="15" t="s">
+      <c r="BI1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="15" t="s">
+      <c r="BJ1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="15" t="s">
+      <c r="BK1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="15" t="s">
+      <c r="BL1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="15" t="s">
+      <c r="BM1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="15" t="s">
+      <c r="BN1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="15" t="s">
+      <c r="BO1" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="15" t="s">
+      <c r="BP1" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="15" t="s">
+      <c r="BQ1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="15" t="s">
+      <c r="BR1" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="15" t="s">
+      <c r="BS1" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="65" t="s">
+      <c r="BT1" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="15" t="s">
+      <c r="BU1" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="15" t="s">
+      <c r="BV1" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="65" t="s">
+      <c r="BW1" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="15" t="s">
+      <c r="BX1" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="15" t="s">
+      <c r="BY1" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="65" t="s">
+      <c r="BZ1" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="15" t="s">
+      <c r="CA1" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="14" t="s">
+      <c r="CB1" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="14" t="s">
+      <c r="CC1" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="14" t="s">
+      <c r="CD1" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="14" t="s">
+      <c r="CE1" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="14" t="s">
+      <c r="CF1" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="14" t="s">
+      <c r="CG1" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="14" t="s">
+      <c r="CH1" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="14" t="s">
+      <c r="CI1" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="15" t="s">
+      <c r="CJ1" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="15" t="s">
+      <c r="CK1" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="15" t="s">
+      <c r="CL1" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="15" t="s">
+      <c r="CM1" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="15" t="s">
+      <c r="CN1" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="15" t="s">
+      <c r="CO1" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="15" t="s">
+      <c r="CP1" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="15" t="s">
+      <c r="CQ1" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="15" t="s">
+      <c r="CR1" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="15" t="s">
+      <c r="CS1" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="15" t="s">
+      <c r="CT1" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="15" t="s">
+      <c r="CU1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="15" t="s">
+      <c r="CV1" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" s="15" t="s">
+      <c r="CW1" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="15" t="s">
+      <c r="CX1" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" s="15" t="s">
+      <c r="CY1" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" s="14" t="s">
+      <c r="CZ1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" s="14" t="s">
+      <c r="DA1" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" s="14" t="s">
+      <c r="DB1" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" s="15" t="s">
+      <c r="DC1" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" s="15" t="s">
+      <c r="DD1" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" s="15" t="s">
+      <c r="DE1" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" s="15" t="s">
+      <c r="DF1" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" s="15" t="s">
+      <c r="DG1" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" s="14" t="s">
+      <c r="DH1" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" s="15" t="s">
+      <c r="DI1" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" s="15" t="s">
+      <c r="DJ1" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" s="14" t="s">
+      <c r="DK1" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" s="14" t="s">
+      <c r="DL1" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" s="41" t="s">
+      <c r="DM1" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="DM1" s="41" t="s">
+      <c r="DN1" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="DN1" s="41" t="s">
+      <c r="DO1" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="DO1" s="41" t="s">
+      <c r="DP1" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="DP1" s="41" t="s">
+      <c r="DQ1" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="DQ1" s="41" t="s">
+      <c r="DR1" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="DR1" s="41" t="s">
+      <c r="DS1" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="DS1" s="41" t="s">
+      <c r="DT1" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="DT1" s="41" t="s">
+      <c r="DU1" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="DU1" s="41" t="s">
+      <c r="DV1" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="DV1" s="41" t="s">
+      <c r="DW1" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="DW1" s="41" t="s">
+      <c r="DX1" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="DX1" s="41" t="s">
+      <c r="DY1" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="DY1" s="41" t="s">
+      <c r="DZ1" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="DZ1" s="42" t="s">
+      <c r="EA1" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="EA1" s="41" t="s">
+      <c r="EB1" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="EB1" s="41" t="s">
+      <c r="EC1" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="EC1" s="41" t="s">
+      <c r="ED1" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="ED1" s="41" t="s">
+      <c r="EE1" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="EE1" s="41" t="s">
+      <c r="EF1" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="EF1" s="41" t="s">
+      <c r="EG1" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="EG1" s="41" t="s">
+      <c r="EH1" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="EH1" s="41" t="s">
+      <c r="EI1" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="EI1" s="41" t="s">
+      <c r="EJ1" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="EJ1" s="42" t="s">
+      <c r="EK1" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="EK1" s="41" t="s">
+      <c r="EL1" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="EL1" s="41" t="s">
+      <c r="EM1" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="EM1" s="41" t="s">
+      <c r="EN1" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="EN1" s="41" t="s">
+      <c r="EO1" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="EO1" s="42" t="s">
+      <c r="EP1" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="EP1" s="41" t="s">
+      <c r="EQ1" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="EQ1" s="41" t="s">
+      <c r="ER1" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="ER1" s="41" t="s">
+      <c r="ES1" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="ES1" s="42" t="s">
+      <c r="ET1" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="ET1" s="42" t="s">
+      <c r="EU1" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="EU1" s="42" t="s">
+      <c r="EV1" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="EV1" s="42" t="s">
+      <c r="EW1" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="EW1" s="41" t="s">
+      <c r="EX1" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="EX1" s="35" t="s">
+      <c r="EY1" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="EY1" s="43" t="s">
+      <c r="EZ1" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="EZ1" s="15" t="s">
+      <c r="FA1" s="15" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:160" s="60" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:161" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>156</v>
       </c>
@@ -4371,325 +4380,325 @@
       <c r="O2" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="P2" s="83"/>
+      <c r="Q2" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="Q2" s="45" t="s">
+      <c r="R2" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="R2" s="62" t="s">
+      <c r="S2" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="S2" s="62" t="s">
+      <c r="T2" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="T2" s="29" t="s">
+      <c r="U2" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="U2" s="62" t="s">
+      <c r="V2" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>174</v>
       </c>
-      <c r="W2" s="45" t="s">
+      <c r="X2" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="X2" s="62" t="s">
+      <c r="Y2" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="62" t="s">
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="AA2" s="62" t="s">
+      <c r="AB2" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="AB2" s="62" t="s">
+      <c r="AC2" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="29"/>
-      <c r="AH2" s="29" t="s">
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="29"/>
+      <c r="AI2" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="AI2" s="46" t="s">
+      <c r="AJ2" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="AJ2" s="46" t="s">
+      <c r="AK2" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="AK2" s="62" t="s">
+      <c r="AL2" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="AL2" s="62" t="s">
+      <c r="AM2" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="AM2" s="60">
+      <c r="AN2" s="60">
         <v>1</v>
       </c>
-      <c r="AN2" s="61" t="s">
+      <c r="AO2" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="AO2" s="29" t="s">
+      <c r="AP2" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="AP2" s="29" t="s">
+      <c r="AQ2" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="AQ2" s="29" t="s">
+      <c r="AR2" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="AR2" s="29" t="s">
+      <c r="AS2" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="AU2" s="6" t="s">
+      <c r="AV2" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="AV2" s="6" t="s">
+      <c r="AW2" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="AW2" s="6"/>
       <c r="AX2" s="6"/>
       <c r="AY2" s="6"/>
-      <c r="BB2" s="29" t="s">
-        <v>191</v>
-      </c>
+      <c r="AZ2" s="6"/>
       <c r="BC2" s="29" t="s">
         <v>191</v>
       </c>
       <c r="BD2" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="BE2" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="BE2" s="29" t="s">
+      <c r="BF2" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="BF2" s="29" t="s">
+      <c r="BG2" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="BG2" s="19">
+      <c r="BH2" s="19">
         <v>10</v>
       </c>
-      <c r="BH2" s="29" t="s">
+      <c r="BI2" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="BI2" s="6"/>
-      <c r="BJ2" s="29" t="s">
+      <c r="BJ2" s="6"/>
+      <c r="BK2" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="BK2" s="29"/>
-      <c r="BL2" s="29" t="s">
+      <c r="BL2" s="29"/>
+      <c r="BM2" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="BM2" s="29"/>
-      <c r="BN2" s="19">
-        <v>10</v>
-      </c>
+      <c r="BN2" s="29"/>
       <c r="BO2" s="19">
         <v>10</v>
       </c>
-      <c r="BR2" s="61" t="s">
+      <c r="BP2" s="19">
+        <v>10</v>
+      </c>
+      <c r="BS2" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="BS2" s="61" t="s">
+      <c r="BT2" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="BU2" s="61" t="s">
+      <c r="BV2" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="BV2" s="60" t="s">
+      <c r="BW2" s="60" t="s">
         <v>184</v>
       </c>
-      <c r="BY2" s="60" t="s">
+      <c r="BZ2" s="60" t="s">
         <v>184</v>
       </c>
-      <c r="CA2" s="6" t="s">
+      <c r="CB2" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="CB2" s="62" t="s">
-        <v>199</v>
       </c>
       <c r="CC2" s="62" t="s">
         <v>199</v>
       </c>
       <c r="CD2" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="CE2" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="CE2" s="62" t="s">
+      <c r="CF2" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="CF2" s="29"/>
-      <c r="CH2" s="29"/>
-      <c r="CI2" s="60" t="s">
+      <c r="CG2" s="29"/>
+      <c r="CI2" s="29"/>
+      <c r="CJ2" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="CJ2" s="60" t="s">
+      <c r="CK2" s="60" t="s">
         <v>198</v>
       </c>
-      <c r="CK2" s="6"/>
-      <c r="CL2" s="29"/>
-      <c r="CM2" s="6"/>
+      <c r="CL2" s="6"/>
+      <c r="CM2" s="29"/>
       <c r="CN2" s="6"/>
-      <c r="CO2" s="29"/>
+      <c r="CO2" s="6"/>
       <c r="CP2" s="29"/>
-      <c r="CQ2" s="19"/>
+      <c r="CQ2" s="29"/>
       <c r="CR2" s="19"/>
       <c r="CS2" s="19"/>
       <c r="CT2" s="19"/>
       <c r="CU2" s="19"/>
-      <c r="CV2" s="29"/>
-      <c r="CW2" s="6"/>
+      <c r="CV2" s="19"/>
+      <c r="CW2" s="29"/>
       <c r="CX2" s="6"/>
-      <c r="CY2" s="29"/>
-      <c r="CZ2" s="6"/>
+      <c r="CY2" s="6"/>
+      <c r="CZ2" s="29"/>
       <c r="DA2" s="6"/>
-      <c r="DB2" s="62" t="s">
+      <c r="DB2" s="6"/>
+      <c r="DC2" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="DC2" s="62"/>
-      <c r="DG2" s="60" t="s">
+      <c r="DD2" s="62"/>
+      <c r="DH2" s="60" t="s">
         <v>202</v>
       </c>
-      <c r="DJ2" s="60" t="s">
+      <c r="DK2" s="60" t="s">
         <v>203</v>
       </c>
-      <c r="DK2" s="60" t="s">
+      <c r="DL2" s="60" t="s">
         <v>204</v>
       </c>
-      <c r="DL2" s="59" t="s">
+      <c r="DM2" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="DM2" s="59" t="s">
+      <c r="DN2" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="DN2" s="59" t="s">
+      <c r="DO2" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="DO2" s="59" t="s">
+      <c r="DP2" s="59" t="s">
         <v>207</v>
-      </c>
-      <c r="DP2" s="59" t="s">
-        <v>208</v>
       </c>
       <c r="DQ2" s="59" t="s">
         <v>208</v>
       </c>
       <c r="DR2" s="59" t="s">
+        <v>208</v>
+      </c>
+      <c r="DS2" s="59" t="s">
         <v>209</v>
       </c>
-      <c r="DS2" s="59" t="s">
+      <c r="DT2" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="DT2" s="59" t="s">
+      <c r="DU2" s="59" t="s">
         <v>211</v>
       </c>
-      <c r="DU2" s="59" t="s">
+      <c r="DV2" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="DV2" s="47" t="s">
+      <c r="DW2" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="DW2" s="59" t="s">
+      <c r="DX2" s="59" t="s">
         <v>204</v>
-      </c>
-      <c r="DX2" s="61" t="s">
-        <v>184</v>
       </c>
       <c r="DY2" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="DZ2" s="59" t="s">
+      <c r="DZ2" s="61" t="s">
+        <v>184</v>
+      </c>
+      <c r="EA2" s="59" t="s">
         <v>214</v>
       </c>
-      <c r="EA2" s="59" t="s">
+      <c r="EB2" s="59" t="s">
         <v>215</v>
       </c>
-      <c r="EB2" s="59" t="s">
+      <c r="EC2" s="59" t="s">
         <v>216</v>
-      </c>
-      <c r="EC2" s="59" t="s">
-        <v>191</v>
       </c>
       <c r="ED2" s="59" t="s">
         <v>191</v>
       </c>
       <c r="EE2" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="EF2" s="59" t="s">
         <v>196</v>
       </c>
-      <c r="EF2" s="59" t="s">
+      <c r="EG2" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="EG2" s="59" t="s">
+      <c r="EH2" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="EH2" s="59" t="s">
+      <c r="EI2" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="EI2" s="59" t="s">
+      <c r="EJ2" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="EJ2" s="59" t="s">
+      <c r="EK2" s="59" t="s">
         <v>170</v>
-      </c>
-      <c r="EK2" s="61" t="s">
-        <v>184</v>
       </c>
       <c r="EL2" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="EM2" s="18"/>
-      <c r="EN2" s="61" t="s">
+      <c r="EM2" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="EO2" s="59" t="s">
+      <c r="EN2" s="18"/>
+      <c r="EO2" s="61" t="s">
+        <v>184</v>
+      </c>
+      <c r="EP2" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="EP2" s="59" t="s">
+      <c r="EQ2" s="59" t="s">
         <v>220</v>
       </c>
-      <c r="EQ2" s="59" t="s">
+      <c r="ER2" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="ER2" s="59" t="s">
+      <c r="ES2" s="59" t="s">
         <v>220</v>
       </c>
-      <c r="ES2" s="59" t="s">
+      <c r="ET2" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="ET2" s="59" t="s">
+      <c r="EU2" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="EU2" s="59" t="s">
+      <c r="EV2" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="EV2" s="59" t="s">
+      <c r="EW2" s="59" t="s">
         <v>223</v>
       </c>
-      <c r="EZ2" s="17" t="s">
+      <c r="FA2" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="FA2" s="60" t="s">
+      <c r="FB2" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="FB2" s="60" t="s">
+      <c r="FC2" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="FC2" s="60" t="s">
+      <c r="FD2" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="FD2" s="60" t="s">
+      <c r="FE2" s="60" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:160" x14ac:dyDescent="0.25">
-      <c r="CD3" s="62"/>
+    <row r="3" spans="1:161" x14ac:dyDescent="0.25">
+      <c r="CE3" s="62"/>
     </row>
-    <row r="5" spans="1:160" x14ac:dyDescent="0.25">
-      <c r="DZ5" s="59"/>
-      <c r="EH5" s="59"/>
+    <row r="5" spans="1:161" x14ac:dyDescent="0.25">
+      <c r="EA5" s="59"/>
       <c r="EI5" s="59"/>
       <c r="EJ5" s="59"/>
-      <c r="EL5" s="59"/>
+      <c r="EK5" s="59"/>
       <c r="EM5" s="59"/>
       <c r="EN5" s="59"/>
       <c r="EO5" s="59"/>
@@ -4700,9 +4709,9 @@
       <c r="ET5" s="59"/>
       <c r="EU5" s="59"/>
       <c r="EV5" s="59"/>
+      <c r="EW5" s="59"/>
     </row>
-    <row r="7" spans="1:160" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="DL7" s="60"/>
+    <row r="7" spans="1:161" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="DM7" s="60"/>
       <c r="DN7" s="60"/>
       <c r="DO7" s="60"/>
@@ -4716,14 +4725,15 @@
       <c r="DW7" s="60"/>
       <c r="DX7" s="60"/>
       <c r="DY7" s="60"/>
-      <c r="EA7" s="60"/>
+      <c r="DZ7" s="60"/>
       <c r="EB7" s="60"/>
       <c r="EC7" s="60"/>
       <c r="ED7" s="60"/>
       <c r="EE7" s="60"/>
       <c r="EF7" s="60"/>
       <c r="EG7" s="60"/>
-      <c r="EK7" s="60"/>
+      <c r="EH7" s="60"/>
+      <c r="EL7" s="60"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -7450,8 +7460,8 @@
   </sheetPr>
   <dimension ref="A1:EO2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BD1" sqref="BD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8423,13 +8433,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AX2"/>
+  <dimension ref="A1:AY2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomRight" activeCell="AL1" sqref="AL1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8467,24 +8477,24 @@
     <col min="32" max="32" width="19.42578125" style="60" customWidth="1"/>
     <col min="33" max="33" width="32.7109375" style="60" customWidth="1"/>
     <col min="34" max="34" width="21" style="60" customWidth="1"/>
-    <col min="35" max="35" width="20.85546875" style="60" customWidth="1"/>
-    <col min="36" max="36" width="24.7109375" style="60" customWidth="1"/>
-    <col min="37" max="37" width="25.5703125" style="60" customWidth="1"/>
-    <col min="38" max="38" width="24.42578125" style="60" customWidth="1"/>
-    <col min="39" max="39" width="23.7109375" style="60" customWidth="1"/>
-    <col min="40" max="40" width="25.28515625" style="60" customWidth="1"/>
-    <col min="41" max="42" width="22.7109375" style="60" customWidth="1"/>
-    <col min="43" max="43" width="23.140625" style="60" customWidth="1"/>
-    <col min="44" max="44" width="23.5703125" style="60" customWidth="1"/>
-    <col min="45" max="45" width="16.85546875" style="60" customWidth="1"/>
-    <col min="46" max="46" width="17.7109375" style="60" customWidth="1"/>
-    <col min="47" max="47" width="21.140625" style="60" customWidth="1"/>
-    <col min="48" max="48" width="20.85546875" style="60" customWidth="1"/>
-    <col min="49" max="49" width="25.7109375" style="78" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="27.28515625" style="78" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="20.85546875" style="60" customWidth="1"/>
+    <col min="37" max="37" width="24.7109375" style="60" customWidth="1"/>
+    <col min="38" max="38" width="25.5703125" style="60" customWidth="1"/>
+    <col min="39" max="39" width="24.42578125" style="60" customWidth="1"/>
+    <col min="40" max="40" width="23.7109375" style="60" customWidth="1"/>
+    <col min="41" max="41" width="25.28515625" style="60" customWidth="1"/>
+    <col min="42" max="43" width="22.7109375" style="60" customWidth="1"/>
+    <col min="44" max="44" width="23.140625" style="60" customWidth="1"/>
+    <col min="45" max="45" width="23.5703125" style="60" customWidth="1"/>
+    <col min="46" max="46" width="16.85546875" style="60" customWidth="1"/>
+    <col min="47" max="47" width="17.7109375" style="60" customWidth="1"/>
+    <col min="48" max="48" width="21.140625" style="60" customWidth="1"/>
+    <col min="49" max="49" width="20.85546875" style="60" customWidth="1"/>
+    <col min="50" max="50" width="25.7109375" style="78" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="27.28515625" style="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="15" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" s="15" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -8590,53 +8600,56 @@
       <c r="AI1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="AJ1" s="15" t="s">
+      <c r="AJ1" s="14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="AK1" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="AK1" s="15" t="s">
+      <c r="AL1" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="AL1" s="15" t="s">
+      <c r="AM1" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="AM1" s="15" t="s">
+      <c r="AN1" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="AN1" s="15" t="s">
+      <c r="AO1" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="AO1" s="15" t="s">
+      <c r="AP1" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="AP1" s="15" t="s">
+      <c r="AQ1" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="AQ1" s="15" t="s">
+      <c r="AR1" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="AR1" s="15" t="s">
+      <c r="AS1" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="AS1" s="15" t="s">
+      <c r="AT1" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="AT1" s="15" t="s">
+      <c r="AU1" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="AU1" s="15" t="s">
+      <c r="AV1" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="AV1" s="15" t="s">
+      <c r="AW1" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="AW1" s="15" t="s">
+      <c r="AX1" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="AX1" s="15" t="s">
+      <c r="AY1" s="15" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:50" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:51" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>156</v>
       </c>
@@ -8711,19 +8724,20 @@
       <c r="AI2" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="AJ2" s="17" t="s">
+      <c r="AJ2" s="83"/>
+      <c r="AK2" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="AK2" s="17" t="s">
+      <c r="AL2" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="AL2" s="17" t="s">
+      <c r="AM2" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="AW2" s="17" t="s">
+      <c r="AX2" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="AX2" s="17" t="s">
+      <c r="AY2" s="17" t="s">
         <v>277</v>
       </c>
     </row>

--- a/DataSet/LoanIQ_DataSet/EVG_PTYLIQ04_BaselineNonAgentSyndication.xlsx
+++ b/DataSet/LoanIQ_DataSet/EVG_PTYLIQ04_BaselineNonAgentSyndication.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\LoanIQ_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407C03B5-73A9-472A-BDDC-7D923C7E0369}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759D7FC7-B33D-44FF-A853-1B567050A158}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="932" firstSheet="9" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="1016">
   <si>
     <t>rowid</t>
   </si>
@@ -3076,6 +3076,18 @@
   </si>
   <si>
     <t>Facility_Borrower</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>CustomerSourceApp</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>LIQ</t>
   </si>
 </sst>
 </file>
@@ -7458,10 +7470,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:EO2"/>
+  <dimension ref="A1:EQ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BD1" sqref="BD1"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AT1" sqref="AT1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7551,7 +7563,7 @@
     <col min="108" max="108" width="20" style="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:145" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:147" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7987,8 +7999,14 @@
       <c r="EO1" s="84" t="s">
         <v>1009</v>
       </c>
+      <c r="EP1" s="84" t="s">
+        <v>1012</v>
+      </c>
+      <c r="EQ1" s="84" t="s">
+        <v>1013</v>
+      </c>
     </row>
-    <row r="2" spans="1:145" s="61" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:147" s="61" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
         <v>156</v>
       </c>
@@ -8419,6 +8437,12 @@
       </c>
       <c r="EO2" s="61" t="s">
         <v>169</v>
+      </c>
+      <c r="EP2" s="61" t="s">
+        <v>1014</v>
+      </c>
+      <c r="EQ2" s="61" t="s">
+        <v>1015</v>
       </c>
     </row>
   </sheetData>

--- a/DataSet/LoanIQ_DataSet/EVG_PTYLIQ04_BaselineNonAgentSyndication.xlsx
+++ b/DataSet/LoanIQ_DataSet/EVG_PTYLIQ04_BaselineNonAgentSyndication.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\LoanIQ_DataSet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u723248\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9798A3B-039B-485A-9002-8039D12824A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7AEC87-A32F-4556-AFB6-BD9014879D69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="932" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="932" firstSheet="9" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRED01_DealSetup" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="1021">
   <si>
     <t>rowid</t>
   </si>
@@ -510,6 +510,9 @@
     <t>Add_To_Deal_AgreementDate</t>
   </si>
   <si>
+    <t>Entity</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -522,13 +525,13 @@
     <t>S4</t>
   </si>
   <si>
-    <t>S4NA_21102020160125DVU</t>
-  </si>
-  <si>
-    <t>S421102020160130JGF</t>
-  </si>
-  <si>
-    <t>S4REV19082020150304</t>
+    <t>S4NA_21102020161802KYO</t>
+  </si>
+  <si>
+    <t>S421102020161807XKC</t>
+  </si>
+  <si>
+    <t>S4REV21102020172647</t>
   </si>
   <si>
     <t>AUD</t>
@@ -723,6 +726,9 @@
     <t>30</t>
   </si>
   <si>
+    <t>AU</t>
+  </si>
+  <si>
     <t>ESPS11613012</t>
   </si>
   <si>
@@ -870,313 +876,316 @@
     <t>Revolver</t>
   </si>
   <si>
+    <t>03-May-2024</t>
+  </si>
+  <si>
+    <t>Loan</t>
+  </si>
+  <si>
+    <t>Working Capital</t>
+  </si>
+  <si>
+    <t>Sydney, NSW,Australia</t>
+  </si>
+  <si>
+    <t>1095</t>
+  </si>
+  <si>
+    <t>OngoingFee_Category1</t>
+  </si>
+  <si>
+    <t>OngoingFee_Category2</t>
+  </si>
+  <si>
+    <t>OngoingFee_Type1</t>
+  </si>
+  <si>
+    <t>OngoingFee_Type2</t>
+  </si>
+  <si>
+    <t>OngoingFee_Type3</t>
+  </si>
+  <si>
+    <t>OngoingFee_Type4</t>
+  </si>
+  <si>
+    <t>OngoingFee_RateBasis1</t>
+  </si>
+  <si>
+    <t>OngoingFee_RateBasis2</t>
+  </si>
+  <si>
+    <t>OngoingFee_AfterItem</t>
+  </si>
+  <si>
+    <t>OngoingFee_AfterItemType</t>
+  </si>
+  <si>
+    <t>FormulaCategory_Type1</t>
+  </si>
+  <si>
+    <t>FormulaCategory_Type2</t>
+  </si>
+  <si>
+    <t>Facility_PercentWhole</t>
+  </si>
+  <si>
+    <t>Facility_Percent</t>
+  </si>
+  <si>
+    <t>OngoingFee_SpreadType1</t>
+  </si>
+  <si>
+    <t>OngoingFee_SpreadType2</t>
+  </si>
+  <si>
+    <t>OngoingFee_SpreadAmt1</t>
+  </si>
+  <si>
+    <t>OngoingFee_SpreadAmt2</t>
+  </si>
+  <si>
+    <t>Interest_AddItem</t>
+  </si>
+  <si>
+    <t>Interest_OptionName1</t>
+  </si>
+  <si>
+    <t>Interest_OptionName2</t>
+  </si>
+  <si>
+    <t>Interest_OptionName3</t>
+  </si>
+  <si>
+    <t>Interest_OptionName4</t>
+  </si>
+  <si>
+    <t>Interest_RateBasis</t>
+  </si>
+  <si>
+    <t>Interest_SpreadType1</t>
+  </si>
+  <si>
+    <t>Interest_SpreadType2</t>
+  </si>
+  <si>
+    <t>Interest_SpreadValue1</t>
+  </si>
+  <si>
+    <t>Interest_SpreadValue2</t>
+  </si>
+  <si>
+    <t>Interest_SpreadValue3</t>
+  </si>
+  <si>
+    <t>Interest_SpreadValue4</t>
+  </si>
+  <si>
+    <t>Interest_SpreadAmt1</t>
+  </si>
+  <si>
+    <t>Interest_SpreadAmt2</t>
+  </si>
+  <si>
+    <t>Interest_BaseRateCode1</t>
+  </si>
+  <si>
+    <t>Interest_BaseRateCode2</t>
+  </si>
+  <si>
+    <t>Interest_BaseRateCode3</t>
+  </si>
+  <si>
+    <t>Interest_BaseRateCode4</t>
+  </si>
+  <si>
+    <t>Facility_PricingRuleOption1</t>
+  </si>
+  <si>
+    <t>Facility_PricingRuleOption2</t>
+  </si>
+  <si>
+    <t>Facility_PricingRuleOption3</t>
+  </si>
+  <si>
+    <t>Facility_PricingRuleOption4</t>
+  </si>
+  <si>
+    <t>Interest_FinancialRatioType1</t>
+  </si>
+  <si>
+    <t>Interest_FinancialRatioType2</t>
+  </si>
+  <si>
+    <t>FinancialRatio_Minimum1</t>
+  </si>
+  <si>
+    <t>FinancialRatio_Minimum2</t>
+  </si>
+  <si>
+    <t>FinancialRatio_Minimum3</t>
+  </si>
+  <si>
+    <t>FinancialRatio_Minimum4</t>
+  </si>
+  <si>
+    <t>FinancialRatio_Maximum1</t>
+  </si>
+  <si>
+    <t>FinancialRatio_Maximum2</t>
+  </si>
+  <si>
+    <t>FinancialRatio_Maximum3</t>
+  </si>
+  <si>
+    <t>FinancialRatio_Maximum4</t>
+  </si>
+  <si>
+    <t>Greater_Than</t>
+  </si>
+  <si>
+    <t>Less_Than</t>
+  </si>
+  <si>
+    <t>Facility Ongoing Fee</t>
+  </si>
+  <si>
+    <t>FormulaCategory</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Flat Amount</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Basis Points</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>BBSW</t>
+  </si>
+  <si>
+    <t>BBSY</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Deal_Amount</t>
+  </si>
+  <si>
+    <t>Lender_NHB</t>
+  </si>
+  <si>
+    <t>Lender_Name</t>
+  </si>
+  <si>
+    <t>LenderLocation_NHB</t>
+  </si>
+  <si>
+    <t>PercentOfDeal_NHB</t>
+  </si>
+  <si>
+    <t>PercentOfDeal_HB</t>
+  </si>
+  <si>
+    <t>ContactName_NHB</t>
+  </si>
+  <si>
+    <t>Host_Bank</t>
+  </si>
+  <si>
+    <t>LenderLocation</t>
+  </si>
+  <si>
+    <t>RiskBook</t>
+  </si>
+  <si>
+    <t>BuySellPrice</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>ContactName</t>
+  </si>
+  <si>
+    <t>TradeDate</t>
+  </si>
+  <si>
+    <t>ExpenseCode</t>
+  </si>
+  <si>
+    <t>WIPTransaction_Type</t>
+  </si>
+  <si>
+    <t>Transaction_Status_Awaiting Approval</t>
+  </si>
+  <si>
+    <t>LenderNHB_Host</t>
+  </si>
+  <si>
+    <t>Lender_Host</t>
+  </si>
+  <si>
+    <t>Lender_Type</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>NHB,  Lending</t>
+  </si>
+  <si>
+    <t>IT_COL</t>
+  </si>
+  <si>
+    <t>100.000000000000</t>
+  </si>
+  <si>
+    <t>Primaries Allocation</t>
+  </si>
+  <si>
+    <t>Business Verification,  BVT</t>
+  </si>
+  <si>
+    <t>Commonwealth Bank of Australia - DBU</t>
+  </si>
+  <si>
     <t>09-Sep-2023</t>
-  </si>
-  <si>
-    <t>Loan</t>
-  </si>
-  <si>
-    <t>Working Capital</t>
-  </si>
-  <si>
-    <t>Sydney, NSW,Australia</t>
-  </si>
-  <si>
-    <t>1095</t>
-  </si>
-  <si>
-    <t>OngoingFee_Category1</t>
-  </si>
-  <si>
-    <t>OngoingFee_Category2</t>
-  </si>
-  <si>
-    <t>OngoingFee_Type1</t>
-  </si>
-  <si>
-    <t>OngoingFee_Type2</t>
-  </si>
-  <si>
-    <t>OngoingFee_Type3</t>
-  </si>
-  <si>
-    <t>OngoingFee_Type4</t>
-  </si>
-  <si>
-    <t>OngoingFee_RateBasis1</t>
-  </si>
-  <si>
-    <t>OngoingFee_RateBasis2</t>
-  </si>
-  <si>
-    <t>OngoingFee_AfterItem</t>
-  </si>
-  <si>
-    <t>OngoingFee_AfterItemType</t>
-  </si>
-  <si>
-    <t>FormulaCategory_Type1</t>
-  </si>
-  <si>
-    <t>FormulaCategory_Type2</t>
-  </si>
-  <si>
-    <t>Facility_PercentWhole</t>
-  </si>
-  <si>
-    <t>Facility_Percent</t>
-  </si>
-  <si>
-    <t>OngoingFee_SpreadType1</t>
-  </si>
-  <si>
-    <t>OngoingFee_SpreadType2</t>
-  </si>
-  <si>
-    <t>OngoingFee_SpreadAmt1</t>
-  </si>
-  <si>
-    <t>OngoingFee_SpreadAmt2</t>
-  </si>
-  <si>
-    <t>Interest_AddItem</t>
-  </si>
-  <si>
-    <t>Interest_OptionName1</t>
-  </si>
-  <si>
-    <t>Interest_OptionName2</t>
-  </si>
-  <si>
-    <t>Interest_OptionName3</t>
-  </si>
-  <si>
-    <t>Interest_OptionName4</t>
-  </si>
-  <si>
-    <t>Interest_RateBasis</t>
-  </si>
-  <si>
-    <t>Interest_SpreadType1</t>
-  </si>
-  <si>
-    <t>Interest_SpreadType2</t>
-  </si>
-  <si>
-    <t>Interest_SpreadValue1</t>
-  </si>
-  <si>
-    <t>Interest_SpreadValue2</t>
-  </si>
-  <si>
-    <t>Interest_SpreadValue3</t>
-  </si>
-  <si>
-    <t>Interest_SpreadValue4</t>
-  </si>
-  <si>
-    <t>Interest_SpreadAmt1</t>
-  </si>
-  <si>
-    <t>Interest_SpreadAmt2</t>
-  </si>
-  <si>
-    <t>Interest_BaseRateCode1</t>
-  </si>
-  <si>
-    <t>Interest_BaseRateCode2</t>
-  </si>
-  <si>
-    <t>Interest_BaseRateCode3</t>
-  </si>
-  <si>
-    <t>Interest_BaseRateCode4</t>
-  </si>
-  <si>
-    <t>Facility_PricingRuleOption1</t>
-  </si>
-  <si>
-    <t>Facility_PricingRuleOption2</t>
-  </si>
-  <si>
-    <t>Facility_PricingRuleOption3</t>
-  </si>
-  <si>
-    <t>Facility_PricingRuleOption4</t>
-  </si>
-  <si>
-    <t>Interest_FinancialRatioType1</t>
-  </si>
-  <si>
-    <t>Interest_FinancialRatioType2</t>
-  </si>
-  <si>
-    <t>FinancialRatio_Minimum1</t>
-  </si>
-  <si>
-    <t>FinancialRatio_Minimum2</t>
-  </si>
-  <si>
-    <t>FinancialRatio_Minimum3</t>
-  </si>
-  <si>
-    <t>FinancialRatio_Minimum4</t>
-  </si>
-  <si>
-    <t>FinancialRatio_Maximum1</t>
-  </si>
-  <si>
-    <t>FinancialRatio_Maximum2</t>
-  </si>
-  <si>
-    <t>FinancialRatio_Maximum3</t>
-  </si>
-  <si>
-    <t>FinancialRatio_Maximum4</t>
-  </si>
-  <si>
-    <t>Greater_Than</t>
-  </si>
-  <si>
-    <t>Less_Than</t>
-  </si>
-  <si>
-    <t>Facility Ongoing Fee</t>
-  </si>
-  <si>
-    <t>FormulaCategory</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>Flat Amount</t>
-  </si>
-  <si>
-    <t>Percent</t>
-  </si>
-  <si>
-    <t>Basis Points</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Option</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>BBSW</t>
-  </si>
-  <si>
-    <t>BBSY</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Maximum</t>
-  </si>
-  <si>
-    <t>Deal_Amount</t>
-  </si>
-  <si>
-    <t>Lender_NHB</t>
-  </si>
-  <si>
-    <t>Lender_Name</t>
-  </si>
-  <si>
-    <t>LenderLocation_NHB</t>
-  </si>
-  <si>
-    <t>PercentOfDeal_NHB</t>
-  </si>
-  <si>
-    <t>PercentOfDeal_HB</t>
-  </si>
-  <si>
-    <t>ContactName_NHB</t>
-  </si>
-  <si>
-    <t>Host_Bank</t>
-  </si>
-  <si>
-    <t>LenderLocation</t>
-  </si>
-  <si>
-    <t>RiskBook</t>
-  </si>
-  <si>
-    <t>BuySellPrice</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>ContactName</t>
-  </si>
-  <si>
-    <t>TradeDate</t>
-  </si>
-  <si>
-    <t>ExpenseCode</t>
-  </si>
-  <si>
-    <t>WIPTransaction_Type</t>
-  </si>
-  <si>
-    <t>Transaction_Status_Awaiting Approval</t>
-  </si>
-  <si>
-    <t>LenderNHB_Host</t>
-  </si>
-  <si>
-    <t>Lender_Host</t>
-  </si>
-  <si>
-    <t>Lender_Type</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>NHB,  Lending</t>
-  </si>
-  <si>
-    <t>IT_COL</t>
-  </si>
-  <si>
-    <t>100.000000000000</t>
-  </si>
-  <si>
-    <t>Primaries Allocation</t>
-  </si>
-  <si>
-    <t>Business Verification,  BVT</t>
-  </si>
-  <si>
-    <t>Commonwealth Bank of Australia - DBU</t>
   </si>
   <si>
     <t>Circles</t>
@@ -3081,9 +3090,6 @@
     <t>Contact_Initials</t>
   </si>
   <si>
-    <t>Entity</t>
-  </si>
-  <si>
     <t>CustomerSourceApp</t>
   </si>
   <si>
@@ -3094,9 +3100,6 @@
   </si>
   <si>
     <t>IMTUSD2-2529</t>
-  </si>
-  <si>
-    <t>AU</t>
   </si>
   <si>
     <t>LIQ</t>
@@ -3735,9 +3738,9 @@
   </sheetPr>
   <dimension ref="A1:FF7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="EX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="FB2" sqref="FB2"/>
+      <selection pane="topRight" activeCell="FB1" sqref="FB1:FB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4354,167 +4357,167 @@
         <v>156</v>
       </c>
       <c r="FB1" s="14" t="s">
-        <v>1013</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:162" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D2" s="59" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E2" s="59">
         <v>30</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G2" s="59" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H2" s="59" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K2" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="L2" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="L2" s="28" t="s">
-        <v>165</v>
-      </c>
       <c r="M2" s="44" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N2" s="60" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O2" s="78" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P2" s="78" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q2" s="44" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="R2" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="S2" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="T2" s="60" t="s">
+        <v>173</v>
+      </c>
+      <c r="U2" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="V2" s="60" t="s">
+        <v>175</v>
+      </c>
+      <c r="W2" t="s">
+        <v>176</v>
+      </c>
+      <c r="X2" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="S2" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="T2" s="60" t="s">
-        <v>172</v>
-      </c>
-      <c r="U2" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="V2" s="60" t="s">
-        <v>174</v>
-      </c>
-      <c r="W2" t="s">
-        <v>175</v>
-      </c>
-      <c r="X2" s="44" t="s">
-        <v>169</v>
-      </c>
       <c r="Y2" s="60" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z2" s="28"/>
       <c r="AA2" s="60" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AB2" s="60" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AC2" s="60" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF2" s="5"/>
       <c r="AG2" s="28"/>
       <c r="AI2" s="28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AJ2" s="45" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK2" s="45" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL2" s="60" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM2" s="60" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN2" s="59">
         <v>1</v>
       </c>
       <c r="AO2" s="78" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AP2" s="28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AQ2" s="28" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AR2" s="28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AS2" s="28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AV2" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AW2" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AX2" s="5"/>
       <c r="AY2" s="5"/>
       <c r="AZ2" s="5"/>
       <c r="BC2" s="28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="BD2" s="28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="BE2" s="28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="BF2" s="28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="BG2" s="28" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="BH2" s="18">
         <v>10</v>
       </c>
       <c r="BI2" s="28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="BJ2" s="5"/>
       <c r="BK2" s="28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="BL2" s="28"/>
       <c r="BM2" s="28" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="BN2" s="28"/>
       <c r="BO2" s="18">
@@ -4524,42 +4527,42 @@
         <v>10</v>
       </c>
       <c r="BS2" s="78" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="BT2" s="78" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BV2" s="78" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="BW2" s="59" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BZ2" s="59" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CB2" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CC2" s="60" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="CD2" s="60" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="CE2" s="60" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="CF2" s="60" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="CG2" s="28"/>
       <c r="CI2" s="28"/>
       <c r="CJ2" s="59" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="CK2" s="59" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CL2" s="5"/>
       <c r="CM2" s="28"/>
@@ -4579,144 +4582,144 @@
       <c r="DA2" s="5"/>
       <c r="DB2" s="5"/>
       <c r="DC2" s="60" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="DD2" s="60"/>
       <c r="DH2" s="59" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="DK2" s="59" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="DL2" s="59" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="DM2" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="DN2" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="DO2" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="DP2" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="DQ2" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="DR2" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="DS2" s="58" t="s">
+        <v>211</v>
+      </c>
+      <c r="DT2" s="58" t="s">
+        <v>212</v>
+      </c>
+      <c r="DU2" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="DV2" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="DW2" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="DX2" s="58" t="s">
         <v>206</v>
       </c>
-      <c r="DN2" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="DO2" s="58" t="s">
-        <v>164</v>
-      </c>
-      <c r="DP2" s="58" t="s">
-        <v>208</v>
-      </c>
-      <c r="DQ2" s="58" t="s">
-        <v>209</v>
-      </c>
-      <c r="DR2" s="58" t="s">
-        <v>209</v>
-      </c>
-      <c r="DS2" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="DT2" s="58" t="s">
-        <v>211</v>
-      </c>
-      <c r="DU2" s="58" t="s">
-        <v>212</v>
-      </c>
-      <c r="DV2" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="DW2" s="46" t="s">
-        <v>214</v>
-      </c>
-      <c r="DX2" s="58" t="s">
-        <v>205</v>
-      </c>
       <c r="DY2" s="78" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="DZ2" s="78" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="EA2" s="58" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="EB2" s="58" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="EC2" s="58" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="ED2" s="58" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="EE2" s="58" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="EF2" s="58" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="EG2" s="58" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="EH2" s="58" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="EI2" s="58" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="EJ2" s="58" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="EK2" s="58" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="EL2" s="78" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EM2" s="78" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EN2" s="17"/>
       <c r="EO2" s="78" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EP2" s="58" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="EQ2" s="58" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="ER2" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="ES2" s="58" t="s">
         <v>223</v>
       </c>
-      <c r="ES2" s="58" t="s">
-        <v>222</v>
-      </c>
       <c r="ET2" s="58" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="EU2" s="58" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="EV2" s="58" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="EW2" s="58" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="FA2" s="16" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="FB2" s="16" t="s">
-        <v>1018</v>
+        <v>229</v>
       </c>
       <c r="FC2" s="59" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="FD2" s="59" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="FE2" s="59" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="FF2" s="59" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:162" x14ac:dyDescent="0.25">
@@ -4775,10 +4778,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AR15"/>
+  <dimension ref="A1:AS15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="AG1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AS1" sqref="AS1:AS2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4827,7 +4830,7 @@
     <col min="44" max="44" width="16" style="76" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="21" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" s="21" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -4838,204 +4841,207 @@
         <v>5</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="I1" s="65" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="K1" s="65" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="M1" s="66" t="s">
         <v>14</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="O1" s="67" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="P1" s="25" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="Q1" s="67" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="R1" s="67" t="s">
+        <v>417</v>
+      </c>
+      <c r="S1" s="24" t="s">
+        <v>599</v>
+      </c>
+      <c r="T1" s="67" t="s">
+        <v>600</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="V1" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="S1" s="24" t="s">
-        <v>596</v>
-      </c>
-      <c r="T1" s="67" t="s">
-        <v>597</v>
-      </c>
-      <c r="U1" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="V1" s="21" t="s">
-        <v>411</v>
-      </c>
       <c r="W1" s="21" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="X1" s="23" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="Y1" s="21" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="Z1" s="66" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="AA1" s="66" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="AB1" s="66" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="AC1" s="66" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AD1" s="65" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="AE1" s="65" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="AF1" s="65" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="AG1" s="21" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="AH1" s="21" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="AI1" s="65" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="AJ1" s="21" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="AK1" s="65" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="AL1" s="65" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="AM1" s="71" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="AN1" s="15" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="AO1" s="21" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="AP1" s="14" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="AQ1" s="69" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="AR1" s="21" t="s">
-        <v>615</v>
+        <v>618</v>
+      </c>
+      <c r="AS1" s="14" t="s">
+        <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:44" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="G2" s="64" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="L2" s="26" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M2" s="59" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O2" s="26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P2" s="26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q2" s="26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="R2" s="78" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="S2" s="78" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="T2" s="78" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="U2" s="60" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="V2" s="60" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="W2" s="28" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="X2" s="59" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="Y2" s="60" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="Z2" s="78">
         <v>40</v>
@@ -5047,50 +5053,53 @@
         <v>20</v>
       </c>
       <c r="AC2" s="78" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="AD2" s="29" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="AE2" s="78" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="AG2" s="68" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="AH2" s="68" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="AI2" s="68" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="AJ2" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="AK2" s="68"/>
       <c r="AL2" s="68" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="AM2" s="68" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="AN2" s="75" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AO2" s="60" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="AP2" s="28" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="AQ2" s="78">
         <v>10.5</v>
       </c>
       <c r="AR2" s="22" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AS2" s="16" t="s">
+        <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="C9" s="59"/>
       <c r="D9" s="60"/>
       <c r="E9" s="59"/>
@@ -5101,15 +5110,15 @@
       <c r="J9" s="60"/>
       <c r="K9" s="59"/>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
       <c r="O13" s="27"/>
       <c r="Q13" s="27"/>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
       <c r="N14" s="27"/>
       <c r="O14" s="27"/>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
       <c r="N15" s="27"/>
       <c r="O15" s="27"/>
     </row>
@@ -5125,10 +5134,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="Q1" sqref="Q1:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5151,7 +5160,7 @@
     <col min="16" max="16" width="16.85546875" style="59" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="14" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="14" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -5162,93 +5171,99 @@
         <v>5</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>14</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>640</v>
+        <v>643</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="59" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" s="59" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="59" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="D2" s="59" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="G2" s="59" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="I2" s="59" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J2" s="59" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L2" s="59" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="M2" s="59" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="N2" s="59" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="O2" s="59" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="P2" s="59" t="s">
-        <v>648</v>
+        <v>651</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -5265,8 +5280,8 @@
   </sheetPr>
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5301,84 +5316,90 @@
         <v>44</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="G1" s="34" t="s">
         <v>14</v>
       </c>
       <c r="H1" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>417</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="M1" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="I1" s="34" t="s">
-        <v>410</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>414</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>409</v>
-      </c>
       <c r="N1" s="11" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>651</v>
+        <v>654</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D2" s="59">
         <v>5000</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="G2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H2" s="59" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I2" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J2" s="59" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="K2" s="59" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L2" s="59" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="M2" s="59" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="N2" s="59">
         <v>35</v>
       </c>
       <c r="O2" s="59" t="s">
-        <v>471</v>
+        <v>474</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -5400,7 +5421,7 @@
   <dimension ref="A1:AX2"/>
   <sheetViews>
     <sheetView topLeftCell="AQ1" zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
-      <selection activeCell="AX2" sqref="AX2"/>
+      <selection activeCell="AX1" sqref="AX1:AX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5457,7 +5478,7 @@
     <col min="50" max="50" width="38.28515625" style="76" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="14" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" s="14" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -5468,222 +5489,225 @@
         <v>5</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M1" s="36" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N1" s="36" t="s">
         <v>113</v>
       </c>
       <c r="O1" s="36" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="P1" s="74" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="Q1" s="74" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="R1" s="74" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="S1" s="35" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="T1" s="35" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="U1" s="35" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="V1" s="35" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="W1" s="35" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="X1" s="35" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="Y1" s="35" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="Z1" s="35" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="AA1" s="35" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AB1" s="35" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="AC1" s="35" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="AD1" s="35" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="AE1" s="35" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="AF1" s="35" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="AG1" s="35" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="AH1" s="35" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="AI1" s="35" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="AJ1" s="35" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="AK1" s="35" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="AL1" s="35" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="AM1" s="35" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="AN1" s="35" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="AO1" s="35" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="AP1" s="35" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="AQ1" s="35" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="AR1" s="35" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="AS1" s="35" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AT1" s="35" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="AU1" s="35" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="AV1" s="35" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="AW1" s="14" t="s">
-        <v>357</v>
+        <v>359</v>
+      </c>
+      <c r="AX1" s="14" t="s">
+        <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:49" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B2" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>429</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>343</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>694</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>695</v>
+      </c>
+      <c r="H2" s="59" t="s">
+        <v>544</v>
+      </c>
+      <c r="I2" s="59" t="s">
+        <v>696</v>
+      </c>
+      <c r="J2" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="K2" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="L2" s="59" t="s">
+        <v>216</v>
+      </c>
+      <c r="M2" s="59" t="s">
+        <v>216</v>
+      </c>
+      <c r="N2" s="59" t="s">
+        <v>697</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>697</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>633</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>633</v>
+      </c>
+      <c r="R2" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="59" t="s">
-        <v>161</v>
-      </c>
-      <c r="D2" s="59" t="s">
-        <v>426</v>
-      </c>
-      <c r="E2" s="59" t="s">
-        <v>341</v>
-      </c>
-      <c r="F2" s="59" t="s">
-        <v>691</v>
-      </c>
-      <c r="G2" s="59" t="s">
-        <v>692</v>
-      </c>
-      <c r="H2" s="59" t="s">
-        <v>541</v>
-      </c>
-      <c r="I2" s="59" t="s">
-        <v>693</v>
-      </c>
-      <c r="J2" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="K2" s="59" t="s">
-        <v>199</v>
-      </c>
-      <c r="L2" s="59" t="s">
-        <v>215</v>
-      </c>
-      <c r="M2" s="59" t="s">
-        <v>215</v>
-      </c>
-      <c r="N2" s="59" t="s">
-        <v>694</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>694</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q2" s="16" t="s">
-        <v>630</v>
-      </c>
-      <c r="R2" s="16" t="s">
-        <v>157</v>
-      </c>
       <c r="S2" s="17" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="U2" s="17" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="W2" s="17" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="X2" s="17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y2" s="17" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="Z2" s="17" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AA2" s="59">
         <v>5</v>
@@ -5692,28 +5716,28 @@
         <v>0.05</v>
       </c>
       <c r="AC2" s="17" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AD2" s="17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AE2" s="17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF2" s="59">
         <v>3</v>
       </c>
       <c r="AG2" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AH2" s="59">
         <v>2</v>
       </c>
       <c r="AI2" s="17" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="AJ2" s="59" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="AK2" s="38">
         <v>500000</v>
@@ -5722,37 +5746,40 @@
         <v>100</v>
       </c>
       <c r="AM2" s="59" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="AN2" s="59" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="AO2" s="59" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="AP2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AQ2" s="59" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AR2" s="59" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AS2" s="59" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="AT2" s="59" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="AU2" s="59" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="AV2" s="59" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="AW2" s="59" t="s">
-        <v>704</v>
+        <v>707</v>
+      </c>
+      <c r="AX2" s="16" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -5771,7 +5798,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5908,13 +5935,16 @@
         <v>14</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>707</v>
+        <v>710</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="BZ1" s="15"/>
       <c r="CA1" s="15"/>
@@ -5971,25 +6001,28 @@
     </row>
     <row r="2" spans="1:129" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="59" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D2" s="59" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="G2" s="59" t="s">
-        <v>207</v>
+        <v>208</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -6004,10 +6037,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BF2"/>
+  <dimension ref="A1:BG2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="AT1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BG1" sqref="BG1:BG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6069,7 +6102,7 @@
     <col min="58" max="58" width="34.28515625" style="59" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="47" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:59" s="47" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -6083,204 +6116,207 @@
         <v>7</v>
       </c>
       <c r="E1" s="48" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="F1" s="48" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="G1" s="48" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="H1" s="48" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="I1" s="48" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="J1" s="48" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="K1" s="48" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="L1" s="48" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="M1" s="48" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="N1" s="48" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="P1" s="48" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="Q1" s="48" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="R1" s="48" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="S1" s="48" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="T1" s="48" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="U1" s="48" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="V1" s="48" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="W1" s="48" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="X1" s="48" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="Y1" s="48" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="Z1" s="48" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="AA1" s="48" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="AB1" s="48" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="AC1" s="48" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="AD1" s="48" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="AE1" s="48" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="AF1" s="48" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="AG1" s="48" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="AH1" s="48" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="AI1" s="50" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="AJ1" s="50" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="AK1" s="50" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="AL1" s="50" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="AM1" s="50" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="AN1" s="50" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="AO1" s="50" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="AP1" s="50" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="AQ1" s="50" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="AR1" s="50" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="AS1" s="50" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="AT1" s="50" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="AU1" s="50" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="AV1" s="50" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="AW1" s="50" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="AX1" s="50" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="AY1" s="50" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="AZ1" s="50" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="BA1" s="50" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="BB1" s="50" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="BC1" s="50" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="BD1" s="50" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="BE1" s="50" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="BF1" s="50" t="s">
-        <v>690</v>
+        <v>693</v>
+      </c>
+      <c r="BG1" s="14" t="s">
+        <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:58" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D2" s="59" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="G2" s="59" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="H2" s="59" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="I2" s="59" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="AI2" s="59" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="AJ2" s="59" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="AK2" s="59" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL2" s="59">
         <v>0</v>
@@ -6301,22 +6337,22 @@
         <v>3</v>
       </c>
       <c r="AR2" s="59" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AS2" s="17" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AT2" s="17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AU2" s="17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AV2" s="59">
         <v>0.25</v>
       </c>
       <c r="AW2" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AX2" s="17"/>
       <c r="AY2" s="59">
@@ -6329,19 +6365,22 @@
         <v>1.25</v>
       </c>
       <c r="BB2" s="59" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="BC2" s="59" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="BD2" s="59" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="BE2" s="59" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="BF2" s="59" t="s">
-        <v>580</v>
+        <v>583</v>
+      </c>
+      <c r="BG2" s="16" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -6359,8 +6398,8 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H2" sqref="H2"/>
+      <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T1" sqref="T1:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6407,54 +6446,56 @@
         <v>5</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="O1" s="13" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>640</v>
-      </c>
-      <c r="T1" s="15"/>
+        <v>643</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>157</v>
+      </c>
       <c r="U1" s="15"/>
       <c r="V1" s="15"/>
       <c r="W1" s="15"/>
@@ -6470,55 +6511,58 @@
     </row>
     <row r="2" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F2" s="28"/>
       <c r="G2" s="59" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="H2" s="60" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="I2" s="59" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="J2" s="59" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="K2" s="53"/>
       <c r="L2" s="60" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="M2" s="60" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N2" s="60"/>
       <c r="O2" s="59" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="P2" s="53" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q2" s="60" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="R2" s="60">
         <v>100</v>
       </c>
       <c r="S2" s="59" t="s">
-        <v>648</v>
+        <v>651</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -6633,848 +6677,848 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="M1" s="34" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="T1" s="11" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="AD1" s="11" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="AE1" s="11" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="AG1" s="11" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="AH1" s="11" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="AI1" s="11" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="AJ1" s="11" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="AK1" s="11" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="AL1" s="11" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="AM1" s="11" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="AN1" s="11" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="AO1" s="11" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="AP1" s="11" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="AQ1" s="11" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="AR1" s="11" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="AS1" s="11" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="AT1" s="11" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="AU1" s="11" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="AV1" s="11" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="AW1" s="11" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="AX1" s="11" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="AY1" s="11" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="AZ1" s="11" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="BA1" s="11" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="BB1" s="11" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="BC1" s="11" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="BD1" s="11" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="BE1" s="11" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="BF1" s="11" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="BG1" s="11" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="BH1" s="11" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="BI1" s="11" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="BJ1" s="11" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="BK1" s="11" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="BL1" s="11" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="BM1" s="11" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="BN1" s="54" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="BO1" s="11" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="BP1" s="11" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="BQ1" s="11" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="BR1" s="11" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="BS1" s="11" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="BT1" s="11" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="BU1" s="11" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="BV1" s="11" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="BW1" s="11" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="BX1" s="11" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="BY1" s="11" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="BZ1" s="11" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="CA1" s="11" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="CB1" s="11" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="CC1" s="11" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="CD1" s="11" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="CE1" s="11" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="CF1" s="11" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="CG1" s="11" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="CH1" s="11" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="CI1" s="11" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="CJ1" s="11" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="CK1" s="11" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="CL1" s="11" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="CM1" s="11" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="CN1" s="11" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="CO1" s="11" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="CP1" s="11" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="CQ1" s="11" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="CR1" s="11" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="CS1" s="11" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="CT1" s="11" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="CU1" s="11" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="CV1" s="11" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="CW1" s="11" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="CX1" s="11" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="CY1" s="11" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="CZ1" s="11" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="DA1" s="11" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="DB1" s="11" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="DC1" s="11" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="DD1" s="11" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="DE1" s="11" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="DF1" s="11" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="DG1" s="11" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="DH1" s="11" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="DI1" s="11" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="DJ1" s="11" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="DK1" s="11" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="DL1" s="11" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="DM1" s="11" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="DN1" s="33" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="DO1" s="11" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="DP1" s="11" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="DQ1" s="11" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="DR1" s="11" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="DS1" s="11" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="DT1" s="11" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="DU1" s="11" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="DV1" s="11" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="DW1" s="11" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="DX1" s="11" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="DY1" s="11" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="DZ1" s="11" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="EA1" s="11" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="EB1" s="11" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="EC1" s="11" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="ED1" s="11" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="EE1" s="11" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="EF1" s="11" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="EG1" s="11" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="EH1" s="11" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="EI1" s="11" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="EJ1" s="11" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="EK1" s="11" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="EL1" s="11" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
     </row>
     <row r="2" spans="1:142" s="78" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="78" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="E2" s="78" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="F2" s="78" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="G2" s="78" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="H2" s="78" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="I2" s="78" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="J2" s="78" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="K2" s="78" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="L2" s="59" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="M2" s="59" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="N2" s="59" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="O2" s="60" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="P2" s="60" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q2" s="60" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="R2" s="60" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="S2" s="60" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="T2" s="60" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="U2" s="59" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="V2" s="78" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="W2" s="78" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="X2" s="60" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="Y2" s="59" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="Z2" s="78" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="AA2" s="78" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AB2" s="78" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="AC2" s="78" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="AD2" s="60" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="AE2" s="60" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="AF2" s="60" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="AG2" s="60" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="AH2" s="60" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="AI2" s="60" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="AJ2" s="60" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="AK2" s="60" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="AL2" s="60" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="AM2" s="60" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="AN2" s="60" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="AO2" s="60" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="AP2" s="60" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="AQ2" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR2" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="AS2" s="60" t="s">
+        <v>951</v>
+      </c>
+      <c r="AT2" s="60" t="s">
+        <v>952</v>
+      </c>
+      <c r="AU2" s="60" t="s">
+        <v>953</v>
+      </c>
+      <c r="AV2" s="60" t="s">
+        <v>954</v>
+      </c>
+      <c r="AW2" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="AX2" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="AY2" s="60" t="s">
+        <v>953</v>
+      </c>
+      <c r="AZ2" s="60" t="s">
+        <v>955</v>
+      </c>
+      <c r="BA2" s="60" t="s">
+        <v>956</v>
+      </c>
+      <c r="BB2" s="60" t="s">
+        <v>957</v>
+      </c>
+      <c r="BC2" s="60" t="s">
+        <v>958</v>
+      </c>
+      <c r="BD2" s="60" t="s">
+        <v>958</v>
+      </c>
+      <c r="BE2" s="60" t="s">
+        <v>959</v>
+      </c>
+      <c r="BF2" s="60" t="s">
+        <v>960</v>
+      </c>
+      <c r="BG2" s="60" t="s">
+        <v>961</v>
+      </c>
+      <c r="BH2" s="60" t="s">
+        <v>962</v>
+      </c>
+      <c r="BI2" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="BJ2" s="60" t="s">
+        <v>963</v>
+      </c>
+      <c r="BK2" s="60" t="s">
+        <v>955</v>
+      </c>
+      <c r="BL2" s="60" t="s">
+        <v>964</v>
+      </c>
+      <c r="BM2" s="60" t="s">
+        <v>965</v>
+      </c>
+      <c r="BN2" s="60" t="s">
+        <v>966</v>
+      </c>
+      <c r="BO2" s="60" t="s">
+        <v>967</v>
+      </c>
+      <c r="BP2" s="60" t="s">
+        <v>968</v>
+      </c>
+      <c r="BQ2" s="60" t="s">
+        <v>969</v>
+      </c>
+      <c r="BR2" s="60" t="s">
+        <v>474</v>
+      </c>
+      <c r="BS2" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="BT2" s="22" t="s">
+        <v>970</v>
+      </c>
+      <c r="BU2" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="BV2" s="60" t="s">
+        <v>963</v>
+      </c>
+      <c r="BW2" s="60" t="s">
+        <v>971</v>
+      </c>
+      <c r="BX2" s="60" t="s">
+        <v>972</v>
+      </c>
+      <c r="BY2" s="60" t="s">
+        <v>973</v>
+      </c>
+      <c r="BZ2" s="22" t="s">
+        <v>974</v>
+      </c>
+      <c r="CA2" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="AR2" s="60" t="s">
-        <v>166</v>
-      </c>
-      <c r="AS2" s="60" t="s">
-        <v>948</v>
-      </c>
-      <c r="AT2" s="60" t="s">
-        <v>949</v>
-      </c>
-      <c r="AU2" s="60" t="s">
-        <v>950</v>
-      </c>
-      <c r="AV2" s="60" t="s">
-        <v>951</v>
-      </c>
-      <c r="AW2" s="60" t="s">
-        <v>169</v>
-      </c>
-      <c r="AX2" s="60" t="s">
-        <v>280</v>
-      </c>
-      <c r="AY2" s="60" t="s">
-        <v>950</v>
-      </c>
-      <c r="AZ2" s="60" t="s">
-        <v>952</v>
-      </c>
-      <c r="BA2" s="60" t="s">
-        <v>953</v>
-      </c>
-      <c r="BB2" s="60" t="s">
-        <v>954</v>
-      </c>
-      <c r="BC2" s="60" t="s">
-        <v>955</v>
-      </c>
-      <c r="BD2" s="60" t="s">
-        <v>955</v>
-      </c>
-      <c r="BE2" s="60" t="s">
-        <v>956</v>
-      </c>
-      <c r="BF2" s="60" t="s">
-        <v>957</v>
-      </c>
-      <c r="BG2" s="60" t="s">
-        <v>958</v>
-      </c>
-      <c r="BH2" s="60" t="s">
-        <v>959</v>
-      </c>
-      <c r="BI2" s="60" t="s">
-        <v>220</v>
-      </c>
-      <c r="BJ2" s="60" t="s">
-        <v>960</v>
-      </c>
-      <c r="BK2" s="60" t="s">
-        <v>952</v>
-      </c>
-      <c r="BL2" s="60" t="s">
-        <v>961</v>
-      </c>
-      <c r="BM2" s="60" t="s">
-        <v>962</v>
-      </c>
-      <c r="BN2" s="60" t="s">
-        <v>963</v>
-      </c>
-      <c r="BO2" s="60" t="s">
-        <v>964</v>
-      </c>
-      <c r="BP2" s="60" t="s">
-        <v>965</v>
-      </c>
-      <c r="BQ2" s="60" t="s">
-        <v>966</v>
-      </c>
-      <c r="BR2" s="60" t="s">
-        <v>471</v>
-      </c>
-      <c r="BS2" s="22" t="s">
-        <v>416</v>
-      </c>
-      <c r="BT2" s="22" t="s">
+      <c r="CB2" s="22" t="s">
+        <v>975</v>
+      </c>
+      <c r="CC2" s="60" t="s">
+        <v>976</v>
+      </c>
+      <c r="CD2" s="60" t="s">
+        <v>977</v>
+      </c>
+      <c r="CE2" s="60" t="s">
+        <v>978</v>
+      </c>
+      <c r="CF2" s="60" t="s">
+        <v>979</v>
+      </c>
+      <c r="CG2" s="59" t="s">
+        <v>980</v>
+      </c>
+      <c r="CH2" s="78" t="s">
+        <v>981</v>
+      </c>
+      <c r="CI2" s="22" t="s">
+        <v>975</v>
+      </c>
+      <c r="CJ2" s="22" t="s">
+        <v>982</v>
+      </c>
+      <c r="CK2" s="22" t="s">
+        <v>983</v>
+      </c>
+      <c r="CL2" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="CM2" s="22" t="s">
+        <v>975</v>
+      </c>
+      <c r="CN2" s="60" t="s">
+        <v>984</v>
+      </c>
+      <c r="CO2" s="60" t="s">
+        <v>985</v>
+      </c>
+      <c r="CP2" s="60" t="s">
+        <v>986</v>
+      </c>
+      <c r="CQ2" s="60" t="s">
         <v>967</v>
       </c>
-      <c r="BU2" s="60" t="s">
-        <v>220</v>
-      </c>
-      <c r="BV2" s="60" t="s">
-        <v>960</v>
-      </c>
-      <c r="BW2" s="60" t="s">
-        <v>968</v>
-      </c>
-      <c r="BX2" s="60" t="s">
-        <v>969</v>
-      </c>
-      <c r="BY2" s="60" t="s">
-        <v>970</v>
-      </c>
-      <c r="BZ2" s="22" t="s">
-        <v>971</v>
-      </c>
-      <c r="CA2" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="CB2" s="22" t="s">
-        <v>972</v>
-      </c>
-      <c r="CC2" s="60" t="s">
-        <v>973</v>
-      </c>
-      <c r="CD2" s="60" t="s">
-        <v>974</v>
-      </c>
-      <c r="CE2" s="60" t="s">
-        <v>975</v>
-      </c>
-      <c r="CF2" s="60" t="s">
-        <v>976</v>
-      </c>
-      <c r="CG2" s="59" t="s">
+      <c r="CR2" s="60" t="s">
         <v>977</v>
       </c>
-      <c r="CH2" s="78" t="s">
-        <v>978</v>
-      </c>
-      <c r="CI2" s="22" t="s">
-        <v>972</v>
-      </c>
-      <c r="CJ2" s="22" t="s">
-        <v>979</v>
-      </c>
-      <c r="CK2" s="22" t="s">
-        <v>980</v>
-      </c>
-      <c r="CL2" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="CM2" s="22" t="s">
-        <v>972</v>
-      </c>
-      <c r="CN2" s="60" t="s">
-        <v>981</v>
-      </c>
-      <c r="CO2" s="60" t="s">
-        <v>982</v>
-      </c>
-      <c r="CP2" s="60" t="s">
-        <v>983</v>
-      </c>
-      <c r="CQ2" s="60" t="s">
-        <v>964</v>
-      </c>
-      <c r="CR2" s="60" t="s">
-        <v>974</v>
-      </c>
       <c r="CS2" s="60" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="CT2" s="60" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="CU2" s="60" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="CV2" s="60" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="CW2" s="60" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="CX2" s="60" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="CY2" s="60" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="CZ2" s="60" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="DA2" s="60" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="DB2" s="60" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="DC2" s="60" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="DD2" s="60" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="DE2" s="60" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="DF2" s="55" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="DG2" s="60" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="DH2" s="22" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="DI2" s="22" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="DJ2" s="22" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="DK2" s="22" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="DL2" s="22"/>
       <c r="DM2" s="22"/>
       <c r="DN2" s="22" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="DO2" s="22" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="DP2" s="22" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="DQ2" s="22" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="DR2" s="22" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="DS2" s="22" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="DT2" s="22" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="DU2" s="22" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="DV2" s="56" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="DW2" s="22" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="DX2" s="22" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="DY2" s="22" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="DZ2" s="22" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="EA2" s="22" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="EB2" s="22" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="EC2" s="22" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="ED2" s="22" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="EE2" s="22" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="EF2" s="22" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="EG2" s="22" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="EH2" s="22" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="EI2" s="22" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="EJ2" s="22" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="EK2" s="22" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="EL2" s="22" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
     </row>
   </sheetData>
@@ -7491,7 +7535,7 @@
   </sheetPr>
   <dimension ref="A1:EQ2"/>
   <sheetViews>
-    <sheetView topLeftCell="DO1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="DO1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="EP1" sqref="EP1:EP2"/>
     </sheetView>
   </sheetViews>
@@ -7590,878 +7634,878 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="AT1" s="2" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="AU1" s="2" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="AV1" s="2" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="AW1" s="2" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="AX1" s="2" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="AY1" s="2" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="AZ1" s="2" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="BA1" s="2" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="BB1" s="2" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="BC1" s="2" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="BD1" s="2" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="BE1" s="2" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="BF1" s="2" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="BG1" s="2" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="BH1" s="2" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="BI1" s="2" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="BJ1" s="2" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="BK1" s="2" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="BL1" s="2" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="BM1" s="2" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="BN1" s="2" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="BO1" s="57" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="BP1" s="2" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="BQ1" s="2" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="BR1" s="2" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="BS1" s="2" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="BT1" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="BU1" s="2" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="BV1" s="2" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="BW1" s="2" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="BX1" s="2" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="BY1" s="2" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="BZ1" s="2" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="CA1" s="2" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="CB1" s="2" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="CC1" s="2" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="CD1" s="2" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="CE1" s="2" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="CF1" s="2" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="CG1" s="2" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="CH1" s="2" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="CI1" s="2" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="CJ1" s="2" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="CK1" s="2" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="CL1" s="2" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="CM1" s="2" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="CN1" s="2" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="CO1" s="2" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="CP1" s="2" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="CQ1" s="2" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="CR1" s="2" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="CS1" s="2" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="CT1" s="2" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="CU1" s="2" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="CV1" s="2" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="CW1" s="2" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="CX1" s="2" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="CY1" s="2" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="CZ1" s="2" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="DA1" s="2" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="DB1" s="2" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="DC1" s="2" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="DD1" s="2" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="DE1" s="2" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="DF1" s="2" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="DG1" s="2" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="DH1" s="2" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="DI1" s="2" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="DJ1" s="2" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="DK1" s="2" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="DL1" s="2" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="DM1" s="2" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="DN1" s="2" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="DP1" s="2" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="DQ1" s="2" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="DR1" s="2" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="DS1" s="2" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="DT1" s="2" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="DU1" s="2" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="DV1" s="2" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="DW1" s="2" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="DX1" s="2" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="DY1" s="2" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="DZ1" s="2" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="EA1" s="2" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="EB1" s="2" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="EC1" s="2" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="ED1" s="2" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="EE1" s="2" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="EF1" s="2" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="EG1" s="2" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="EH1" s="2" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="EI1" s="2" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="EJ1" s="2" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="EK1" s="2" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="EL1" s="2" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="EM1" s="2" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="EN1" s="79" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="EO1" s="79" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="EP1" s="79" t="s">
-        <v>1013</v>
+        <v>157</v>
       </c>
       <c r="EQ1" s="79" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="2" spans="1:147" s="78" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="78" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="E2" s="78" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="F2" s="78" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="G2" s="78" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="H2" s="78" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="I2" s="78" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="J2" s="78" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="K2" s="78" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="L2" s="78" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="M2" s="59" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N2" s="59" t="s">
+        <v>422</v>
+      </c>
+      <c r="O2" s="59" t="s">
+        <v>500</v>
+      </c>
+      <c r="P2" s="60" t="s">
+        <v>935</v>
+      </c>
+      <c r="Q2" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="R2" s="60" t="s">
+        <v>936</v>
+      </c>
+      <c r="S2" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="T2" s="60" t="s">
+        <v>937</v>
+      </c>
+      <c r="U2" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="V2" s="59" t="s">
+        <v>1017</v>
+      </c>
+      <c r="W2" s="78" t="s">
+        <v>939</v>
+      </c>
+      <c r="X2" s="78" t="s">
+        <v>940</v>
+      </c>
+      <c r="Y2" s="60" t="s">
+        <v>941</v>
+      </c>
+      <c r="Z2" s="59" t="s">
+        <v>1018</v>
+      </c>
+      <c r="AA2" s="78" t="s">
+        <v>943</v>
+      </c>
+      <c r="AB2" s="78" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC2" s="78" t="s">
+        <v>944</v>
+      </c>
+      <c r="AD2" s="78" t="s">
+        <v>945</v>
+      </c>
+      <c r="AE2" s="60" t="s">
+        <v>511</v>
+      </c>
+      <c r="AF2" s="60" t="s">
+        <v>512</v>
+      </c>
+      <c r="AG2" s="60" t="s">
+        <v>515</v>
+      </c>
+      <c r="AH2" s="60" t="s">
+        <v>501</v>
+      </c>
+      <c r="AI2" s="60" t="s">
+        <v>501</v>
+      </c>
+      <c r="AJ2" s="60" t="s">
+        <v>946</v>
+      </c>
+      <c r="AK2" s="60" t="s">
+        <v>516</v>
+      </c>
+      <c r="AL2" s="60" t="s">
+        <v>510</v>
+      </c>
+      <c r="AM2" s="60" t="s">
+        <v>947</v>
+      </c>
+      <c r="AN2" s="60" t="s">
+        <v>948</v>
+      </c>
+      <c r="AO2" s="60" t="s">
+        <v>435</v>
+      </c>
+      <c r="AP2" s="60" t="s">
+        <v>949</v>
+      </c>
+      <c r="AQ2" s="60" t="s">
+        <v>950</v>
+      </c>
+      <c r="AR2" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS2" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="AT2" s="60" t="s">
+        <v>951</v>
+      </c>
+      <c r="AU2" s="60" t="s">
+        <v>952</v>
+      </c>
+      <c r="AV2" s="60" t="s">
+        <v>953</v>
+      </c>
+      <c r="AW2" s="60" t="s">
+        <v>954</v>
+      </c>
+      <c r="AX2" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="AY2" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="AZ2" s="60" t="s">
+        <v>953</v>
+      </c>
+      <c r="BA2" s="60" t="s">
+        <v>955</v>
+      </c>
+      <c r="BB2" s="60" t="s">
+        <v>956</v>
+      </c>
+      <c r="BC2" s="60" t="s">
+        <v>957</v>
+      </c>
+      <c r="BD2" s="60" t="s">
+        <v>958</v>
+      </c>
+      <c r="BE2" s="60" t="s">
+        <v>958</v>
+      </c>
+      <c r="BF2" s="60" t="s">
+        <v>959</v>
+      </c>
+      <c r="BG2" s="60" t="s">
+        <v>960</v>
+      </c>
+      <c r="BH2" s="60" t="s">
+        <v>961</v>
+      </c>
+      <c r="BI2" s="60" t="s">
+        <v>962</v>
+      </c>
+      <c r="BJ2" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="BK2" s="60" t="s">
+        <v>963</v>
+      </c>
+      <c r="BL2" s="60" t="s">
+        <v>955</v>
+      </c>
+      <c r="BM2" s="60" t="s">
+        <v>964</v>
+      </c>
+      <c r="BN2" s="60" t="s">
+        <v>965</v>
+      </c>
+      <c r="BO2" s="60" t="s">
+        <v>966</v>
+      </c>
+      <c r="BP2" s="60" t="s">
+        <v>967</v>
+      </c>
+      <c r="BQ2" s="60" t="s">
+        <v>968</v>
+      </c>
+      <c r="BR2" s="60" t="s">
+        <v>969</v>
+      </c>
+      <c r="BS2" s="60" t="s">
+        <v>474</v>
+      </c>
+      <c r="BT2" s="22" t="s">
         <v>419</v>
       </c>
-      <c r="O2" s="59" t="s">
-        <v>497</v>
-      </c>
-      <c r="P2" s="60" t="s">
-        <v>932</v>
-      </c>
-      <c r="Q2" s="60" t="s">
-        <v>205</v>
-      </c>
-      <c r="R2" s="60" t="s">
-        <v>933</v>
-      </c>
-      <c r="S2" s="60" t="s">
-        <v>205</v>
-      </c>
-      <c r="T2" s="60" t="s">
-        <v>934</v>
-      </c>
-      <c r="U2" s="60" t="s">
-        <v>205</v>
-      </c>
-      <c r="V2" s="59" t="s">
-        <v>1015</v>
-      </c>
-      <c r="W2" s="78" t="s">
-        <v>936</v>
-      </c>
-      <c r="X2" s="78" t="s">
-        <v>937</v>
-      </c>
-      <c r="Y2" s="60" t="s">
-        <v>938</v>
-      </c>
-      <c r="Z2" s="59" t="s">
-        <v>1016</v>
-      </c>
-      <c r="AA2" s="78" t="s">
-        <v>940</v>
-      </c>
-      <c r="AB2" s="78" t="s">
-        <v>164</v>
-      </c>
-      <c r="AC2" s="78" t="s">
-        <v>941</v>
-      </c>
-      <c r="AD2" s="78" t="s">
-        <v>942</v>
-      </c>
-      <c r="AE2" s="60" t="s">
-        <v>508</v>
-      </c>
-      <c r="AF2" s="60" t="s">
-        <v>509</v>
-      </c>
-      <c r="AG2" s="60" t="s">
-        <v>512</v>
-      </c>
-      <c r="AH2" s="60" t="s">
-        <v>498</v>
-      </c>
-      <c r="AI2" s="60" t="s">
-        <v>498</v>
-      </c>
-      <c r="AJ2" s="60" t="s">
-        <v>943</v>
-      </c>
-      <c r="AK2" s="60" t="s">
-        <v>513</v>
-      </c>
-      <c r="AL2" s="60" t="s">
-        <v>507</v>
-      </c>
-      <c r="AM2" s="60" t="s">
-        <v>944</v>
-      </c>
-      <c r="AN2" s="60" t="s">
-        <v>945</v>
-      </c>
-      <c r="AO2" s="60" t="s">
-        <v>432</v>
-      </c>
-      <c r="AP2" s="60" t="s">
-        <v>946</v>
-      </c>
-      <c r="AQ2" s="60" t="s">
-        <v>947</v>
-      </c>
-      <c r="AR2" s="60" t="s">
+      <c r="BU2" s="22" t="s">
+        <v>970</v>
+      </c>
+      <c r="BV2" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="BW2" s="60" t="s">
+        <v>963</v>
+      </c>
+      <c r="BX2" s="60" t="s">
+        <v>971</v>
+      </c>
+      <c r="BY2" s="60" t="s">
+        <v>972</v>
+      </c>
+      <c r="BZ2" s="60" t="s">
+        <v>973</v>
+      </c>
+      <c r="CA2" s="22" t="s">
+        <v>974</v>
+      </c>
+      <c r="CB2" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="AS2" s="60" t="s">
-        <v>166</v>
-      </c>
-      <c r="AT2" s="60" t="s">
-        <v>948</v>
-      </c>
-      <c r="AU2" s="60" t="s">
-        <v>949</v>
-      </c>
-      <c r="AV2" s="60" t="s">
-        <v>950</v>
-      </c>
-      <c r="AW2" s="60" t="s">
-        <v>951</v>
-      </c>
-      <c r="AX2" s="60" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY2" s="60" t="s">
-        <v>280</v>
-      </c>
-      <c r="AZ2" s="60" t="s">
-        <v>950</v>
-      </c>
-      <c r="BA2" s="60" t="s">
-        <v>952</v>
-      </c>
-      <c r="BB2" s="60" t="s">
-        <v>953</v>
-      </c>
-      <c r="BC2" s="60" t="s">
-        <v>954</v>
-      </c>
-      <c r="BD2" s="60" t="s">
-        <v>955</v>
-      </c>
-      <c r="BE2" s="60" t="s">
-        <v>955</v>
-      </c>
-      <c r="BF2" s="60" t="s">
-        <v>956</v>
-      </c>
-      <c r="BG2" s="60" t="s">
-        <v>957</v>
-      </c>
-      <c r="BH2" s="60" t="s">
-        <v>958</v>
-      </c>
-      <c r="BI2" s="60" t="s">
-        <v>959</v>
-      </c>
-      <c r="BJ2" s="60" t="s">
-        <v>220</v>
-      </c>
-      <c r="BK2" s="60" t="s">
-        <v>960</v>
-      </c>
-      <c r="BL2" s="60" t="s">
-        <v>952</v>
-      </c>
-      <c r="BM2" s="60" t="s">
-        <v>961</v>
-      </c>
-      <c r="BN2" s="60" t="s">
-        <v>962</v>
-      </c>
-      <c r="BO2" s="60" t="s">
-        <v>963</v>
-      </c>
-      <c r="BP2" s="60" t="s">
-        <v>964</v>
-      </c>
-      <c r="BQ2" s="60" t="s">
-        <v>965</v>
-      </c>
-      <c r="BR2" s="60" t="s">
-        <v>966</v>
-      </c>
-      <c r="BS2" s="60" t="s">
-        <v>471</v>
-      </c>
-      <c r="BT2" s="22" t="s">
-        <v>416</v>
-      </c>
-      <c r="BU2" s="22" t="s">
+      <c r="CC2" s="22" t="s">
+        <v>975</v>
+      </c>
+      <c r="CD2" s="60" t="s">
+        <v>976</v>
+      </c>
+      <c r="CE2" s="60" t="s">
+        <v>977</v>
+      </c>
+      <c r="CF2" s="60" t="s">
+        <v>978</v>
+      </c>
+      <c r="CG2" s="60" t="s">
+        <v>979</v>
+      </c>
+      <c r="CH2" s="59" t="s">
+        <v>1019</v>
+      </c>
+      <c r="CI2" s="78" t="s">
+        <v>981</v>
+      </c>
+      <c r="CJ2" s="22" t="s">
+        <v>975</v>
+      </c>
+      <c r="CK2" s="22" t="s">
+        <v>982</v>
+      </c>
+      <c r="CL2" s="22" t="s">
+        <v>983</v>
+      </c>
+      <c r="CM2" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="CN2" s="22" t="s">
+        <v>975</v>
+      </c>
+      <c r="CO2" s="60" t="s">
+        <v>984</v>
+      </c>
+      <c r="CP2" s="60" t="s">
+        <v>985</v>
+      </c>
+      <c r="CQ2" s="60" t="s">
+        <v>986</v>
+      </c>
+      <c r="CR2" s="60" t="s">
         <v>967</v>
       </c>
-      <c r="BV2" s="60" t="s">
-        <v>220</v>
-      </c>
-      <c r="BW2" s="60" t="s">
-        <v>960</v>
-      </c>
-      <c r="BX2" s="60" t="s">
-        <v>968</v>
-      </c>
-      <c r="BY2" s="60" t="s">
-        <v>969</v>
-      </c>
-      <c r="BZ2" s="60" t="s">
-        <v>970</v>
-      </c>
-      <c r="CA2" s="22" t="s">
-        <v>971</v>
-      </c>
-      <c r="CB2" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="CC2" s="22" t="s">
-        <v>972</v>
-      </c>
-      <c r="CD2" s="60" t="s">
-        <v>973</v>
-      </c>
-      <c r="CE2" s="60" t="s">
-        <v>974</v>
-      </c>
-      <c r="CF2" s="60" t="s">
-        <v>975</v>
-      </c>
-      <c r="CG2" s="60" t="s">
-        <v>976</v>
-      </c>
-      <c r="CH2" s="59" t="s">
-        <v>1017</v>
-      </c>
-      <c r="CI2" s="78" t="s">
-        <v>978</v>
-      </c>
-      <c r="CJ2" s="22" t="s">
-        <v>972</v>
-      </c>
-      <c r="CK2" s="22" t="s">
-        <v>979</v>
-      </c>
-      <c r="CL2" s="22" t="s">
-        <v>980</v>
-      </c>
-      <c r="CM2" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="CN2" s="22" t="s">
-        <v>972</v>
-      </c>
-      <c r="CO2" s="60" t="s">
-        <v>981</v>
-      </c>
-      <c r="CP2" s="60" t="s">
-        <v>982</v>
-      </c>
-      <c r="CQ2" s="60" t="s">
-        <v>983</v>
-      </c>
-      <c r="CR2" s="60" t="s">
-        <v>964</v>
-      </c>
       <c r="CS2" s="60" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="CT2" s="60" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="CU2" s="60" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="CV2" s="60" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="CW2" s="60" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="CX2" s="60" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="CY2" s="60" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="CZ2" s="60" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="DA2" s="60" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="DB2" s="60" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="DC2" s="60" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="DD2" s="60" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="DE2" s="60" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="DF2" s="60" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="DG2" s="55" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="DH2" s="60" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="DI2" s="22" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="DJ2" s="22" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="DK2" s="22" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="DL2" s="22" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="DM2" s="22"/>
       <c r="DN2" s="22"/>
       <c r="DO2" s="22" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="DP2" s="22" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="DQ2" s="22" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="DR2" s="22" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="DS2" s="22" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="DT2" s="22" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="DU2" s="22" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="DV2" s="22" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="DW2" s="56" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="DX2" s="22" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="DY2" s="22" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="DZ2" s="22" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="EA2" s="22" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="EB2" s="22" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="EC2" s="22" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="ED2" s="22" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="EE2" s="22" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="EF2" s="22" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="EG2" s="22" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="EH2" s="22" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="EI2" s="22" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="EJ2" s="22" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="EK2" s="22" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="EL2" s="22" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="EM2" s="22" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="EN2" s="78" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="EO2" s="78" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="EP2" s="78" t="s">
-        <v>1018</v>
+        <v>229</v>
       </c>
       <c r="EQ2" s="78" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
   </sheetData>
@@ -8476,13 +8520,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AZ2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AV2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL1" sqref="AL1"/>
+      <selection pane="bottomRight" activeCell="AZ1" sqref="AZ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8537,7 +8581,7 @@
     <col min="51" max="51" width="27.28515625" style="76" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="14" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" s="14" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -8545,13 +8589,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>5</v>
@@ -8560,230 +8604,236 @@
         <v>7</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P1" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB1" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC1" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="AD1" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="Q1" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="X1" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="Y1" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z1" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA1" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="AB1" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="AC1" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="AD1" s="14" t="s">
-        <v>240</v>
-      </c>
       <c r="AE1" s="14" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AF1" s="14" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AG1" s="14" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AH1" s="14" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AI1" s="13" t="s">
         <v>14</v>
       </c>
       <c r="AJ1" s="13" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AK1" s="14" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AL1" s="14" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AM1" s="14" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AN1" s="14" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AO1" s="14" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AP1" s="14" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AQ1" s="14" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AR1" s="14" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AS1" s="14" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AT1" s="14" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AU1" s="14" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AV1" s="14" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AW1" s="14" t="s">
         <v>155</v>
       </c>
       <c r="AX1" s="14" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AY1" s="14" t="s">
-        <v>274</v>
+        <v>276</v>
+      </c>
+      <c r="AZ1" s="14" t="s">
+        <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:52" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G2" s="59" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L2" s="59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P2" s="59" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="Q2" s="17" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="R2" s="59" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="S2" s="59" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="T2" s="28"/>
       <c r="U2" s="28"/>
       <c r="V2" s="28"/>
       <c r="W2" s="28"/>
       <c r="X2" s="60" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Y2" s="60" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AB2" s="60" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AC2" s="60" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AD2" s="28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AE2" s="60"/>
       <c r="AF2" s="16" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG2" s="28" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AH2" s="60" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AI2" s="78" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AJ2" s="78" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AK2" s="16" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL2" s="16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM2" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AX2" s="16" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AY2" s="16" t="s">
-        <v>281</v>
+        <v>283</v>
+      </c>
+      <c r="AZ2" s="16" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -8798,13 +8848,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BC2"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="BA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BH7" sqref="BH7"/>
+      <selection pane="bottomRight" activeCell="BD1" sqref="BD1:BD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8840,7 +8890,7 @@
     <col min="55" max="55" width="10.42578125" style="76" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="14" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" s="14" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -8851,277 +8901,283 @@
         <v>7</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N1" s="39" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O1" s="39" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="T1" s="14" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="V1" s="14" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="X1" s="14" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Z1" s="13" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AA1" s="14" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AB1" s="14" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AC1" s="14" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AD1" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AE1" s="14" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AF1" s="14" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AG1" s="14" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AH1" s="14" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AI1" s="14" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AK1" s="14" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AL1" s="14" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AM1" s="14" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AN1" s="14" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AO1" s="14" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AP1" s="14" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AQ1" s="14" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AR1" s="14" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AS1" s="14" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AT1" s="14" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AU1" s="14" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AV1" s="14" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AW1" s="14" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AX1" s="14" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AY1" s="14" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AZ1" s="14" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="BA1" s="14" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="BB1" s="14" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="BC1" s="14" t="s">
-        <v>333</v>
+        <v>335</v>
+      </c>
+      <c r="BD1" s="14" t="s">
+        <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:55" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:56" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="59" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D2" s="60" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J2" s="60" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L2" s="60" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M2" s="28" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="N2" s="28" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="O2" s="28" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="R2" s="60" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="T2" s="59" t="s">
+        <v>343</v>
+      </c>
+      <c r="V2" s="59" t="s">
+        <v>344</v>
+      </c>
+      <c r="W2" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA2" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB2" s="60" t="s">
         <v>341</v>
       </c>
-      <c r="V2" s="59" t="s">
+      <c r="AC2" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="W2" s="28" t="s">
+      <c r="AD2" s="59" t="s">
+        <v>345</v>
+      </c>
+      <c r="AE2" s="59" t="s">
+        <v>346</v>
+      </c>
+      <c r="AF2" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="AG2" s="59" t="s">
+        <v>348</v>
+      </c>
+      <c r="AJ2" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO2" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="X2" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA2" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="AB2" s="60" t="s">
-        <v>339</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="AD2" s="59" t="s">
-        <v>343</v>
-      </c>
-      <c r="AE2" s="59" t="s">
-        <v>344</v>
-      </c>
-      <c r="AF2" s="59" t="s">
-        <v>345</v>
-      </c>
-      <c r="AG2" s="59" t="s">
-        <v>346</v>
-      </c>
-      <c r="AJ2" s="28" t="s">
-        <v>347</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="AN2" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="AO2" s="5" t="s">
-        <v>190</v>
-      </c>
       <c r="AR2" s="60" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AS2" s="60"/>
       <c r="AT2" s="59" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AU2" s="59" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AV2" s="59" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AW2" s="59" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AX2" s="59" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AY2" s="59" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AZ2" s="59" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="BA2" s="59" t="s">
+        <v>353</v>
+      </c>
+      <c r="BB2" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="BB2" s="16" t="s">
-        <v>349</v>
-      </c>
       <c r="BC2" s="16" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="BD2" s="16" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -9136,10 +9192,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AC26"/>
+  <dimension ref="A1:AD26"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:T1048576"/>
+    <sheetView topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1:AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9173,7 +9229,7 @@
     <col min="29" max="29" width="30.7109375" style="59" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="52" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="52" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -9184,52 +9240,52 @@
         <v>5</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>152</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="S1" s="34" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="T1" s="11" t="s">
         <v>116</v>
@@ -9239,19 +9295,19 @@
         <v>113</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AB1" s="11" t="s">
         <v>24</v>
@@ -9259,94 +9315,100 @@
       <c r="AC1" s="11" t="s">
         <v>25</v>
       </c>
+      <c r="AD1" s="14" t="s">
+        <v>157</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D2" s="59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G2" s="60" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I2" s="62" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="J2" s="62" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K2" s="60" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M2" s="60" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="O2" s="60" t="s">
+        <v>378</v>
+      </c>
+      <c r="P2" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q2" s="60" t="s">
+        <v>380</v>
+      </c>
+      <c r="R2" s="59" t="s">
+        <v>216</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="T2" s="60" t="s">
+        <v>381</v>
+      </c>
+      <c r="V2" s="59" t="s">
+        <v>382</v>
+      </c>
+      <c r="W2" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="X2" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y2" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z2" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA2" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB2" s="59" t="s">
         <v>376</v>
       </c>
-      <c r="P2" s="60" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q2" s="60" t="s">
-        <v>378</v>
-      </c>
-      <c r="R2" s="59" t="s">
-        <v>215</v>
-      </c>
-      <c r="S2" s="22" t="s">
-        <v>375</v>
-      </c>
-      <c r="T2" s="60" t="s">
-        <v>379</v>
-      </c>
-      <c r="V2" s="59" t="s">
-        <v>277</v>
-      </c>
-      <c r="W2" s="22" t="s">
-        <v>380</v>
-      </c>
-      <c r="X2" s="22" t="s">
-        <v>381</v>
-      </c>
-      <c r="Y2" s="22" t="s">
-        <v>382</v>
-      </c>
-      <c r="Z2" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="AA2" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="AB2" s="59" t="s">
-        <v>374</v>
-      </c>
       <c r="AC2" s="59" t="s">
-        <v>221</v>
+        <v>222</v>
+      </c>
+      <c r="AD2" s="16" t="s">
+        <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
       <c r="Q3" s="22"/>
@@ -9366,10 +9428,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL17"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="AE1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM1" sqref="AM1:AM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9403,7 +9465,7 @@
     <col min="38" max="38" width="25.85546875" style="76" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="14" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" s="14" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -9411,231 +9473,237 @@
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>14</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="R1" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="X1" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y1" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="AB1" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="AC1" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="AD1" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="AE1" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="AF1" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="AG1" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="AH1" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="S1" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="T1" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="U1" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="V1" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="W1" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="X1" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="Y1" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="Z1" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="AA1" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="AB1" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="AC1" s="14" t="s">
-        <v>407</v>
-      </c>
-      <c r="AD1" s="14" t="s">
-        <v>408</v>
-      </c>
-      <c r="AE1" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="AF1" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="AG1" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="AH1" s="14" t="s">
-        <v>393</v>
-      </c>
       <c r="AI1" s="13" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="AJ1" s="13" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="AK1" s="13" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="AL1" s="14" t="s">
-        <v>415</v>
+        <v>418</v>
+      </c>
+      <c r="AM1" s="14" t="s">
+        <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="60" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="H2" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="I2" s="59" t="s">
+        <v>420</v>
+      </c>
+      <c r="J2" s="78" t="s">
+        <v>421</v>
+      </c>
+      <c r="K2" s="78" t="s">
+        <v>422</v>
+      </c>
+      <c r="L2" s="60" t="s">
+        <v>280</v>
+      </c>
+      <c r="M2" s="59" t="s">
+        <v>423</v>
+      </c>
+      <c r="N2" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="O2" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="P2" s="60" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q2" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="R2" s="59" t="s">
+        <v>279</v>
+      </c>
+      <c r="S2" s="60" t="s">
+        <v>425</v>
+      </c>
+      <c r="T2" s="60" t="s">
+        <v>426</v>
+      </c>
+      <c r="U2" s="60" t="s">
+        <v>427</v>
+      </c>
+      <c r="V2" s="60" t="s">
+        <v>428</v>
+      </c>
+      <c r="W2" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>416</v>
-      </c>
-      <c r="D2" s="59" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" s="60" t="s">
-        <v>164</v>
-      </c>
-      <c r="F2" s="59" t="s">
-        <v>163</v>
-      </c>
-      <c r="G2" s="60" t="s">
-        <v>344</v>
-      </c>
-      <c r="H2" s="59" t="s">
+      <c r="X2" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y2" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z2" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="AA2" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="AB2" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="AC2" s="60" t="s">
+        <v>433</v>
+      </c>
+      <c r="AD2" s="60" t="s">
+        <v>434</v>
+      </c>
+      <c r="AE2" s="60" t="s">
+        <v>435</v>
+      </c>
+      <c r="AF2" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG2" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="AH2" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ2" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="I2" s="59" t="s">
-        <v>417</v>
-      </c>
-      <c r="J2" s="78" t="s">
-        <v>418</v>
-      </c>
-      <c r="K2" s="78" t="s">
-        <v>419</v>
-      </c>
-      <c r="L2" s="60" t="s">
-        <v>278</v>
-      </c>
-      <c r="M2" s="59" t="s">
-        <v>420</v>
-      </c>
-      <c r="N2" s="60" t="s">
-        <v>191</v>
-      </c>
-      <c r="O2" s="60" t="s">
-        <v>164</v>
-      </c>
-      <c r="P2" s="60" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q2" s="70" t="s">
-        <v>215</v>
-      </c>
-      <c r="R2" s="59" t="s">
-        <v>277</v>
-      </c>
-      <c r="S2" s="60" t="s">
-        <v>422</v>
-      </c>
-      <c r="T2" s="60" t="s">
-        <v>423</v>
-      </c>
-      <c r="U2" s="60" t="s">
-        <v>424</v>
-      </c>
-      <c r="V2" s="60" t="s">
-        <v>425</v>
-      </c>
-      <c r="W2" s="60" t="s">
-        <v>157</v>
-      </c>
-      <c r="X2" s="22" t="s">
-        <v>426</v>
-      </c>
-      <c r="Y2" s="60" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z2" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="AA2" s="22" t="s">
-        <v>428</v>
-      </c>
-      <c r="AB2" s="22" t="s">
-        <v>429</v>
-      </c>
-      <c r="AC2" s="60" t="s">
-        <v>430</v>
-      </c>
-      <c r="AD2" s="60" t="s">
-        <v>431</v>
-      </c>
-      <c r="AE2" s="60" t="s">
-        <v>432</v>
-      </c>
-      <c r="AF2" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="AG2" s="22" t="s">
-        <v>433</v>
-      </c>
-      <c r="AH2" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="AI2" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ2" s="19" t="s">
-        <v>179</v>
-      </c>
       <c r="AK2" s="19" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="AL2" s="22" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AM2" s="16" t="s">
+        <v>229</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="G16" s="31"/>
       <c r="I16" s="32"/>
     </row>
@@ -9758,25 +9826,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>114</v>
@@ -9785,133 +9853,133 @@
         <v>115</v>
       </c>
       <c r="L1" s="79" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="M1" s="79" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="N1" s="79" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="O1" s="79" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="P1" s="79" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="R1" s="79" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="S1" s="79" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="T1" s="79" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="U1" s="79" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="V1" s="79" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="W1" s="79" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="X1" s="79" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="Y1" s="79" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="Z1" s="79" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="AA1" s="79" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="AB1" s="79" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="AC1" s="79" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="AD1" s="79" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="AE1" s="79" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="AF1" s="79" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="AG1" s="79" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="AH1" s="79" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="AI1" s="79" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="AJ1" s="79" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="AK1" s="79" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="AL1" s="79" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="AM1" s="79" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="AN1" s="79" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="AO1" s="79" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="AP1" s="79" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="AQ1" s="79" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="AR1" s="79" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="AS1" s="79" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="AT1" s="79" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="AU1" s="79" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="AV1" s="79" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="AW1" s="79" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="AX1" s="79" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="AY1" s="79" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="AZ1" s="79" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="BA1" s="79" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="BB1" s="79" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="BC1" s="79"/>
       <c r="BD1" s="79"/>
@@ -9965,166 +10033,166 @@
     </row>
     <row r="2" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A2" s="78" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D2" s="78">
         <v>8080</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="F2" s="5">
         <v>8080</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="O2" s="60" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="Q2" s="59" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="R2" s="78" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="S2" s="59" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="Y2" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="AF2" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="Z2" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="AF2" s="5" t="s">
-        <v>498</v>
-      </c>
       <c r="AG2" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="AJ2" s="80" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="AK2" s="80" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AL2" s="8" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="AM2" s="8" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="AN2" s="8" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="AO2" s="9" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="AP2" s="9" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="AQ2" s="8" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="AR2" s="8" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="AS2" s="8" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="AT2" s="5" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="AU2" s="5" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="AV2" s="78" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="AW2" s="78" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="AX2" s="78" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="AY2" s="6" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="AZ2" s="78" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="BA2" s="77" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="BB2" s="78" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -10142,7 +10210,7 @@
   <dimension ref="A1:CH2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10207,9 +10275,11 @@
         <v>7</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>525</v>
-      </c>
-      <c r="F1" s="14"/>
+        <v>528</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>157</v>
+      </c>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
@@ -10293,19 +10363,22 @@
     </row>
     <row r="2" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A2" s="59" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D2" s="59" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E2" s="64" t="s">
-        <v>526</v>
+        <v>529</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>229</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -10345,8 +10418,8 @@
   </sheetPr>
   <dimension ref="A1:EA8"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10480,58 +10553,61 @@
         <v>7</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="F1" s="63" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="T1" s="14" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="V1" s="11" t="s">
         <v>116</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="CA1" s="15"/>
       <c r="CB1" s="15"/>
@@ -10588,73 +10664,76 @@
     </row>
     <row r="2" spans="1:131" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="59" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D2" s="59" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="F2" s="64" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="G2" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="H2" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="I2" s="59" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="J2" s="59" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K2" s="78" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L2" s="64" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="N2" s="59">
         <v>100</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q2" s="60" t="s">
+        <v>550</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="S2" s="59" t="s">
+        <v>383</v>
+      </c>
+      <c r="T2" s="59" t="s">
+        <v>386</v>
+      </c>
+      <c r="U2" s="59" t="s">
         <v>547</v>
       </c>
-      <c r="R2" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="S2" s="59" t="s">
-        <v>380</v>
-      </c>
-      <c r="T2" s="59" t="s">
-        <v>383</v>
-      </c>
-      <c r="U2" s="59" t="s">
-        <v>544</v>
-      </c>
       <c r="V2" s="60" t="s">
-        <v>379</v>
+        <v>381</v>
+      </c>
+      <c r="W2" s="16" t="s">
+        <v>229</v>
       </c>
       <c r="EA2" s="59" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="3" spans="1:131" s="59" customFormat="1" x14ac:dyDescent="0.2">
@@ -10798,7 +10877,7 @@
   <dimension ref="A1:AO4"/>
   <sheetViews>
     <sheetView topLeftCell="AE1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM2" sqref="AM2"/>
+      <selection activeCell="AN1" sqref="AN1:AN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10860,225 +10939,231 @@
         <v>14</v>
       </c>
       <c r="F1" s="72" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="K1" s="72" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="L1" s="72" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="N1" s="72" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="O1" s="72" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="P1" s="72" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="Q1" s="72" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="R1" s="72" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="T1" s="15" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="V1" s="14" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="X1" s="66" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="Y1" s="66" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="Z1" s="66" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="AA1" s="66" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AB1" s="14" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="AC1" s="66" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="AD1" s="13" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="AE1" s="13" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="AF1" s="66" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="AG1" s="66" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="AH1" s="13" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="AI1" s="66" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="AJ1" s="66" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="AK1" s="63" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="AL1" s="42" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="AM1" s="42" t="s">
-        <v>359</v>
+        <v>361</v>
+      </c>
+      <c r="AN1" s="14" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:41" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B2" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>421</v>
+      </c>
+      <c r="F2" s="64" t="s">
+        <v>423</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>571</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>572</v>
+      </c>
+      <c r="I2" s="68" t="s">
+        <v>573</v>
+      </c>
+      <c r="J2" s="68" t="s">
+        <v>574</v>
+      </c>
+      <c r="K2" s="59" t="s">
+        <v>575</v>
+      </c>
+      <c r="L2" s="59" t="s">
+        <v>576</v>
+      </c>
+      <c r="M2" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="59" t="s">
-        <v>161</v>
-      </c>
-      <c r="D2" s="59" t="s">
-        <v>163</v>
-      </c>
-      <c r="E2" s="59" t="s">
-        <v>418</v>
-      </c>
-      <c r="F2" s="64" t="s">
-        <v>420</v>
-      </c>
-      <c r="G2" s="59" t="s">
-        <v>568</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>569</v>
-      </c>
-      <c r="I2" s="68" t="s">
-        <v>570</v>
-      </c>
-      <c r="J2" s="68" t="s">
-        <v>571</v>
-      </c>
-      <c r="K2" s="59" t="s">
-        <v>572</v>
-      </c>
-      <c r="L2" s="59" t="s">
-        <v>573</v>
-      </c>
-      <c r="M2" s="59" t="s">
-        <v>157</v>
-      </c>
       <c r="N2" s="19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O2" s="59" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="P2" s="59" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="Q2" s="59" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="R2" s="59" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="S2" s="59" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="T2" s="19" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="U2" s="59" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="V2" s="59" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="W2" s="59" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="X2" s="19" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="Y2" s="19" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="Z2" s="19" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="AA2" s="19" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="AB2" s="19" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="AC2" s="59" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AE2" s="19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF2" s="59" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="AG2" s="59" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AH2" s="19" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="AI2" s="20" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="AJ2" s="20" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="AK2" s="64" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="AL2" s="73">
         <v>40</v>
       </c>
       <c r="AM2" s="59" t="s">
-        <v>586</v>
+        <v>589</v>
+      </c>
+      <c r="AN2" s="16" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">

--- a/DataSet/LoanIQ_DataSet/EVG_PTYLIQ04_BaselineNonAgentSyndication.xlsx
+++ b/DataSet/LoanIQ_DataSet/EVG_PTYLIQ04_BaselineNonAgentSyndication.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u723248\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7AEC87-A32F-4556-AFB6-BD9014879D69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE6385E-0343-4AEB-A68F-F474B8178895}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="932" firstSheet="9" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="932" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRED01_DealSetup" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="1022">
   <si>
     <t>rowid</t>
   </si>
@@ -687,1011 +687,1011 @@
     <t>JCUSR01</t>
   </si>
   <si>
+    <t>COMMONWEALTH% DBU</t>
+  </si>
+  <si>
+    <t>COMMONWEALTH BANK OF AUSTRALIA - DBU</t>
+  </si>
+  <si>
+    <t>Bank Guarantee/Letter of Credit/Synd Fronted Bank</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Bloggs</t>
+  </si>
+  <si>
+    <t>Bloggs,  John</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COMMONWEALTH BANK AU-DBU</t>
+  </si>
+  <si>
+    <t>BLOGGS</t>
+  </si>
+  <si>
+    <t>LOAN</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Origination</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>ESPS11613012</t>
+  </si>
+  <si>
+    <t>ESPS11614532</t>
+  </si>
+  <si>
+    <t>ESPS11911751</t>
+  </si>
+  <si>
+    <t>ESPS11915550</t>
+  </si>
+  <si>
+    <t>NumberOfDays_ToAdd</t>
+  </si>
+  <si>
+    <t>Facility_NamePrefix</t>
+  </si>
+  <si>
+    <t>Facility2_NamePrefix</t>
+  </si>
+  <si>
+    <t>Facility2_Name</t>
+  </si>
+  <si>
+    <t>Facility_Type</t>
+  </si>
+  <si>
+    <t>Facility2_Type</t>
+  </si>
+  <si>
+    <t>Facility_ProposedCmtAmt</t>
+  </si>
+  <si>
+    <t>Facility2_ProposedCmtAmt</t>
+  </si>
+  <si>
+    <t>Facility_Currency</t>
+  </si>
+  <si>
+    <t>Facility_Customer</t>
+  </si>
+  <si>
+    <t>Facility_AgreementDate</t>
+  </si>
+  <si>
+    <t>Facility_EffectiveDate</t>
+  </si>
+  <si>
+    <t>Facility_ExpiryDate</t>
+  </si>
+  <si>
+    <t>Facility_MaturityDate</t>
+  </si>
+  <si>
+    <t>Facility2_AgreementDate</t>
+  </si>
+  <si>
+    <t>Facility2_EffectiveDate</t>
+  </si>
+  <si>
+    <t>Facility2_ExpiryDate</t>
+  </si>
+  <si>
+    <t>Facility2_MaturityDate</t>
+  </si>
+  <si>
+    <t>Facility_ServicingGroup</t>
+  </si>
+  <si>
+    <t>Facility_RiskType</t>
+  </si>
+  <si>
+    <t>Facility_RiskType2</t>
+  </si>
+  <si>
+    <t>Facility_RiskType3</t>
+  </si>
+  <si>
+    <t>Facility_RiskTypeLimit</t>
+  </si>
+  <si>
+    <t>Facility_LoanPurposeType</t>
+  </si>
+  <si>
+    <t>Facility_Currency2</t>
+  </si>
+  <si>
+    <t>Facility_GlobalLimit</t>
+  </si>
+  <si>
+    <t>Facility_CustomerServicingGroup</t>
+  </si>
+  <si>
+    <t>Facility_SGLocation</t>
+  </si>
+  <si>
+    <t>Facility_Borrower</t>
+  </si>
+  <si>
+    <t>Facility_BorrowerMaturity</t>
+  </si>
+  <si>
+    <t>Facility_BorrowerSGName</t>
+  </si>
+  <si>
+    <t>Facility_BorrowerPercent</t>
+  </si>
+  <si>
+    <t>Facility_ExpiryDate_NBD</t>
+  </si>
+  <si>
+    <t>Facility_MaturityDate_NBD</t>
+  </si>
+  <si>
+    <t>Facility_CurrencyLimit1</t>
+  </si>
+  <si>
+    <t>Facility_CurrencyLimit2</t>
+  </si>
+  <si>
+    <t>Facility_NumberOfCycle</t>
+  </si>
+  <si>
+    <t>Facility_CycleFrequency</t>
+  </si>
+  <si>
+    <t>Increase_Amount</t>
+  </si>
+  <si>
+    <t>Decrease_Amount</t>
+  </si>
+  <si>
+    <t>Borrower_LegalName</t>
+  </si>
+  <si>
+    <t>Add_To_Facility_ExpiryDate</t>
+  </si>
+  <si>
+    <t>Add_To_Facility_MaturityDate</t>
+  </si>
+  <si>
+    <t>S4REV</t>
+  </si>
+  <si>
+    <t>Revolver</t>
+  </si>
+  <si>
+    <t>03-May-2024</t>
+  </si>
+  <si>
+    <t>Loan</t>
+  </si>
+  <si>
+    <t>Working Capital</t>
+  </si>
+  <si>
+    <t>Sydney, NSW,Australia</t>
+  </si>
+  <si>
+    <t>1095</t>
+  </si>
+  <si>
+    <t>OngoingFee_Category1</t>
+  </si>
+  <si>
+    <t>OngoingFee_Category2</t>
+  </si>
+  <si>
+    <t>OngoingFee_Type1</t>
+  </si>
+  <si>
+    <t>OngoingFee_Type2</t>
+  </si>
+  <si>
+    <t>OngoingFee_Type3</t>
+  </si>
+  <si>
+    <t>OngoingFee_Type4</t>
+  </si>
+  <si>
+    <t>OngoingFee_RateBasis1</t>
+  </si>
+  <si>
+    <t>OngoingFee_RateBasis2</t>
+  </si>
+  <si>
+    <t>OngoingFee_AfterItem</t>
+  </si>
+  <si>
+    <t>OngoingFee_AfterItemType</t>
+  </si>
+  <si>
+    <t>FormulaCategory_Type1</t>
+  </si>
+  <si>
+    <t>FormulaCategory_Type2</t>
+  </si>
+  <si>
+    <t>Facility_PercentWhole</t>
+  </si>
+  <si>
+    <t>Facility_Percent</t>
+  </si>
+  <si>
+    <t>OngoingFee_SpreadType1</t>
+  </si>
+  <si>
+    <t>OngoingFee_SpreadType2</t>
+  </si>
+  <si>
+    <t>OngoingFee_SpreadAmt1</t>
+  </si>
+  <si>
+    <t>OngoingFee_SpreadAmt2</t>
+  </si>
+  <si>
+    <t>Interest_AddItem</t>
+  </si>
+  <si>
+    <t>Interest_OptionName1</t>
+  </si>
+  <si>
+    <t>Interest_OptionName2</t>
+  </si>
+  <si>
+    <t>Interest_OptionName3</t>
+  </si>
+  <si>
+    <t>Interest_OptionName4</t>
+  </si>
+  <si>
+    <t>Interest_RateBasis</t>
+  </si>
+  <si>
+    <t>Interest_SpreadType1</t>
+  </si>
+  <si>
+    <t>Interest_SpreadType2</t>
+  </si>
+  <si>
+    <t>Interest_SpreadValue1</t>
+  </si>
+  <si>
+    <t>Interest_SpreadValue2</t>
+  </si>
+  <si>
+    <t>Interest_SpreadValue3</t>
+  </si>
+  <si>
+    <t>Interest_SpreadValue4</t>
+  </si>
+  <si>
+    <t>Interest_SpreadAmt1</t>
+  </si>
+  <si>
+    <t>Interest_SpreadAmt2</t>
+  </si>
+  <si>
+    <t>Interest_BaseRateCode1</t>
+  </si>
+  <si>
+    <t>Interest_BaseRateCode2</t>
+  </si>
+  <si>
+    <t>Interest_BaseRateCode3</t>
+  </si>
+  <si>
+    <t>Interest_BaseRateCode4</t>
+  </si>
+  <si>
+    <t>Facility_PricingRuleOption1</t>
+  </si>
+  <si>
+    <t>Facility_PricingRuleOption2</t>
+  </si>
+  <si>
+    <t>Facility_PricingRuleOption3</t>
+  </si>
+  <si>
+    <t>Facility_PricingRuleOption4</t>
+  </si>
+  <si>
+    <t>Interest_FinancialRatioType1</t>
+  </si>
+  <si>
+    <t>Interest_FinancialRatioType2</t>
+  </si>
+  <si>
+    <t>FinancialRatio_Minimum1</t>
+  </si>
+  <si>
+    <t>FinancialRatio_Minimum2</t>
+  </si>
+  <si>
+    <t>FinancialRatio_Minimum3</t>
+  </si>
+  <si>
+    <t>FinancialRatio_Minimum4</t>
+  </si>
+  <si>
+    <t>FinancialRatio_Maximum1</t>
+  </si>
+  <si>
+    <t>FinancialRatio_Maximum2</t>
+  </si>
+  <si>
+    <t>FinancialRatio_Maximum3</t>
+  </si>
+  <si>
+    <t>FinancialRatio_Maximum4</t>
+  </si>
+  <si>
+    <t>Greater_Than</t>
+  </si>
+  <si>
+    <t>Less_Than</t>
+  </si>
+  <si>
+    <t>Facility Ongoing Fee</t>
+  </si>
+  <si>
+    <t>FormulaCategory</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Flat Amount</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Basis Points</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>BBSW</t>
+  </si>
+  <si>
+    <t>BBSY</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Deal_Amount</t>
+  </si>
+  <si>
+    <t>Lender_NHB</t>
+  </si>
+  <si>
+    <t>Lender_Name</t>
+  </si>
+  <si>
+    <t>LenderLocation_NHB</t>
+  </si>
+  <si>
+    <t>PercentOfDeal_NHB</t>
+  </si>
+  <si>
+    <t>PercentOfDeal_HB</t>
+  </si>
+  <si>
+    <t>ContactName_NHB</t>
+  </si>
+  <si>
+    <t>Host_Bank</t>
+  </si>
+  <si>
+    <t>LenderLocation</t>
+  </si>
+  <si>
+    <t>RiskBook</t>
+  </si>
+  <si>
+    <t>BuySellPrice</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>ContactName</t>
+  </si>
+  <si>
+    <t>TradeDate</t>
+  </si>
+  <si>
+    <t>ExpenseCode</t>
+  </si>
+  <si>
+    <t>WIPTransaction_Type</t>
+  </si>
+  <si>
+    <t>Transaction_Status_Awaiting Approval</t>
+  </si>
+  <si>
+    <t>LenderNHB_Host</t>
+  </si>
+  <si>
+    <t>Lender_Host</t>
+  </si>
+  <si>
+    <t>Lender_Type</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>NHB,  Lending</t>
+  </si>
+  <si>
+    <t>IT_COL</t>
+  </si>
+  <si>
+    <t>100.000000000000</t>
+  </si>
+  <si>
+    <t>Primaries Allocation</t>
+  </si>
+  <si>
+    <t>Business Verification,  BVT</t>
+  </si>
+  <si>
+    <t>Commonwealth Bank of Australia - DBU</t>
+  </si>
+  <si>
+    <t>Circles</t>
+  </si>
+  <si>
+    <t>Awaiting Settlement Approval</t>
+  </si>
+  <si>
+    <t>Non-Host Bank</t>
+  </si>
+  <si>
+    <t>Host Bank</t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
+    <t>Contact_Email</t>
+  </si>
+  <si>
+    <t>Facility_Spread</t>
+  </si>
+  <si>
+    <t>Facility_CurrentAvailToDraw</t>
+  </si>
+  <si>
+    <t>Facility_CurrentGlobalOutstandings</t>
+  </si>
+  <si>
+    <t>Borrower1_LegalName</t>
+  </si>
+  <si>
+    <t>Outstanding_Type</t>
+  </si>
+  <si>
+    <t>Loan_Alias</t>
+  </si>
+  <si>
+    <t>Loan_PricingOption</t>
+  </si>
+  <si>
+    <t>Loan_Currency</t>
+  </si>
+  <si>
+    <t>Loan_RequestedAmount</t>
+  </si>
+  <si>
+    <t>Loan_EffectiveDate</t>
+  </si>
+  <si>
+    <t>Loan_MaturityDate</t>
+  </si>
+  <si>
+    <t>Loan_RepricingFrequency</t>
+  </si>
+  <si>
+    <t>Loan_IntCycleFrequency</t>
+  </si>
+  <si>
+    <t>Borrower_BaseRate</t>
+  </si>
+  <si>
+    <t>Repayment_ScheduleFrequency</t>
+  </si>
+  <si>
+    <t>Repayment_NumberOfCycles</t>
+  </si>
+  <si>
+    <t>Repayment_TriggerDate</t>
+  </si>
+  <si>
+    <t>Repayment_NonBusDayRule</t>
+  </si>
+  <si>
+    <t>WIP_TransactionType</t>
+  </si>
+  <si>
+    <t>WIP_AwaitingApprovalStatus</t>
+  </si>
+  <si>
+    <t>WIP_OutstandingType</t>
+  </si>
+  <si>
+    <t>WIP_AwaitingRateApprovalStatus</t>
+  </si>
+  <si>
+    <t>WIP_AwaitingReleaseCashflowsStatus</t>
+  </si>
+  <si>
+    <t>Borrower_Profile</t>
+  </si>
+  <si>
+    <t>Remittance_Instruction</t>
+  </si>
+  <si>
+    <t>Remittance_Status</t>
+  </si>
+  <si>
+    <t>Lender_ShortName</t>
+  </si>
+  <si>
+    <t>Lender_Remittance_Instruction</t>
+  </si>
+  <si>
+    <t>Remittance_Description</t>
+  </si>
+  <si>
+    <t>Add_To_Loan_EffectiveDate</t>
+  </si>
+  <si>
+    <t>john.blogg@abc.com</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>BORROWER1111</t>
+  </si>
+  <si>
+    <t>CUSTLEGAL22127</t>
+  </si>
+  <si>
+    <t>60000394</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>07-May-2021</t>
+  </si>
+  <si>
+    <t>1 Months</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Weeks</t>
+  </si>
+  <si>
+    <t>04-Sep-2020</t>
+  </si>
+  <si>
+    <t>Outstandings</t>
+  </si>
+  <si>
+    <t>Awaiting Approval</t>
+  </si>
+  <si>
+    <t>Loan Initial Drawdown</t>
+  </si>
+  <si>
+    <t>Awaiting Rate Approval</t>
+  </si>
+  <si>
+    <t>Awaiting Release Cashflows</t>
+  </si>
+  <si>
+    <t>Borrower</t>
+  </si>
+  <si>
+    <t>DOIT</t>
+  </si>
+  <si>
+    <t>RTGS1</t>
+  </si>
+  <si>
+    <t>SSO_UserLink</t>
+  </si>
+  <si>
+    <t>SSO_Port</t>
+  </si>
+  <si>
+    <t>User_Link</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>Party_URL</t>
+  </si>
+  <si>
+    <t>User_Username</t>
+  </si>
+  <si>
+    <t>User_Password</t>
+  </si>
+  <si>
+    <t>Locality</t>
+  </si>
+  <si>
+    <t>Branch_Code</t>
+  </si>
+  <si>
+    <t>Party_Type</t>
+  </si>
+  <si>
+    <t>Party_Sub_Type</t>
+  </si>
+  <si>
+    <t>Party_Category</t>
+  </si>
+  <si>
+    <t>Enterprise_Name</t>
+  </si>
+  <si>
+    <t>Registered_Number</t>
+  </si>
+  <si>
+    <t>Party_ID</t>
+  </si>
+  <si>
+    <t>Country_of_Tax_Domicile</t>
+  </si>
+  <si>
+    <t>Date_Formed</t>
+  </si>
+  <si>
+    <t>Country_of_Registration</t>
+  </si>
+  <si>
+    <t>Business_Country</t>
+  </si>
+  <si>
+    <t>Industry_Sector</t>
+  </si>
+  <si>
+    <t>Business_Activity</t>
+  </si>
+  <si>
+    <t>Business_Focus</t>
+  </si>
+  <si>
+    <t>Business_Type</t>
+  </si>
+  <si>
+    <t>Is_Main_Activity</t>
+  </si>
+  <si>
+    <t>Is_Primary_Activity</t>
+  </si>
+  <si>
+    <t>GSTID</t>
+  </si>
+  <si>
+    <t>Address_Type</t>
+  </si>
+  <si>
+    <t>Country_Region</t>
+  </si>
+  <si>
+    <t>Post_Code</t>
+  </si>
+  <si>
+    <t>Address_Line_1</t>
+  </si>
+  <si>
+    <t>Address_Line_2</t>
+  </si>
+  <si>
+    <t>Address_Line_3</t>
+  </si>
+  <si>
+    <t>Address_Line_4</t>
+  </si>
+  <si>
+    <t>Town_City</t>
+  </si>
+  <si>
+    <t>State_Province</t>
+  </si>
+  <si>
+    <t>Email_Contact_Type</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Confirm_Email</t>
+  </si>
+  <si>
+    <t>Mobile_Contact_Type</t>
+  </si>
+  <si>
+    <t>Country_Code</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Document_Collection_Status</t>
+  </si>
+  <si>
+    <t>Selected_Module</t>
+  </si>
+  <si>
+    <t>Task_ID_from_Supervisor</t>
+  </si>
+  <si>
+    <t>Task_ID_from_User</t>
+  </si>
+  <si>
+    <t>Enterprise_Prefix</t>
+  </si>
+  <si>
+    <t>UserZone</t>
+  </si>
+  <si>
+    <t>UserBranch</t>
+  </si>
+  <si>
+    <t>GST_Number</t>
+  </si>
+  <si>
+    <t>Short_Name_Prefix</t>
+  </si>
+  <si>
+    <t>mancsleverg0028</t>
+  </si>
+  <si>
+    <t>mancsleverg0031</t>
+  </si>
+  <si>
+    <t>/uxp/rt/html/login.html</t>
+  </si>
+  <si>
+    <t>brad</t>
+  </si>
+  <si>
+    <t>welcome%4099</t>
+  </si>
+  <si>
+    <t>superit</t>
+  </si>
+  <si>
+    <t>Local Private</t>
+  </si>
+  <si>
+    <t>00000001</t>
+  </si>
+  <si>
+    <t>Enterprise</t>
+  </si>
+  <si>
+    <t>Bank, Foreign Private Company Registered with ASIC</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>1016000</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>2015-04-06</t>
+  </si>
+  <si>
+    <t>Electricity, Gas and Water Supply</t>
+  </si>
+  <si>
+    <t>Gas Supply</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>Affinity</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>10075843210</t>
+  </si>
+  <si>
+    <t>Legal Address</t>
+  </si>
+  <si>
+    <t>4061</t>
+  </si>
+  <si>
+    <t>George St.</t>
+  </si>
+  <si>
+    <t>Beverly Hills</t>
+  </si>
+  <si>
+    <t>Pimpama Qld 30</t>
+  </si>
+  <si>
+    <t>Pennyroyal 40</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>evrl3@test.com</t>
+  </si>
+  <si>
+    <t>+61</t>
+  </si>
+  <si>
+    <t>442345679</t>
+  </si>
+  <si>
+    <t>Documents not collected</t>
+  </si>
+  <si>
+    <t>Quick Party Onboarding</t>
+  </si>
+  <si>
+    <t>1164f57726c6GBld</t>
+  </si>
+  <si>
+    <t>1164f57780d0GBvY</t>
+  </si>
+  <si>
+    <t>ESPS1</t>
+  </si>
+  <si>
+    <t>67895843245</t>
+  </si>
+  <si>
+    <t>ESPS1 7120655</t>
+  </si>
+  <si>
+    <t>Maturity_Date</t>
+  </si>
+  <si>
+    <t>01-Jun-2024</t>
+  </si>
+  <si>
+    <t>Facility_Name2</t>
+  </si>
+  <si>
+    <t>New_Loan_Alias</t>
+  </si>
+  <si>
+    <t>Facility_SellAmount</t>
+  </si>
+  <si>
+    <t>Facility_SellAmount2</t>
+  </si>
+  <si>
+    <t>LenderShare_Type</t>
+  </si>
+  <si>
+    <t>Seller_Riskbook</t>
+  </si>
+  <si>
+    <t>AssignmentSell_PercentofDeal</t>
+  </si>
+  <si>
+    <t>AssignmentSell_IntFeeType</t>
+  </si>
+  <si>
+    <t>BuyandSellPrice_Percentage</t>
+  </si>
+  <si>
+    <t>AssignmentSell_ContactName</t>
+  </si>
+  <si>
+    <t>AssignmentSell_SGLender</t>
+  </si>
+  <si>
+    <t>AssignmentSell_SGAlias</t>
+  </si>
+  <si>
+    <t>AssignmentSell_CircledDate</t>
+  </si>
+  <si>
+    <t>CircleTransaction_Type</t>
+  </si>
+  <si>
+    <t>S4TRM22102020130610ZOJ</t>
+  </si>
+  <si>
+    <t>50,000,000.00</t>
+  </si>
+  <si>
+    <t>50,000.00</t>
+  </si>
+  <si>
+    <t>Assignment</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>Actual\Settlement Date</t>
+  </si>
+  <si>
+    <t>AGENCY</t>
+  </si>
+  <si>
     <t>09-Sep-2020</t>
   </si>
   <si>
-    <t>COMMONWEALTH% DBU</t>
-  </si>
-  <si>
-    <t>COMMONWEALTH BANK OF AUSTRALIA - DBU</t>
-  </si>
-  <si>
-    <t>Bank Guarantee/Letter of Credit/Synd Fronted Bank</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Bloggs</t>
-  </si>
-  <si>
-    <t>Bloggs,  John</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> COMMONWEALTH BANK AU-DBU</t>
-  </si>
-  <si>
-    <t>BLOGGS</t>
-  </si>
-  <si>
-    <t>LOAN</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Origination</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>AU</t>
-  </si>
-  <si>
-    <t>ESPS11613012</t>
-  </si>
-  <si>
-    <t>ESPS11614532</t>
-  </si>
-  <si>
-    <t>ESPS11911751</t>
-  </si>
-  <si>
-    <t>ESPS11915550</t>
-  </si>
-  <si>
-    <t>NumberOfDays_ToAdd</t>
-  </si>
-  <si>
-    <t>Facility_NamePrefix</t>
-  </si>
-  <si>
-    <t>Facility2_NamePrefix</t>
-  </si>
-  <si>
-    <t>Facility2_Name</t>
-  </si>
-  <si>
-    <t>Facility_Type</t>
-  </si>
-  <si>
-    <t>Facility2_Type</t>
-  </si>
-  <si>
-    <t>Facility_ProposedCmtAmt</t>
-  </si>
-  <si>
-    <t>Facility2_ProposedCmtAmt</t>
-  </si>
-  <si>
-    <t>Facility_Currency</t>
-  </si>
-  <si>
-    <t>Facility_Customer</t>
-  </si>
-  <si>
-    <t>Facility_AgreementDate</t>
-  </si>
-  <si>
-    <t>Facility_EffectiveDate</t>
-  </si>
-  <si>
-    <t>Facility_ExpiryDate</t>
-  </si>
-  <si>
-    <t>Facility_MaturityDate</t>
-  </si>
-  <si>
-    <t>Facility2_AgreementDate</t>
-  </si>
-  <si>
-    <t>Facility2_EffectiveDate</t>
-  </si>
-  <si>
-    <t>Facility2_ExpiryDate</t>
-  </si>
-  <si>
-    <t>Facility2_MaturityDate</t>
-  </si>
-  <si>
-    <t>Facility_ServicingGroup</t>
-  </si>
-  <si>
-    <t>Facility_RiskType</t>
-  </si>
-  <si>
-    <t>Facility_RiskType2</t>
-  </si>
-  <si>
-    <t>Facility_RiskType3</t>
-  </si>
-  <si>
-    <t>Facility_RiskTypeLimit</t>
-  </si>
-  <si>
-    <t>Facility_LoanPurposeType</t>
-  </si>
-  <si>
-    <t>Facility_Currency2</t>
-  </si>
-  <si>
-    <t>Facility_GlobalLimit</t>
-  </si>
-  <si>
-    <t>Facility_CustomerServicingGroup</t>
-  </si>
-  <si>
-    <t>Facility_SGLocation</t>
-  </si>
-  <si>
-    <t>Facility_Borrower</t>
-  </si>
-  <si>
-    <t>Facility_BorrowerMaturity</t>
-  </si>
-  <si>
-    <t>Facility_BorrowerSGName</t>
-  </si>
-  <si>
-    <t>Facility_BorrowerPercent</t>
-  </si>
-  <si>
-    <t>Facility_ExpiryDate_NBD</t>
-  </si>
-  <si>
-    <t>Facility_MaturityDate_NBD</t>
-  </si>
-  <si>
-    <t>Facility_CurrencyLimit1</t>
-  </si>
-  <si>
-    <t>Facility_CurrencyLimit2</t>
-  </si>
-  <si>
-    <t>Facility_NumberOfCycle</t>
-  </si>
-  <si>
-    <t>Facility_CycleFrequency</t>
-  </si>
-  <si>
-    <t>Increase_Amount</t>
-  </si>
-  <si>
-    <t>Decrease_Amount</t>
-  </si>
-  <si>
-    <t>Borrower_LegalName</t>
-  </si>
-  <si>
-    <t>Add_To_Facility_ExpiryDate</t>
-  </si>
-  <si>
-    <t>Add_To_Facility_MaturityDate</t>
-  </si>
-  <si>
-    <t>S4REV</t>
-  </si>
-  <si>
-    <t>Revolver</t>
-  </si>
-  <si>
-    <t>03-May-2024</t>
-  </si>
-  <si>
-    <t>Loan</t>
-  </si>
-  <si>
-    <t>Working Capital</t>
-  </si>
-  <si>
-    <t>Sydney, NSW,Australia</t>
-  </si>
-  <si>
-    <t>1095</t>
-  </si>
-  <si>
-    <t>OngoingFee_Category1</t>
-  </si>
-  <si>
-    <t>OngoingFee_Category2</t>
-  </si>
-  <si>
-    <t>OngoingFee_Type1</t>
-  </si>
-  <si>
-    <t>OngoingFee_Type2</t>
-  </si>
-  <si>
-    <t>OngoingFee_Type3</t>
-  </si>
-  <si>
-    <t>OngoingFee_Type4</t>
-  </si>
-  <si>
-    <t>OngoingFee_RateBasis1</t>
-  </si>
-  <si>
-    <t>OngoingFee_RateBasis2</t>
-  </si>
-  <si>
-    <t>OngoingFee_AfterItem</t>
-  </si>
-  <si>
-    <t>OngoingFee_AfterItemType</t>
-  </si>
-  <si>
-    <t>FormulaCategory_Type1</t>
-  </si>
-  <si>
-    <t>FormulaCategory_Type2</t>
-  </si>
-  <si>
-    <t>Facility_PercentWhole</t>
-  </si>
-  <si>
-    <t>Facility_Percent</t>
-  </si>
-  <si>
-    <t>OngoingFee_SpreadType1</t>
-  </si>
-  <si>
-    <t>OngoingFee_SpreadType2</t>
-  </si>
-  <si>
-    <t>OngoingFee_SpreadAmt1</t>
-  </si>
-  <si>
-    <t>OngoingFee_SpreadAmt2</t>
-  </si>
-  <si>
-    <t>Interest_AddItem</t>
-  </si>
-  <si>
-    <t>Interest_OptionName1</t>
-  </si>
-  <si>
-    <t>Interest_OptionName2</t>
-  </si>
-  <si>
-    <t>Interest_OptionName3</t>
-  </si>
-  <si>
-    <t>Interest_OptionName4</t>
-  </si>
-  <si>
-    <t>Interest_RateBasis</t>
-  </si>
-  <si>
-    <t>Interest_SpreadType1</t>
-  </si>
-  <si>
-    <t>Interest_SpreadType2</t>
-  </si>
-  <si>
-    <t>Interest_SpreadValue1</t>
-  </si>
-  <si>
-    <t>Interest_SpreadValue2</t>
-  </si>
-  <si>
-    <t>Interest_SpreadValue3</t>
-  </si>
-  <si>
-    <t>Interest_SpreadValue4</t>
-  </si>
-  <si>
-    <t>Interest_SpreadAmt1</t>
-  </si>
-  <si>
-    <t>Interest_SpreadAmt2</t>
-  </si>
-  <si>
-    <t>Interest_BaseRateCode1</t>
-  </si>
-  <si>
-    <t>Interest_BaseRateCode2</t>
-  </si>
-  <si>
-    <t>Interest_BaseRateCode3</t>
-  </si>
-  <si>
-    <t>Interest_BaseRateCode4</t>
-  </si>
-  <si>
-    <t>Facility_PricingRuleOption1</t>
-  </si>
-  <si>
-    <t>Facility_PricingRuleOption2</t>
-  </si>
-  <si>
-    <t>Facility_PricingRuleOption3</t>
-  </si>
-  <si>
-    <t>Facility_PricingRuleOption4</t>
-  </si>
-  <si>
-    <t>Interest_FinancialRatioType1</t>
-  </si>
-  <si>
-    <t>Interest_FinancialRatioType2</t>
-  </si>
-  <si>
-    <t>FinancialRatio_Minimum1</t>
-  </si>
-  <si>
-    <t>FinancialRatio_Minimum2</t>
-  </si>
-  <si>
-    <t>FinancialRatio_Minimum3</t>
-  </si>
-  <si>
-    <t>FinancialRatio_Minimum4</t>
-  </si>
-  <si>
-    <t>FinancialRatio_Maximum1</t>
-  </si>
-  <si>
-    <t>FinancialRatio_Maximum2</t>
-  </si>
-  <si>
-    <t>FinancialRatio_Maximum3</t>
-  </si>
-  <si>
-    <t>FinancialRatio_Maximum4</t>
-  </si>
-  <si>
-    <t>Greater_Than</t>
-  </si>
-  <si>
-    <t>Less_Than</t>
-  </si>
-  <si>
-    <t>Facility Ongoing Fee</t>
-  </si>
-  <si>
-    <t>FormulaCategory</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>Flat Amount</t>
-  </si>
-  <si>
-    <t>Percent</t>
-  </si>
-  <si>
-    <t>Basis Points</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Option</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>BBSW</t>
-  </si>
-  <si>
-    <t>BBSY</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Maximum</t>
-  </si>
-  <si>
-    <t>Deal_Amount</t>
-  </si>
-  <si>
-    <t>Lender_NHB</t>
-  </si>
-  <si>
-    <t>Lender_Name</t>
-  </si>
-  <si>
-    <t>LenderLocation_NHB</t>
-  </si>
-  <si>
-    <t>PercentOfDeal_NHB</t>
-  </si>
-  <si>
-    <t>PercentOfDeal_HB</t>
-  </si>
-  <si>
-    <t>ContactName_NHB</t>
-  </si>
-  <si>
-    <t>Host_Bank</t>
-  </si>
-  <si>
-    <t>LenderLocation</t>
-  </si>
-  <si>
-    <t>RiskBook</t>
-  </si>
-  <si>
-    <t>BuySellPrice</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>ContactName</t>
-  </si>
-  <si>
-    <t>TradeDate</t>
-  </si>
-  <si>
-    <t>ExpenseCode</t>
-  </si>
-  <si>
-    <t>WIPTransaction_Type</t>
-  </si>
-  <si>
-    <t>Transaction_Status_Awaiting Approval</t>
-  </si>
-  <si>
-    <t>LenderNHB_Host</t>
-  </si>
-  <si>
-    <t>Lender_Host</t>
-  </si>
-  <si>
-    <t>Lender_Type</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>NHB,  Lending</t>
-  </si>
-  <si>
-    <t>IT_COL</t>
-  </si>
-  <si>
-    <t>100.000000000000</t>
-  </si>
-  <si>
-    <t>Primaries Allocation</t>
-  </si>
-  <si>
-    <t>Business Verification,  BVT</t>
-  </si>
-  <si>
-    <t>Commonwealth Bank of Australia - DBU</t>
-  </si>
-  <si>
-    <t>09-Sep-2023</t>
-  </si>
-  <si>
-    <t>Circles</t>
-  </si>
-  <si>
-    <t>Awaiting Settlement Approval</t>
-  </si>
-  <si>
-    <t>Non-Host Bank</t>
-  </si>
-  <si>
-    <t>Host Bank</t>
-  </si>
-  <si>
-    <t>Primary</t>
-  </si>
-  <si>
-    <t>Contact_Email</t>
-  </si>
-  <si>
-    <t>Facility_Spread</t>
-  </si>
-  <si>
-    <t>Facility_CurrentAvailToDraw</t>
-  </si>
-  <si>
-    <t>Facility_CurrentGlobalOutstandings</t>
-  </si>
-  <si>
-    <t>Borrower1_LegalName</t>
-  </si>
-  <si>
-    <t>Outstanding_Type</t>
-  </si>
-  <si>
-    <t>Loan_Alias</t>
-  </si>
-  <si>
-    <t>Loan_PricingOption</t>
-  </si>
-  <si>
-    <t>Loan_Currency</t>
-  </si>
-  <si>
-    <t>Loan_RequestedAmount</t>
-  </si>
-  <si>
-    <t>Loan_EffectiveDate</t>
-  </si>
-  <si>
-    <t>Loan_MaturityDate</t>
-  </si>
-  <si>
-    <t>Loan_RepricingFrequency</t>
-  </si>
-  <si>
-    <t>Loan_IntCycleFrequency</t>
-  </si>
-  <si>
-    <t>Borrower_BaseRate</t>
-  </si>
-  <si>
-    <t>Repayment_ScheduleFrequency</t>
-  </si>
-  <si>
-    <t>Repayment_NumberOfCycles</t>
-  </si>
-  <si>
-    <t>Repayment_TriggerDate</t>
-  </si>
-  <si>
-    <t>Repayment_NonBusDayRule</t>
-  </si>
-  <si>
-    <t>WIP_TransactionType</t>
-  </si>
-  <si>
-    <t>WIP_AwaitingApprovalStatus</t>
-  </si>
-  <si>
-    <t>WIP_OutstandingType</t>
-  </si>
-  <si>
-    <t>WIP_AwaitingRateApprovalStatus</t>
-  </si>
-  <si>
-    <t>WIP_AwaitingReleaseCashflowsStatus</t>
-  </si>
-  <si>
-    <t>Borrower_Profile</t>
-  </si>
-  <si>
-    <t>Remittance_Instruction</t>
-  </si>
-  <si>
-    <t>Remittance_Status</t>
-  </si>
-  <si>
-    <t>Lender_ShortName</t>
-  </si>
-  <si>
-    <t>Lender_Remittance_Instruction</t>
-  </si>
-  <si>
-    <t>Remittance_Description</t>
-  </si>
-  <si>
-    <t>Add_To_Loan_EffectiveDate</t>
-  </si>
-  <si>
-    <t>john.blogg@abc.com</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>BORROWER1111</t>
-  </si>
-  <si>
-    <t>CUSTLEGAL22127</t>
-  </si>
-  <si>
-    <t>60000394</t>
-  </si>
-  <si>
-    <t>1000000</t>
-  </si>
-  <si>
-    <t>1 Months</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Weeks</t>
-  </si>
-  <si>
-    <t>04-Sep-2020</t>
-  </si>
-  <si>
-    <t>Outstandings</t>
-  </si>
-  <si>
-    <t>Awaiting Approval</t>
-  </si>
-  <si>
-    <t>Loan Initial Drawdown</t>
-  </si>
-  <si>
-    <t>Awaiting Rate Approval</t>
-  </si>
-  <si>
-    <t>Awaiting Release Cashflows</t>
-  </si>
-  <si>
-    <t>Borrower</t>
-  </si>
-  <si>
-    <t>DOIT</t>
-  </si>
-  <si>
-    <t>RTGS1</t>
-  </si>
-  <si>
-    <t>SSO_UserLink</t>
-  </si>
-  <si>
-    <t>SSO_Port</t>
-  </si>
-  <si>
-    <t>User_Link</t>
-  </si>
-  <si>
-    <t>Port</t>
-  </si>
-  <si>
-    <t>Party_URL</t>
-  </si>
-  <si>
-    <t>User_Username</t>
-  </si>
-  <si>
-    <t>User_Password</t>
-  </si>
-  <si>
-    <t>Locality</t>
-  </si>
-  <si>
-    <t>Branch_Code</t>
-  </si>
-  <si>
-    <t>Party_Type</t>
-  </si>
-  <si>
-    <t>Party_Sub_Type</t>
-  </si>
-  <si>
-    <t>Party_Category</t>
-  </si>
-  <si>
-    <t>Enterprise_Name</t>
-  </si>
-  <si>
-    <t>Registered_Number</t>
-  </si>
-  <si>
-    <t>Party_ID</t>
-  </si>
-  <si>
-    <t>Country_of_Tax_Domicile</t>
-  </si>
-  <si>
-    <t>Date_Formed</t>
-  </si>
-  <si>
-    <t>Country_of_Registration</t>
-  </si>
-  <si>
-    <t>Business_Country</t>
-  </si>
-  <si>
-    <t>Industry_Sector</t>
-  </si>
-  <si>
-    <t>Business_Activity</t>
-  </si>
-  <si>
-    <t>Business_Focus</t>
-  </si>
-  <si>
-    <t>Business_Type</t>
-  </si>
-  <si>
-    <t>Is_Main_Activity</t>
-  </si>
-  <si>
-    <t>Is_Primary_Activity</t>
-  </si>
-  <si>
-    <t>GSTID</t>
-  </si>
-  <si>
-    <t>Address_Type</t>
-  </si>
-  <si>
-    <t>Country_Region</t>
-  </si>
-  <si>
-    <t>Post_Code</t>
-  </si>
-  <si>
-    <t>Address_Line_1</t>
-  </si>
-  <si>
-    <t>Address_Line_2</t>
-  </si>
-  <si>
-    <t>Address_Line_3</t>
-  </si>
-  <si>
-    <t>Address_Line_4</t>
-  </si>
-  <si>
-    <t>Town_City</t>
-  </si>
-  <si>
-    <t>State_Province</t>
-  </si>
-  <si>
-    <t>Email_Contact_Type</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Confirm_Email</t>
-  </si>
-  <si>
-    <t>Mobile_Contact_Type</t>
-  </si>
-  <si>
-    <t>Country_Code</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Document_Collection_Status</t>
-  </si>
-  <si>
-    <t>Selected_Module</t>
-  </si>
-  <si>
-    <t>Task_ID_from_Supervisor</t>
-  </si>
-  <si>
-    <t>Task_ID_from_User</t>
-  </si>
-  <si>
-    <t>Enterprise_Prefix</t>
-  </si>
-  <si>
-    <t>UserZone</t>
-  </si>
-  <si>
-    <t>UserBranch</t>
-  </si>
-  <si>
-    <t>GST_Number</t>
-  </si>
-  <si>
-    <t>Short_Name_Prefix</t>
-  </si>
-  <si>
-    <t>mancsleverg0028</t>
-  </si>
-  <si>
-    <t>mancsleverg0031</t>
-  </si>
-  <si>
-    <t>/uxp/rt/html/login.html</t>
-  </si>
-  <si>
-    <t>brad</t>
-  </si>
-  <si>
-    <t>welcome%4099</t>
-  </si>
-  <si>
-    <t>superit</t>
-  </si>
-  <si>
-    <t>Local Private</t>
-  </si>
-  <si>
-    <t>00000001</t>
-  </si>
-  <si>
-    <t>Enterprise</t>
-  </si>
-  <si>
-    <t>Bank, Foreign Private Company Registered with ASIC</t>
-  </si>
-  <si>
-    <t>Full</t>
-  </si>
-  <si>
-    <t>1016000</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>2015-04-06</t>
-  </si>
-  <si>
-    <t>Electricity, Gas and Water Supply</t>
-  </si>
-  <si>
-    <t>Gas Supply</t>
-  </si>
-  <si>
-    <t>Both</t>
-  </si>
-  <si>
-    <t>Affinity</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>10075843210</t>
-  </si>
-  <si>
-    <t>Legal Address</t>
-  </si>
-  <si>
-    <t>4061</t>
-  </si>
-  <si>
-    <t>George St.</t>
-  </si>
-  <si>
-    <t>Beverly Hills</t>
-  </si>
-  <si>
-    <t>Pimpama Qld 30</t>
-  </si>
-  <si>
-    <t>Pennyroyal 40</t>
-  </si>
-  <si>
-    <t>Melbourne</t>
-  </si>
-  <si>
-    <t>Victoria</t>
-  </si>
-  <si>
-    <t>Work</t>
-  </si>
-  <si>
-    <t>evrl3@test.com</t>
-  </si>
-  <si>
-    <t>+61</t>
-  </si>
-  <si>
-    <t>442345679</t>
-  </si>
-  <si>
-    <t>Documents not collected</t>
-  </si>
-  <si>
-    <t>Quick Party Onboarding</t>
-  </si>
-  <si>
-    <t>1164f57726c6GBld</t>
-  </si>
-  <si>
-    <t>1164f57780d0GBvY</t>
-  </si>
-  <si>
-    <t>ESPS1</t>
-  </si>
-  <si>
-    <t>67895843245</t>
-  </si>
-  <si>
-    <t>ESPS1 7120655</t>
-  </si>
-  <si>
-    <t>Maturity_Date</t>
-  </si>
-  <si>
-    <t>01-Jun-2024</t>
-  </si>
-  <si>
-    <t>Facility_Name2</t>
-  </si>
-  <si>
-    <t>New_Loan_Alias</t>
-  </si>
-  <si>
-    <t>Facility_SellAmount</t>
-  </si>
-  <si>
-    <t>Facility_SellAmount2</t>
-  </si>
-  <si>
-    <t>LenderShare_Type</t>
-  </si>
-  <si>
-    <t>Seller_Riskbook</t>
-  </si>
-  <si>
-    <t>AssignmentSell_PercentofDeal</t>
-  </si>
-  <si>
-    <t>AssignmentSell_IntFeeType</t>
-  </si>
-  <si>
-    <t>BuyandSellPrice_Percentage</t>
-  </si>
-  <si>
-    <t>AssignmentSell_ContactName</t>
-  </si>
-  <si>
-    <t>AssignmentSell_SGLender</t>
-  </si>
-  <si>
-    <t>AssignmentSell_SGAlias</t>
-  </si>
-  <si>
-    <t>AssignmentSell_CircledDate</t>
-  </si>
-  <si>
-    <t>CircleTransaction_Type</t>
-  </si>
-  <si>
-    <t>S4TRM20082020165350HUY</t>
-  </si>
-  <si>
-    <t>50,000,000.00</t>
-  </si>
-  <si>
-    <t>50,000.00</t>
-  </si>
-  <si>
-    <t>Assignment</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>Actual\Settlement Date</t>
-  </si>
-  <si>
-    <t>AGENCY</t>
-  </si>
-  <si>
     <t>TERM_SC42533</t>
   </si>
   <si>
@@ -2130,7 +2130,10 @@
     <t>Term</t>
   </si>
   <si>
-    <t>09-Sep-2021</t>
+    <t>05-May-2021</t>
+  </si>
+  <si>
+    <t>05-May-2022</t>
   </si>
   <si>
     <t>Commonwealth Bank of Australia</t>
@@ -3739,8 +3742,8 @@
   <dimension ref="A1:FF7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="EX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="FB1" sqref="FB1:FB2"/>
+      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4631,19 +4634,19 @@
         <v>206</v>
       </c>
       <c r="DY2" s="78" t="s">
+        <v>186</v>
+      </c>
+      <c r="DZ2" s="78" t="s">
+        <v>186</v>
+      </c>
+      <c r="EA2" s="58" t="s">
         <v>216</v>
       </c>
-      <c r="DZ2" s="78" t="s">
-        <v>216</v>
-      </c>
-      <c r="EA2" s="58" t="s">
+      <c r="EB2" s="58" t="s">
         <v>217</v>
       </c>
-      <c r="EB2" s="58" t="s">
+      <c r="EC2" s="58" t="s">
         <v>218</v>
-      </c>
-      <c r="EC2" s="58" t="s">
-        <v>219</v>
       </c>
       <c r="ED2" s="58" t="s">
         <v>193</v>
@@ -4658,13 +4661,13 @@
         <v>165</v>
       </c>
       <c r="EH2" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="EI2" s="58" t="s">
         <v>220</v>
       </c>
-      <c r="EI2" s="58" t="s">
+      <c r="EJ2" s="58" t="s">
         <v>221</v>
-      </c>
-      <c r="EJ2" s="58" t="s">
-        <v>222</v>
       </c>
       <c r="EK2" s="58" t="s">
         <v>172</v>
@@ -4683,43 +4686,43 @@
         <v>171</v>
       </c>
       <c r="EQ2" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="ER2" s="58" t="s">
         <v>223</v>
       </c>
-      <c r="ER2" s="58" t="s">
-        <v>224</v>
-      </c>
       <c r="ES2" s="58" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="ET2" s="58" t="s">
         <v>180</v>
       </c>
       <c r="EU2" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="EV2" s="58" t="s">
         <v>225</v>
       </c>
-      <c r="EV2" s="58" t="s">
+      <c r="EW2" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="EW2" s="58" t="s">
+      <c r="FA2" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="FA2" s="16" t="s">
+      <c r="FB2" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="FB2" s="16" t="s">
+      <c r="FC2" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="FC2" s="59" t="s">
+      <c r="FD2" s="59" t="s">
         <v>230</v>
       </c>
-      <c r="FD2" s="59" t="s">
+      <c r="FE2" s="59" t="s">
         <v>231</v>
       </c>
-      <c r="FE2" s="59" t="s">
+      <c r="FF2" s="59" t="s">
         <v>232</v>
-      </c>
-      <c r="FF2" s="59" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:162" x14ac:dyDescent="0.25">
@@ -4847,10 +4850,10 @@
         <v>7</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1" s="21" t="s">
         <v>591</v>
@@ -4874,7 +4877,7 @@
         <v>596</v>
       </c>
       <c r="O1" s="67" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="P1" s="25" t="s">
         <v>597</v>
@@ -4883,7 +4886,7 @@
         <v>598</v>
       </c>
       <c r="R1" s="67" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="S1" s="24" t="s">
         <v>599</v>
@@ -4892,10 +4895,10 @@
         <v>600</v>
       </c>
       <c r="U1" s="21" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="V1" s="21" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="W1" s="21" t="s">
         <v>601</v>
@@ -4916,7 +4919,7 @@
         <v>606</v>
       </c>
       <c r="AC1" s="66" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AD1" s="65" t="s">
         <v>607</v>
@@ -4925,7 +4928,7 @@
         <v>608</v>
       </c>
       <c r="AF1" s="65" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AG1" s="21" t="s">
         <v>609</v>
@@ -4949,10 +4952,10 @@
         <v>615</v>
       </c>
       <c r="AN1" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AO1" s="21" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AP1" s="14" t="s">
         <v>616</v>
@@ -4978,13 +4981,13 @@
         <v>162</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E2" s="59" t="s">
         <v>164</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G2" s="64" t="s">
         <v>588</v>
@@ -5005,7 +5008,7 @@
         <v>192</v>
       </c>
       <c r="M2" s="59" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="N2" s="27" t="s">
         <v>176</v>
@@ -5020,13 +5023,13 @@
         <v>180</v>
       </c>
       <c r="R2" s="78" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="S2" s="78" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="T2" s="78" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U2" s="60" t="s">
         <v>165</v>
@@ -5038,7 +5041,7 @@
         <v>624</v>
       </c>
       <c r="X2" s="59" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="Y2" s="60" t="s">
         <v>625</v>
@@ -5059,7 +5062,7 @@
         <v>627</v>
       </c>
       <c r="AE2" s="78" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AG2" s="68" t="s">
         <v>628</v>
@@ -5081,10 +5084,10 @@
         <v>632</v>
       </c>
       <c r="AN2" s="75" t="s">
-        <v>216</v>
+        <v>423</v>
       </c>
       <c r="AO2" s="60" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AP2" s="28" t="s">
         <v>633</v>
@@ -5093,10 +5096,10 @@
         <v>10.5</v>
       </c>
       <c r="AR2" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="AS2" s="16" t="s">
         <v>228</v>
-      </c>
-      <c r="AS2" s="16" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.2">
@@ -5192,10 +5195,10 @@
         <v>639</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="M1" s="13" t="s">
         <v>640</v>
@@ -5242,7 +5245,7 @@
         <v>169</v>
       </c>
       <c r="J2" s="59" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>180</v>
@@ -5257,13 +5260,13 @@
         <v>625</v>
       </c>
       <c r="O2" s="59" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="P2" s="59" t="s">
         <v>651</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -5325,22 +5328,22 @@
         <v>14</v>
       </c>
       <c r="H1" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>411</v>
+      </c>
+      <c r="J1" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="I1" s="34" t="s">
-        <v>413</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>417</v>
-      </c>
       <c r="K1" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="N1" s="11" t="s">
         <v>567</v>
@@ -5381,25 +5384,25 @@
         <v>180</v>
       </c>
       <c r="J2" s="59" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K2" s="59" t="s">
         <v>165</v>
       </c>
       <c r="L2" s="59" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M2" s="59" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="N2" s="59">
         <v>35</v>
       </c>
       <c r="O2" s="59" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="P2" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -5495,7 +5498,7 @@
         <v>657</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G1" s="35" t="s">
         <v>658</v>
@@ -5504,7 +5507,7 @@
         <v>659</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J1" s="35" t="s">
         <v>660</v>
@@ -5513,10 +5516,10 @@
         <v>661</v>
       </c>
       <c r="L1" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="M1" s="36" t="s">
         <v>244</v>
-      </c>
-      <c r="M1" s="36" t="s">
-        <v>245</v>
       </c>
       <c r="N1" s="36" t="s">
         <v>113</v>
@@ -5558,7 +5561,7 @@
         <v>673</v>
       </c>
       <c r="AA1" s="35" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AB1" s="35" t="s">
         <v>674</v>
@@ -5612,7 +5615,7 @@
         <v>690</v>
       </c>
       <c r="AS1" s="35" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AT1" s="35" t="s">
         <v>691</v>
@@ -5624,7 +5627,7 @@
         <v>693</v>
       </c>
       <c r="AW1" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AX1" s="14" t="s">
         <v>157</v>
@@ -5641,10 +5644,10 @@
         <v>162</v>
       </c>
       <c r="D2" s="59" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F2" s="59" t="s">
         <v>694</v>
@@ -5653,7 +5656,7 @@
         <v>695</v>
       </c>
       <c r="H2" s="59" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I2" s="59" t="s">
         <v>696</v>
@@ -5665,16 +5668,16 @@
         <v>200</v>
       </c>
       <c r="L2" s="59" t="s">
-        <v>216</v>
+        <v>697</v>
       </c>
       <c r="M2" s="59" t="s">
-        <v>216</v>
+        <v>697</v>
       </c>
       <c r="N2" s="59" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="P2" s="16" t="s">
         <v>633</v>
@@ -5686,16 +5689,16 @@
         <v>158</v>
       </c>
       <c r="S2" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="T2" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="T2" s="17" t="s">
-        <v>281</v>
-      </c>
       <c r="U2" s="17" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="W2" s="17" t="s">
         <v>197</v>
@@ -5704,10 +5707,10 @@
         <v>189</v>
       </c>
       <c r="Y2" s="17" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="Z2" s="17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AA2" s="59">
         <v>5</v>
@@ -5716,7 +5719,7 @@
         <v>0.05</v>
       </c>
       <c r="AC2" s="17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AD2" s="17" t="s">
         <v>192</v>
@@ -5734,10 +5737,10 @@
         <v>2</v>
       </c>
       <c r="AI2" s="17" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AJ2" s="59" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AK2" s="38">
         <v>500000</v>
@@ -5746,13 +5749,13 @@
         <v>100</v>
       </c>
       <c r="AM2" s="59" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AN2" s="59" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AO2" s="59" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AP2" t="s">
         <v>203</v>
@@ -5764,22 +5767,22 @@
         <v>206</v>
       </c>
       <c r="AS2" s="59" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AT2" s="59" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AU2" s="59" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AV2" s="59" t="s">
         <v>583</v>
       </c>
       <c r="AW2" s="59" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AX2" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -5935,13 +5938,13 @@
         <v>14</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>157</v>
@@ -6013,16 +6016,16 @@
         <v>169</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G2" s="59" t="s">
         <v>208</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -6116,127 +6119,127 @@
         <v>7</v>
       </c>
       <c r="E1" s="48" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F1" s="48" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G1" s="48" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1" s="48" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="I1" s="48" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="J1" s="48" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="K1" s="48" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="L1" s="48" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="M1" s="48" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="N1" s="48" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="P1" s="48" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="Q1" s="48" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="R1" s="48" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="S1" s="48" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="T1" s="48" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="U1" s="48" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="V1" s="48" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="W1" s="48" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="X1" s="48" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="Y1" s="48" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="Z1" s="48" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AA1" s="48" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AB1" s="48" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AC1" s="48" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AD1" s="48" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AE1" s="48" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="AF1" s="48" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AG1" s="48" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AH1" s="48" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AI1" s="50" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AJ1" s="50" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AK1" s="50" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="AL1" s="50" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AM1" s="50" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="AN1" s="50" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AO1" s="50" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AP1" s="50" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AQ1" s="50" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AR1" s="50" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="AS1" s="50" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="AT1" s="50" t="s">
         <v>676</v>
@@ -6251,28 +6254,28 @@
         <v>679</v>
       </c>
       <c r="AX1" s="50" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="AY1" s="50" t="s">
         <v>680</v>
       </c>
       <c r="AZ1" s="50" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="BA1" s="50" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="BB1" s="50" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="BC1" s="50" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="BD1" s="50" t="s">
         <v>691</v>
       </c>
       <c r="BE1" s="50" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="BF1" s="50" t="s">
         <v>693</v>
@@ -6295,25 +6298,25 @@
         <v>164</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G2" s="59" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2" s="59" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="I2" s="59" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="AI2" s="59" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AJ2" s="59" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="AK2" s="59" t="s">
         <v>185</v>
@@ -6337,10 +6340,10 @@
         <v>3</v>
       </c>
       <c r="AR2" s="59" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AS2" s="17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AT2" s="17" t="s">
         <v>192</v>
@@ -6368,19 +6371,19 @@
         <v>172</v>
       </c>
       <c r="BC2" s="59" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="BD2" s="59" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="BE2" s="59" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="BF2" s="59" t="s">
         <v>583</v>
       </c>
       <c r="BG2" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -6446,49 +6449,49 @@
         <v>5</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="O1" s="13" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="S1" s="13" t="s">
         <v>643</v>
@@ -6520,40 +6523,40 @@
         <v>644</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E2" s="28" t="s">
         <v>190</v>
       </c>
       <c r="F2" s="28"/>
       <c r="G2" s="59" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H2" s="60" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="I2" s="59" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="J2" s="59" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="K2" s="53"/>
       <c r="L2" s="60" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M2" s="60" t="s">
         <v>198</v>
       </c>
       <c r="N2" s="60"/>
       <c r="O2" s="59" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="P2" s="53" t="s">
         <v>170</v>
       </c>
       <c r="Q2" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="R2" s="60">
         <v>100</v>
@@ -6562,7 +6565,7 @@
         <v>651</v>
       </c>
       <c r="T2" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -6677,424 +6680,424 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="M1" s="34" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="N1" s="11" t="s">
         <v>567</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="T1" s="11" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="AD1" s="11" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="AE1" s="11" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="AG1" s="11" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="AH1" s="11" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AI1" s="11" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="AJ1" s="11" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="AK1" s="11" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="AL1" s="11" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="AM1" s="11" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="AN1" s="11" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="AO1" s="11" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AP1" s="11" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AQ1" s="11" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AR1" s="11" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="AS1" s="11" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="AT1" s="11" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="AU1" s="11" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="AV1" s="11" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="AW1" s="11" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="AX1" s="11" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AY1" s="11" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="AZ1" s="11" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="BA1" s="11" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="BB1" s="11" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="BC1" s="11" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="BD1" s="11" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="BE1" s="11" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="BF1" s="11" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="BG1" s="11" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="BH1" s="11" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="BI1" s="11" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="BJ1" s="11" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="BK1" s="11" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="BL1" s="11" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="BM1" s="11" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="BN1" s="54" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="BO1" s="11" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="BP1" s="11" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="BQ1" s="11" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="BR1" s="11" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="BS1" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="BT1" s="11" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="BU1" s="11" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="BV1" s="11" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="BW1" s="11" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="BX1" s="11" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="BY1" s="11" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="BZ1" s="11" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="CA1" s="11" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="CB1" s="11" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="CC1" s="11" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="CD1" s="11" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="CE1" s="11" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="CF1" s="11" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="CG1" s="11" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="CH1" s="11" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="CI1" s="11" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="CJ1" s="11" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="CK1" s="11" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="CL1" s="11" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="CM1" s="11" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="CN1" s="11" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="CO1" s="11" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="CP1" s="11" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="CQ1" s="11" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="CR1" s="11" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="CS1" s="11" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="CT1" s="11" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="CU1" s="11" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="CV1" s="11" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="CW1" s="11" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="CX1" s="11" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="CY1" s="11" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="CZ1" s="11" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="DA1" s="11" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="DB1" s="11" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="DC1" s="11" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="DD1" s="11" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="DE1" s="11" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="DF1" s="11" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="DG1" s="11" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="DH1" s="11" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="DI1" s="11" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="DJ1" s="11" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="DK1" s="11" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="DL1" s="11" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="DM1" s="11" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="DN1" s="33" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="DO1" s="11" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="DP1" s="11" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="DQ1" s="11" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="DR1" s="11" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="DS1" s="11" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="DT1" s="11" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="DU1" s="11" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="DV1" s="11" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="DW1" s="11" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="DX1" s="11" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="DY1" s="11" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="DZ1" s="11" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="EA1" s="11" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="EB1" s="11" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="EC1" s="11" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="ED1" s="11" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="EE1" s="11" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="EF1" s="11" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="EG1" s="11" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="EH1" s="11" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="EI1" s="11" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="EJ1" s="11" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="EK1" s="11" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="EL1" s="11" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="2" spans="1:142" s="78" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7102,127 +7105,127 @@
         <v>158</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="E2" s="78" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="F2" s="78" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="G2" s="78" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="H2" s="78" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="I2" s="78" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="J2" s="78" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="K2" s="78" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="L2" s="59" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="M2" s="59" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="N2" s="59" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="O2" s="60" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="P2" s="60" t="s">
         <v>206</v>
       </c>
       <c r="Q2" s="60" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="R2" s="60" t="s">
         <v>206</v>
       </c>
       <c r="S2" s="60" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="T2" s="60" t="s">
         <v>206</v>
       </c>
       <c r="U2" s="59" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="V2" s="78" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="W2" s="78" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="X2" s="60" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="Y2" s="59" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="Z2" s="78" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="AA2" s="78" t="s">
         <v>165</v>
       </c>
       <c r="AB2" s="78" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="AC2" s="78" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="AD2" s="60" t="s">
+        <v>510</v>
+      </c>
+      <c r="AE2" s="60" t="s">
         <v>511</v>
       </c>
-      <c r="AE2" s="60" t="s">
-        <v>512</v>
-      </c>
       <c r="AF2" s="60" t="s">
+        <v>514</v>
+      </c>
+      <c r="AG2" s="60" t="s">
+        <v>500</v>
+      </c>
+      <c r="AH2" s="60" t="s">
+        <v>500</v>
+      </c>
+      <c r="AI2" s="60" t="s">
+        <v>947</v>
+      </c>
+      <c r="AJ2" s="60" t="s">
         <v>515</v>
       </c>
-      <c r="AG2" s="60" t="s">
-        <v>501</v>
-      </c>
-      <c r="AH2" s="60" t="s">
-        <v>501</v>
-      </c>
-      <c r="AI2" s="60" t="s">
-        <v>946</v>
-      </c>
-      <c r="AJ2" s="60" t="s">
-        <v>516</v>
-      </c>
       <c r="AK2" s="60" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AL2" s="60" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="AM2" s="60" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="AN2" s="60" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AO2" s="60" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="AP2" s="60" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="AQ2" s="60" t="s">
         <v>166</v>
@@ -7231,294 +7234,294 @@
         <v>167</v>
       </c>
       <c r="AS2" s="60" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="AT2" s="60" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="AU2" s="60" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="AV2" s="60" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="AW2" s="60" t="s">
         <v>170</v>
       </c>
       <c r="AX2" s="60" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AY2" s="60" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="AZ2" s="60" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="BA2" s="60" t="s">
+        <v>957</v>
+      </c>
+      <c r="BB2" s="60" t="s">
+        <v>958</v>
+      </c>
+      <c r="BC2" s="60" t="s">
+        <v>959</v>
+      </c>
+      <c r="BD2" s="60" t="s">
+        <v>959</v>
+      </c>
+      <c r="BE2" s="60" t="s">
+        <v>960</v>
+      </c>
+      <c r="BF2" s="60" t="s">
+        <v>961</v>
+      </c>
+      <c r="BG2" s="60" t="s">
+        <v>962</v>
+      </c>
+      <c r="BH2" s="60" t="s">
+        <v>963</v>
+      </c>
+      <c r="BI2" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="BJ2" s="60" t="s">
+        <v>964</v>
+      </c>
+      <c r="BK2" s="60" t="s">
         <v>956</v>
       </c>
-      <c r="BB2" s="60" t="s">
-        <v>957</v>
-      </c>
-      <c r="BC2" s="60" t="s">
-        <v>958</v>
-      </c>
-      <c r="BD2" s="60" t="s">
-        <v>958</v>
-      </c>
-      <c r="BE2" s="60" t="s">
-        <v>959</v>
-      </c>
-      <c r="BF2" s="60" t="s">
-        <v>960</v>
-      </c>
-      <c r="BG2" s="60" t="s">
-        <v>961</v>
-      </c>
-      <c r="BH2" s="60" t="s">
-        <v>962</v>
-      </c>
-      <c r="BI2" s="60" t="s">
-        <v>221</v>
-      </c>
-      <c r="BJ2" s="60" t="s">
-        <v>963</v>
-      </c>
-      <c r="BK2" s="60" t="s">
-        <v>955</v>
-      </c>
       <c r="BL2" s="60" t="s">
+        <v>965</v>
+      </c>
+      <c r="BM2" s="60" t="s">
+        <v>966</v>
+      </c>
+      <c r="BN2" s="60" t="s">
+        <v>967</v>
+      </c>
+      <c r="BO2" s="60" t="s">
+        <v>968</v>
+      </c>
+      <c r="BP2" s="60" t="s">
+        <v>969</v>
+      </c>
+      <c r="BQ2" s="60" t="s">
+        <v>970</v>
+      </c>
+      <c r="BR2" s="60" t="s">
+        <v>473</v>
+      </c>
+      <c r="BS2" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="BT2" s="22" t="s">
+        <v>971</v>
+      </c>
+      <c r="BU2" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="BV2" s="60" t="s">
         <v>964</v>
       </c>
-      <c r="BM2" s="60" t="s">
-        <v>965</v>
-      </c>
-      <c r="BN2" s="60" t="s">
-        <v>966</v>
-      </c>
-      <c r="BO2" s="60" t="s">
-        <v>967</v>
-      </c>
-      <c r="BP2" s="60" t="s">
-        <v>968</v>
-      </c>
-      <c r="BQ2" s="60" t="s">
-        <v>969</v>
-      </c>
-      <c r="BR2" s="60" t="s">
-        <v>474</v>
-      </c>
-      <c r="BS2" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="BT2" s="22" t="s">
-        <v>970</v>
-      </c>
-      <c r="BU2" s="60" t="s">
-        <v>221</v>
-      </c>
-      <c r="BV2" s="60" t="s">
-        <v>963</v>
-      </c>
       <c r="BW2" s="60" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="BX2" s="60" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="BY2" s="60" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="BZ2" s="22" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="CA2" s="22" t="s">
         <v>165</v>
       </c>
       <c r="CB2" s="22" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="CC2" s="60" t="s">
+        <v>977</v>
+      </c>
+      <c r="CD2" s="60" t="s">
+        <v>978</v>
+      </c>
+      <c r="CE2" s="60" t="s">
+        <v>979</v>
+      </c>
+      <c r="CF2" s="60" t="s">
+        <v>980</v>
+      </c>
+      <c r="CG2" s="59" t="s">
+        <v>981</v>
+      </c>
+      <c r="CH2" s="78" t="s">
+        <v>982</v>
+      </c>
+      <c r="CI2" s="22" t="s">
         <v>976</v>
       </c>
-      <c r="CD2" s="60" t="s">
-        <v>977</v>
-      </c>
-      <c r="CE2" s="60" t="s">
-        <v>978</v>
-      </c>
-      <c r="CF2" s="60" t="s">
-        <v>979</v>
-      </c>
-      <c r="CG2" s="59" t="s">
-        <v>980</v>
-      </c>
-      <c r="CH2" s="78" t="s">
-        <v>981</v>
-      </c>
-      <c r="CI2" s="22" t="s">
-        <v>975</v>
-      </c>
       <c r="CJ2" s="22" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="CK2" s="22" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="CL2" s="22" t="s">
         <v>165</v>
       </c>
       <c r="CM2" s="22" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="CN2" s="60" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="CO2" s="60" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="CP2" s="60" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="CQ2" s="60" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="CR2" s="60" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="CS2" s="60" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="CT2" s="60" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="CU2" s="60" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="CV2" s="60" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="CW2" s="60" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="CX2" s="60" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="CY2" s="60" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="CZ2" s="60" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="DA2" s="60" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="DB2" s="60" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="DC2" s="60" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="DD2" s="60" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="DE2" s="60" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="DF2" s="55" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="DG2" s="60" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="DH2" s="22" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="DI2" s="22" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="DJ2" s="22" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="DK2" s="22" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="DL2" s="22"/>
       <c r="DM2" s="22"/>
       <c r="DN2" s="22" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="DO2" s="22" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="DP2" s="22" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="DQ2" s="22" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="DR2" s="22" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="DS2" s="22" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="DT2" s="22" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="DU2" s="22" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="DV2" s="56" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="DW2" s="22" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="DX2" s="22" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="DY2" s="22" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="DZ2" s="22" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="EA2" s="22" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="EB2" s="22" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="EC2" s="22" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="ED2" s="22" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="EE2" s="22" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="EF2" s="22" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="EG2" s="22" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="EH2" s="22" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="EI2" s="22" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="EJ2" s="22" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="EK2" s="22" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="EL2" s="22" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
   </sheetData>
@@ -7535,7 +7538,7 @@
   </sheetPr>
   <dimension ref="A1:EQ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DO1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="DO1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="EP1" sqref="EP1:EP2"/>
     </sheetView>
   </sheetViews>
@@ -7634,439 +7637,439 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>567</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="AT1" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="AU1" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="AV1" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="AW1" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="AX1" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="AY1" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AZ1" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="BA1" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="BB1" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="BC1" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="BD1" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="BE1" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="BF1" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="BG1" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="BH1" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="BI1" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="BJ1" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="BK1" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="BL1" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="BM1" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="BN1" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="BO1" s="57" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="BP1" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="BQ1" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="BR1" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="BS1" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="BT1" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="BU1" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="BV1" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="BW1" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="BX1" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="BY1" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="BZ1" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="CA1" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="CB1" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="CC1" s="2" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="CD1" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="CE1" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="CF1" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="CG1" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="CH1" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="CI1" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="CJ1" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="CK1" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="CL1" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="CM1" s="2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="CN1" s="2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="CO1" s="2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="CP1" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="CQ1" s="2" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="CR1" s="2" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="CS1" s="2" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="CT1" s="2" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="CU1" s="2" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="CV1" s="2" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="CW1" s="2" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="CX1" s="2" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="CY1" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="CZ1" s="2" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="DA1" s="2" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="DB1" s="2" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="DC1" s="2" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="DD1" s="2" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="DE1" s="2" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="DF1" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="DG1" s="2" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="DH1" s="2" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="DI1" s="2" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="DJ1" s="2" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="DK1" s="2" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="DL1" s="2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="DM1" s="2" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="DN1" s="2" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="DP1" s="2" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="DQ1" s="2" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="DR1" s="2" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="DS1" s="2" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="DT1" s="2" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="DU1" s="2" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="DV1" s="2" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="DW1" s="2" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="DX1" s="2" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="DY1" s="2" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="DZ1" s="2" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="EA1" s="2" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="EB1" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="EC1" s="2" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="ED1" s="2" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="EE1" s="2" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="EF1" s="2" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="EG1" s="2" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="EH1" s="2" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="EI1" s="2" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="EJ1" s="2" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="EK1" s="2" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="EL1" s="2" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="EM1" s="2" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="EN1" s="79" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="EO1" s="79" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="EP1" s="79" t="s">
         <v>157</v>
       </c>
       <c r="EQ1" s="79" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="2" spans="1:147" s="78" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8074,130 +8077,130 @@
         <v>158</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="E2" s="78" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="F2" s="78" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="G2" s="78" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H2" s="78" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="I2" s="78" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="J2" s="78" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="K2" s="78" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="L2" s="78" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="M2" s="59" t="s">
         <v>169</v>
       </c>
       <c r="N2" s="59" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="O2" s="59" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="P2" s="60" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="Q2" s="60" t="s">
         <v>206</v>
       </c>
       <c r="R2" s="60" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="S2" s="60" t="s">
         <v>206</v>
       </c>
       <c r="T2" s="60" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="U2" s="60" t="s">
         <v>206</v>
       </c>
       <c r="V2" s="59" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="W2" s="78" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="X2" s="78" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="Y2" s="60" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="Z2" s="59" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="AA2" s="78" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="AB2" s="78" t="s">
         <v>165</v>
       </c>
       <c r="AC2" s="78" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="AD2" s="78" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="AE2" s="60" t="s">
+        <v>510</v>
+      </c>
+      <c r="AF2" s="60" t="s">
         <v>511</v>
       </c>
-      <c r="AF2" s="60" t="s">
-        <v>512</v>
-      </c>
       <c r="AG2" s="60" t="s">
+        <v>514</v>
+      </c>
+      <c r="AH2" s="60" t="s">
+        <v>500</v>
+      </c>
+      <c r="AI2" s="60" t="s">
+        <v>500</v>
+      </c>
+      <c r="AJ2" s="60" t="s">
+        <v>947</v>
+      </c>
+      <c r="AK2" s="60" t="s">
         <v>515</v>
       </c>
-      <c r="AH2" s="60" t="s">
-        <v>501</v>
-      </c>
-      <c r="AI2" s="60" t="s">
-        <v>501</v>
-      </c>
-      <c r="AJ2" s="60" t="s">
-        <v>946</v>
-      </c>
-      <c r="AK2" s="60" t="s">
-        <v>516</v>
-      </c>
       <c r="AL2" s="60" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AM2" s="60" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="AN2" s="60" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="AO2" s="60" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AP2" s="60" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="AQ2" s="60" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="AR2" s="60" t="s">
         <v>166</v>
@@ -8206,306 +8209,306 @@
         <v>167</v>
       </c>
       <c r="AT2" s="60" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="AU2" s="60" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="AV2" s="60" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="AW2" s="60" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="AX2" s="60" t="s">
         <v>170</v>
       </c>
       <c r="AY2" s="60" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AZ2" s="60" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="BA2" s="60" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="BB2" s="60" t="s">
+        <v>957</v>
+      </c>
+      <c r="BC2" s="60" t="s">
+        <v>958</v>
+      </c>
+      <c r="BD2" s="60" t="s">
+        <v>959</v>
+      </c>
+      <c r="BE2" s="60" t="s">
+        <v>959</v>
+      </c>
+      <c r="BF2" s="60" t="s">
+        <v>960</v>
+      </c>
+      <c r="BG2" s="60" t="s">
+        <v>961</v>
+      </c>
+      <c r="BH2" s="60" t="s">
+        <v>962</v>
+      </c>
+      <c r="BI2" s="60" t="s">
+        <v>963</v>
+      </c>
+      <c r="BJ2" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="BK2" s="60" t="s">
+        <v>964</v>
+      </c>
+      <c r="BL2" s="60" t="s">
         <v>956</v>
       </c>
-      <c r="BC2" s="60" t="s">
-        <v>957</v>
-      </c>
-      <c r="BD2" s="60" t="s">
-        <v>958</v>
-      </c>
-      <c r="BE2" s="60" t="s">
-        <v>958</v>
-      </c>
-      <c r="BF2" s="60" t="s">
-        <v>959</v>
-      </c>
-      <c r="BG2" s="60" t="s">
-        <v>960</v>
-      </c>
-      <c r="BH2" s="60" t="s">
-        <v>961</v>
-      </c>
-      <c r="BI2" s="60" t="s">
-        <v>962</v>
-      </c>
-      <c r="BJ2" s="60" t="s">
-        <v>221</v>
-      </c>
-      <c r="BK2" s="60" t="s">
-        <v>963</v>
-      </c>
-      <c r="BL2" s="60" t="s">
-        <v>955</v>
-      </c>
       <c r="BM2" s="60" t="s">
+        <v>965</v>
+      </c>
+      <c r="BN2" s="60" t="s">
+        <v>966</v>
+      </c>
+      <c r="BO2" s="60" t="s">
+        <v>967</v>
+      </c>
+      <c r="BP2" s="60" t="s">
+        <v>968</v>
+      </c>
+      <c r="BQ2" s="60" t="s">
+        <v>969</v>
+      </c>
+      <c r="BR2" s="60" t="s">
+        <v>970</v>
+      </c>
+      <c r="BS2" s="60" t="s">
+        <v>473</v>
+      </c>
+      <c r="BT2" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="BU2" s="22" t="s">
+        <v>971</v>
+      </c>
+      <c r="BV2" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="BW2" s="60" t="s">
         <v>964</v>
       </c>
-      <c r="BN2" s="60" t="s">
-        <v>965</v>
-      </c>
-      <c r="BO2" s="60" t="s">
-        <v>966</v>
-      </c>
-      <c r="BP2" s="60" t="s">
-        <v>967</v>
-      </c>
-      <c r="BQ2" s="60" t="s">
-        <v>968</v>
-      </c>
-      <c r="BR2" s="60" t="s">
-        <v>969</v>
-      </c>
-      <c r="BS2" s="60" t="s">
-        <v>474</v>
-      </c>
-      <c r="BT2" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="BU2" s="22" t="s">
-        <v>970</v>
-      </c>
-      <c r="BV2" s="60" t="s">
-        <v>221</v>
-      </c>
-      <c r="BW2" s="60" t="s">
-        <v>963</v>
-      </c>
       <c r="BX2" s="60" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="BY2" s="60" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="BZ2" s="60" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="CA2" s="22" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="CB2" s="22" t="s">
         <v>165</v>
       </c>
       <c r="CC2" s="22" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="CD2" s="60" t="s">
+        <v>977</v>
+      </c>
+      <c r="CE2" s="60" t="s">
+        <v>978</v>
+      </c>
+      <c r="CF2" s="60" t="s">
+        <v>979</v>
+      </c>
+      <c r="CG2" s="60" t="s">
+        <v>980</v>
+      </c>
+      <c r="CH2" s="59" t="s">
+        <v>1020</v>
+      </c>
+      <c r="CI2" s="78" t="s">
+        <v>982</v>
+      </c>
+      <c r="CJ2" s="22" t="s">
         <v>976</v>
       </c>
-      <c r="CE2" s="60" t="s">
-        <v>977</v>
-      </c>
-      <c r="CF2" s="60" t="s">
-        <v>978</v>
-      </c>
-      <c r="CG2" s="60" t="s">
-        <v>979</v>
-      </c>
-      <c r="CH2" s="59" t="s">
-        <v>1019</v>
-      </c>
-      <c r="CI2" s="78" t="s">
-        <v>981</v>
-      </c>
-      <c r="CJ2" s="22" t="s">
-        <v>975</v>
-      </c>
       <c r="CK2" s="22" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="CL2" s="22" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="CM2" s="22" t="s">
         <v>165</v>
       </c>
       <c r="CN2" s="22" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="CO2" s="60" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="CP2" s="60" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="CQ2" s="60" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="CR2" s="60" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="CS2" s="60" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="CT2" s="60" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="CU2" s="60" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="CV2" s="60" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="CW2" s="60" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="CX2" s="60" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="CY2" s="60" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="CZ2" s="60" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="DA2" s="60" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="DB2" s="60" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="DC2" s="60" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="DD2" s="60" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="DE2" s="60" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="DF2" s="60" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="DG2" s="55" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="DH2" s="60" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="DI2" s="22" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="DJ2" s="22" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="DK2" s="22" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="DL2" s="22" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="DM2" s="22"/>
       <c r="DN2" s="22"/>
       <c r="DO2" s="22" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="DP2" s="22" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="DQ2" s="22" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="DR2" s="22" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="DS2" s="22" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="DT2" s="22" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="DU2" s="22" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="DV2" s="22" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="DW2" s="56" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="DX2" s="22" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="DY2" s="22" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="DZ2" s="22" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="EA2" s="22" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="EB2" s="22" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="EC2" s="22" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="ED2" s="22" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="EE2" s="22" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="EF2" s="22" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="EG2" s="22" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="EH2" s="22" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="EI2" s="22" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="EJ2" s="22" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="EK2" s="22" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="EL2" s="22" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="EM2" s="22" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="EN2" s="78" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="EO2" s="78" t="s">
         <v>171</v>
       </c>
       <c r="EP2" s="78" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="EQ2" s="78" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
   </sheetData>
@@ -8589,13 +8592,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>235</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>236</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>5</v>
@@ -8604,136 +8607,136 @@
         <v>7</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="K1" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="P1" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="X1" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="Y1" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Z1" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="AA1" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AB1" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AC1" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AD1" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="AE1" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="AD1" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AF1" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AG1" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="AG1" s="14" t="s">
+      <c r="AH1" s="14" t="s">
         <v>260</v>
-      </c>
-      <c r="AH1" s="14" t="s">
-        <v>261</v>
       </c>
       <c r="AI1" s="13" t="s">
         <v>14</v>
       </c>
       <c r="AJ1" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="AK1" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="AK1" s="14" t="s">
+      <c r="AL1" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="AL1" s="14" t="s">
+      <c r="AM1" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="AM1" s="14" t="s">
+      <c r="AN1" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="AN1" s="14" t="s">
+      <c r="AO1" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="AO1" s="14" t="s">
+      <c r="AP1" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="AP1" s="14" t="s">
+      <c r="AQ1" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="AQ1" s="14" t="s">
+      <c r="AR1" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="AR1" s="14" t="s">
+      <c r="AS1" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="AS1" s="14" t="s">
+      <c r="AT1" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="AT1" s="14" t="s">
+      <c r="AU1" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="AU1" s="14" t="s">
+      <c r="AV1" s="14" t="s">
         <v>273</v>
-      </c>
-      <c r="AV1" s="14" t="s">
-        <v>274</v>
       </c>
       <c r="AW1" s="14" t="s">
         <v>155</v>
       </c>
       <c r="AX1" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="AY1" s="14" t="s">
         <v>275</v>
-      </c>
-      <c r="AY1" s="14" t="s">
-        <v>276</v>
       </c>
       <c r="AZ1" s="14" t="s">
         <v>157</v>
@@ -8747,7 +8750,7 @@
         <v>159</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F2" s="59" t="s">
         <v>162</v>
@@ -8759,7 +8762,7 @@
         <v>165</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L2" s="59" t="s">
         <v>181</v>
@@ -8777,10 +8780,10 @@
         <v>186</v>
       </c>
       <c r="R2" s="59" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S2" s="59" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T2" s="28"/>
       <c r="U2" s="28"/>
@@ -8790,13 +8793,13 @@
         <v>201</v>
       </c>
       <c r="Y2" s="60" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AB2" s="60" t="s">
         <v>210</v>
       </c>
       <c r="AC2" s="60" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AD2" s="28" t="s">
         <v>165</v>
@@ -8809,7 +8812,7 @@
         <v>200</v>
       </c>
       <c r="AH2" s="60" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AI2" s="78" t="s">
         <v>169</v>
@@ -8821,19 +8824,19 @@
         <v>210</v>
       </c>
       <c r="AL2" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AM2" s="16" t="s">
         <v>211</v>
       </c>
       <c r="AX2" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AY2" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AZ2" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -8901,160 +8904,160 @@
         <v>7</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="39" t="s">
         <v>293</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="O1" s="39" t="s">
         <v>294</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="P1" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="T1" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="V1" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="W1" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="X1" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="Y1" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Z1" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AA1" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AB1" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AC1" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AD1" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AE1" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AF1" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AG1" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="AG1" s="14" t="s">
+      <c r="AH1" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AI1" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="AI1" s="14" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="AJ1" s="14" t="s">
+      <c r="AK1" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="AK1" s="14" t="s">
+      <c r="AL1" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="AL1" s="14" t="s">
+      <c r="AM1" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="AM1" s="14" t="s">
+      <c r="AN1" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="AN1" s="14" t="s">
+      <c r="AO1" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="AO1" s="14" t="s">
+      <c r="AP1" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="AP1" s="14" t="s">
+      <c r="AQ1" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="AQ1" s="14" t="s">
+      <c r="AR1" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="AR1" s="14" t="s">
+      <c r="AS1" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="AS1" s="14" t="s">
+      <c r="AT1" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="AT1" s="14" t="s">
+      <c r="AU1" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="AU1" s="14" t="s">
+      <c r="AV1" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="AV1" s="14" t="s">
+      <c r="AW1" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="AW1" s="14" t="s">
+      <c r="AX1" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="AX1" s="14" t="s">
+      <c r="AY1" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="AY1" s="14" t="s">
+      <c r="AZ1" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="AZ1" s="14" t="s">
+      <c r="BA1" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="BA1" s="14" t="s">
+      <c r="BB1" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="BB1" s="14" t="s">
+      <c r="BC1" s="14" t="s">
         <v>334</v>
-      </c>
-      <c r="BC1" s="14" t="s">
-        <v>335</v>
       </c>
       <c r="BD1" s="14" t="s">
         <v>157</v>
@@ -9071,7 +9074,7 @@
         <v>164</v>
       </c>
       <c r="D2" s="60" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F2" s="28" t="s">
         <v>197</v>
@@ -9080,28 +9083,28 @@
         <v>189</v>
       </c>
       <c r="L2" s="60" t="s">
+        <v>336</v>
+      </c>
+      <c r="M2" s="28" t="s">
         <v>337</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="N2" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="O2" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="R2" s="60" t="s">
         <v>340</v>
       </c>
-      <c r="R2" s="60" t="s">
+      <c r="S2" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="59" t="s">
         <v>342</v>
       </c>
-      <c r="T2" s="59" t="s">
+      <c r="V2" s="59" t="s">
         <v>343</v>
-      </c>
-      <c r="V2" s="59" t="s">
-        <v>344</v>
       </c>
       <c r="W2" s="28" t="s">
         <v>192</v>
@@ -9113,28 +9116,28 @@
         <v>189</v>
       </c>
       <c r="AB2" s="60" t="s">
+        <v>340</v>
+      </c>
+      <c r="AC2" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="AC2" s="5" t="s">
-        <v>342</v>
-      </c>
       <c r="AD2" s="59" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE2" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="AE2" s="59" t="s">
+      <c r="AF2" s="59" t="s">
         <v>346</v>
       </c>
-      <c r="AF2" s="59" t="s">
+      <c r="AG2" s="59" t="s">
         <v>347</v>
       </c>
-      <c r="AG2" s="59" t="s">
+      <c r="AJ2" s="28" t="s">
         <v>348</v>
       </c>
-      <c r="AJ2" s="28" t="s">
+      <c r="AK2" s="5" t="s">
         <v>349</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>350</v>
       </c>
       <c r="AN2" s="5" t="s">
         <v>192</v>
@@ -9147,37 +9150,37 @@
       </c>
       <c r="AS2" s="60"/>
       <c r="AT2" s="59" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AU2" s="59" t="s">
         <v>158</v>
       </c>
       <c r="AV2" s="59" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AW2" s="59" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AX2" s="59" t="s">
         <v>158</v>
       </c>
       <c r="AY2" s="59" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AZ2" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="BA2" s="59" t="s">
         <v>352</v>
       </c>
-      <c r="BA2" s="59" t="s">
-        <v>353</v>
-      </c>
       <c r="BB2" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="BC2" s="16" t="s">
         <v>158</v>
       </c>
       <c r="BD2" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -9240,52 +9243,52 @@
         <v>5</v>
       </c>
       <c r="D1" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="E1" s="34" t="s">
         <v>354</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="F1" s="34" t="s">
         <v>355</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="G1" s="11" t="s">
         <v>356</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>357</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>152</v>
       </c>
       <c r="I1" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="34" t="s">
         <v>367</v>
-      </c>
-      <c r="S1" s="34" t="s">
-        <v>368</v>
       </c>
       <c r="T1" s="11" t="s">
         <v>116</v>
@@ -9295,19 +9298,19 @@
         <v>113</v>
       </c>
       <c r="W1" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="X1" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="Y1" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Z1" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AA1" s="11" t="s">
         <v>372</v>
-      </c>
-      <c r="AA1" s="11" t="s">
-        <v>373</v>
       </c>
       <c r="AB1" s="11" t="s">
         <v>24</v>
@@ -9342,70 +9345,70 @@
         <v>170</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I2" s="62" t="s">
+        <v>373</v>
+      </c>
+      <c r="J2" s="62" t="s">
         <v>374</v>
       </c>
-      <c r="J2" s="62" t="s">
+      <c r="K2" s="60" t="s">
         <v>375</v>
-      </c>
-      <c r="K2" s="60" t="s">
-        <v>376</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>200</v>
       </c>
       <c r="M2" s="60" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N2" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="O2" s="60" t="s">
         <v>377</v>
       </c>
-      <c r="O2" s="60" t="s">
+      <c r="P2" s="60" t="s">
         <v>378</v>
       </c>
-      <c r="P2" s="60" t="s">
+      <c r="Q2" s="60" t="s">
         <v>379</v>
       </c>
-      <c r="Q2" s="60" t="s">
+      <c r="R2" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="T2" s="60" t="s">
         <v>380</v>
       </c>
-      <c r="R2" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="S2" s="22" t="s">
-        <v>377</v>
-      </c>
-      <c r="T2" s="60" t="s">
+      <c r="V2" s="59" t="s">
+        <v>278</v>
+      </c>
+      <c r="W2" s="22" t="s">
         <v>381</v>
       </c>
-      <c r="V2" s="59" t="s">
+      <c r="X2" s="22" t="s">
         <v>382</v>
       </c>
-      <c r="W2" s="22" t="s">
+      <c r="Y2" s="22" t="s">
         <v>383</v>
       </c>
-      <c r="X2" s="22" t="s">
+      <c r="Z2" s="22" t="s">
         <v>384</v>
       </c>
-      <c r="Y2" s="22" t="s">
+      <c r="AA2" s="22" t="s">
         <v>385</v>
       </c>
-      <c r="Z2" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="AA2" s="22" t="s">
-        <v>387</v>
-      </c>
       <c r="AB2" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AC2" s="59" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AD2" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
@@ -9430,8 +9433,8 @@
   </sheetPr>
   <dimension ref="A1:AM17"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM1" sqref="AM1:AM2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9473,112 +9476,112 @@
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="I1" s="15" t="s">
         <v>389</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>391</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>14</v>
       </c>
       <c r="K1" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="N1" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="O1" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="P1" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="Q1" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="R1" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="S1" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="T1" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="U1" s="15" t="s">
         <v>400</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="V1" s="15" t="s">
         <v>401</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="W1" s="15" t="s">
         <v>402</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="X1" s="15" t="s">
         <v>403</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="Y1" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="Z1" s="14" t="s">
         <v>405</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="AA1" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="AB1" s="14" t="s">
         <v>407</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AC1" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AD1" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AE1" s="14" t="s">
         <v>410</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AF1" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AG1" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AH1" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="AI1" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="AG1" s="14" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="AH1" s="14" t="s">
-        <v>396</v>
-      </c>
-      <c r="AI1" s="13" t="s">
+      <c r="AK1" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="AJ1" s="13" t="s">
+      <c r="AL1" s="14" t="s">
         <v>416</v>
-      </c>
-      <c r="AK1" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="AL1" s="14" t="s">
-        <v>418</v>
       </c>
       <c r="AM1" s="14" t="s">
         <v>157</v>
@@ -9592,7 +9595,7 @@
         <v>159</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D2" s="59" t="s">
         <v>162</v>
@@ -9604,25 +9607,25 @@
         <v>164</v>
       </c>
       <c r="G2" s="60" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H2" s="59" t="s">
         <v>181</v>
       </c>
       <c r="I2" s="59" t="s">
+        <v>418</v>
+      </c>
+      <c r="J2" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="K2" s="78" t="s">
         <v>420</v>
       </c>
-      <c r="J2" s="78" t="s">
+      <c r="L2" s="60" t="s">
+        <v>279</v>
+      </c>
+      <c r="M2" s="59" t="s">
         <v>421</v>
-      </c>
-      <c r="K2" s="78" t="s">
-        <v>422</v>
-      </c>
-      <c r="L2" s="60" t="s">
-        <v>280</v>
-      </c>
-      <c r="M2" s="59" t="s">
-        <v>423</v>
       </c>
       <c r="N2" s="60" t="s">
         <v>192</v>
@@ -9631,58 +9634,58 @@
         <v>165</v>
       </c>
       <c r="P2" s="60" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q2" s="70" t="s">
+        <v>423</v>
+      </c>
+      <c r="R2" s="59" t="s">
+        <v>278</v>
+      </c>
+      <c r="S2" s="60" t="s">
         <v>424</v>
       </c>
-      <c r="Q2" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="R2" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="S2" s="60" t="s">
+      <c r="T2" s="60" t="s">
         <v>425</v>
       </c>
-      <c r="T2" s="60" t="s">
+      <c r="U2" s="60" t="s">
         <v>426</v>
       </c>
-      <c r="U2" s="60" t="s">
+      <c r="V2" s="60" t="s">
         <v>427</v>
-      </c>
-      <c r="V2" s="60" t="s">
-        <v>428</v>
       </c>
       <c r="W2" s="60" t="s">
         <v>158</v>
       </c>
       <c r="X2" s="22" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="Y2" s="60" t="s">
         <v>198</v>
       </c>
       <c r="Z2" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="AA2" s="22" t="s">
         <v>430</v>
       </c>
-      <c r="AA2" s="22" t="s">
+      <c r="AB2" s="22" t="s">
         <v>431</v>
       </c>
-      <c r="AB2" s="22" t="s">
+      <c r="AC2" s="60" t="s">
         <v>432</v>
       </c>
-      <c r="AC2" s="60" t="s">
+      <c r="AD2" s="60" t="s">
         <v>433</v>
       </c>
-      <c r="AD2" s="60" t="s">
+      <c r="AE2" s="60" t="s">
         <v>434</v>
-      </c>
-      <c r="AE2" s="60" t="s">
-        <v>435</v>
       </c>
       <c r="AF2" s="60" t="s">
         <v>172</v>
       </c>
       <c r="AG2" s="22" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AH2" s="22" t="s">
         <v>165</v>
@@ -9694,13 +9697,13 @@
         <v>180</v>
       </c>
       <c r="AK2" s="19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AL2" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="AM2" s="16" t="s">
         <v>228</v>
-      </c>
-      <c r="AM2" s="16" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
@@ -9826,25 +9829,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>443</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>444</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>114</v>
@@ -9853,133 +9856,133 @@
         <v>115</v>
       </c>
       <c r="L1" s="79" t="s">
+        <v>444</v>
+      </c>
+      <c r="M1" s="79" t="s">
         <v>445</v>
       </c>
-      <c r="M1" s="79" t="s">
+      <c r="N1" s="79" t="s">
         <v>446</v>
       </c>
-      <c r="N1" s="79" t="s">
+      <c r="O1" s="79" t="s">
         <v>447</v>
       </c>
-      <c r="O1" s="79" t="s">
+      <c r="P1" s="79" t="s">
         <v>448</v>
       </c>
-      <c r="P1" s="79" t="s">
+      <c r="Q1" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="79" t="s">
         <v>450</v>
       </c>
-      <c r="R1" s="79" t="s">
+      <c r="S1" s="79" t="s">
         <v>451</v>
       </c>
-      <c r="S1" s="79" t="s">
+      <c r="T1" s="79" t="s">
         <v>452</v>
       </c>
-      <c r="T1" s="79" t="s">
+      <c r="U1" s="79" t="s">
         <v>453</v>
       </c>
-      <c r="U1" s="79" t="s">
+      <c r="V1" s="79" t="s">
         <v>454</v>
       </c>
-      <c r="V1" s="79" t="s">
+      <c r="W1" s="79" t="s">
         <v>455</v>
       </c>
-      <c r="W1" s="79" t="s">
+      <c r="X1" s="79" t="s">
         <v>456</v>
       </c>
-      <c r="X1" s="79" t="s">
+      <c r="Y1" s="79" t="s">
         <v>457</v>
       </c>
-      <c r="Y1" s="79" t="s">
+      <c r="Z1" s="79" t="s">
         <v>458</v>
       </c>
-      <c r="Z1" s="79" t="s">
+      <c r="AA1" s="79" t="s">
         <v>459</v>
       </c>
-      <c r="AA1" s="79" t="s">
+      <c r="AB1" s="79" t="s">
         <v>460</v>
       </c>
-      <c r="AB1" s="79" t="s">
+      <c r="AC1" s="79" t="s">
         <v>461</v>
       </c>
-      <c r="AC1" s="79" t="s">
+      <c r="AD1" s="79" t="s">
         <v>462</v>
       </c>
-      <c r="AD1" s="79" t="s">
+      <c r="AE1" s="79" t="s">
         <v>463</v>
       </c>
-      <c r="AE1" s="79" t="s">
+      <c r="AF1" s="79" t="s">
         <v>464</v>
       </c>
-      <c r="AF1" s="79" t="s">
+      <c r="AG1" s="79" t="s">
         <v>465</v>
       </c>
-      <c r="AG1" s="79" t="s">
+      <c r="AH1" s="79" t="s">
         <v>466</v>
       </c>
-      <c r="AH1" s="79" t="s">
+      <c r="AI1" s="79" t="s">
         <v>467</v>
       </c>
-      <c r="AI1" s="79" t="s">
+      <c r="AJ1" s="79" t="s">
         <v>468</v>
       </c>
-      <c r="AJ1" s="79" t="s">
+      <c r="AK1" s="79" t="s">
         <v>469</v>
       </c>
-      <c r="AK1" s="79" t="s">
+      <c r="AL1" s="79" t="s">
         <v>470</v>
       </c>
-      <c r="AL1" s="79" t="s">
+      <c r="AM1" s="79" t="s">
         <v>471</v>
       </c>
-      <c r="AM1" s="79" t="s">
+      <c r="AN1" s="79" t="s">
         <v>472</v>
       </c>
-      <c r="AN1" s="79" t="s">
+      <c r="AO1" s="79" t="s">
         <v>473</v>
       </c>
-      <c r="AO1" s="79" t="s">
+      <c r="AP1" s="79" t="s">
         <v>474</v>
       </c>
-      <c r="AP1" s="79" t="s">
+      <c r="AQ1" s="79" t="s">
         <v>475</v>
       </c>
-      <c r="AQ1" s="79" t="s">
+      <c r="AR1" s="79" t="s">
         <v>476</v>
       </c>
-      <c r="AR1" s="79" t="s">
+      <c r="AS1" s="79" t="s">
         <v>477</v>
       </c>
-      <c r="AS1" s="79" t="s">
+      <c r="AT1" s="79" t="s">
         <v>478</v>
       </c>
-      <c r="AT1" s="79" t="s">
+      <c r="AU1" s="79" t="s">
         <v>479</v>
       </c>
-      <c r="AU1" s="79" t="s">
+      <c r="AV1" s="79" t="s">
         <v>480</v>
       </c>
-      <c r="AV1" s="79" t="s">
+      <c r="AW1" s="79" t="s">
         <v>481</v>
       </c>
-      <c r="AW1" s="79" t="s">
+      <c r="AX1" s="79" t="s">
         <v>482</v>
       </c>
-      <c r="AX1" s="79" t="s">
+      <c r="AY1" s="79" t="s">
         <v>483</v>
       </c>
-      <c r="AY1" s="79" t="s">
+      <c r="AZ1" s="79" t="s">
         <v>484</v>
       </c>
-      <c r="AZ1" s="79" t="s">
+      <c r="BA1" s="79" t="s">
         <v>485</v>
       </c>
-      <c r="BA1" s="79" t="s">
+      <c r="BB1" s="79" t="s">
         <v>486</v>
-      </c>
-      <c r="BB1" s="79" t="s">
-        <v>487</v>
       </c>
       <c r="BC1" s="79"/>
       <c r="BD1" s="79"/>
@@ -10039,160 +10042,160 @@
         <v>159</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D2" s="78">
         <v>8080</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F2" s="5">
         <v>8080</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="60" t="s">
         <v>496</v>
       </c>
-      <c r="O2" s="60" t="s">
+      <c r="P2" s="5" t="s">
         <v>497</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>498</v>
       </c>
       <c r="Q2" s="59" t="s">
         <v>169</v>
       </c>
       <c r="R2" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="S2" s="59" t="s">
         <v>499</v>
       </c>
-      <c r="S2" s="59" t="s">
+      <c r="T2" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="X2" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="V2" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="X2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AC2" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="AD2" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="AC2" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AE2" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AF2" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="AG2" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="AF2" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AH2" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AI2" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AJ2" s="80" t="s">
         <v>512</v>
       </c>
-      <c r="AJ2" s="80" t="s">
+      <c r="AK2" s="80" t="s">
         <v>513</v>
       </c>
-      <c r="AK2" s="80" t="s">
+      <c r="AL2" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AM2" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AN2" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="AN2" s="8" t="s">
+      <c r="AO2" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="AO2" s="9" t="s">
+      <c r="AP2" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="AR2" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="AP2" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="AQ2" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="AR2" s="8" t="s">
+      <c r="AS2" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="AS2" s="8" t="s">
+      <c r="AT2" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="AT2" s="5" t="s">
+      <c r="AU2" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="AU2" s="5" t="s">
+      <c r="AV2" s="78" t="s">
         <v>522</v>
       </c>
-      <c r="AV2" s="78" t="s">
+      <c r="AW2" s="78" t="s">
         <v>523</v>
       </c>
-      <c r="AW2" s="78" t="s">
+      <c r="AX2" s="78" t="s">
         <v>524</v>
       </c>
-      <c r="AX2" s="78" t="s">
+      <c r="AY2" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="AZ2" s="78" t="s">
+        <v>380</v>
+      </c>
+      <c r="BA2" s="77" t="s">
         <v>525</v>
       </c>
-      <c r="AY2" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="AZ2" s="78" t="s">
-        <v>381</v>
-      </c>
-      <c r="BA2" s="77" t="s">
+      <c r="BB2" s="78" t="s">
         <v>526</v>
-      </c>
-      <c r="BB2" s="78" t="s">
-        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -10275,7 +10278,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>157</v>
@@ -10375,10 +10378,10 @@
         <v>164</v>
       </c>
       <c r="E2" s="64" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -10553,55 +10556,55 @@
         <v>7</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="F1" s="63" t="s">
         <v>530</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="G1" s="13" t="s">
         <v>531</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>532</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="15" t="s">
         <v>533</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="K1" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="J1" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="15" t="s">
         <v>535</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="M1" s="15" t="s">
         <v>536</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="N1" s="15" t="s">
         <v>537</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="O1" s="14" t="s">
         <v>538</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>539</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>540</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="R1" s="13" t="s">
         <v>541</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="U1" s="14" t="s">
         <v>542</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="T1" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="U1" s="14" t="s">
-        <v>543</v>
       </c>
       <c r="V1" s="11" t="s">
         <v>116</v>
@@ -10676,61 +10679,61 @@
         <v>164</v>
       </c>
       <c r="E2" s="59" t="s">
+        <v>543</v>
+      </c>
+      <c r="F2" s="64" t="s">
+        <v>421</v>
+      </c>
+      <c r="G2" t="s">
         <v>544</v>
       </c>
-      <c r="F2" s="64" t="s">
-        <v>423</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>545</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="59" t="s">
         <v>546</v>
-      </c>
-      <c r="I2" s="59" t="s">
-        <v>547</v>
       </c>
       <c r="J2" s="59" t="s">
         <v>176</v>
       </c>
       <c r="K2" s="78" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L2" s="64" t="s">
+        <v>547</v>
+      </c>
+      <c r="M2" s="16" t="s">
         <v>548</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>549</v>
       </c>
       <c r="N2" s="59">
         <v>100</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>200</v>
       </c>
       <c r="Q2" s="60" t="s">
+        <v>549</v>
+      </c>
+      <c r="R2" s="17" t="s">
         <v>550</v>
       </c>
-      <c r="R2" s="17" t="s">
-        <v>216</v>
-      </c>
       <c r="S2" s="59" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="T2" s="59" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="U2" s="59" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="V2" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W2" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="EA2" s="59" t="s">
         <v>551</v>
@@ -10939,7 +10942,7 @@
         <v>14</v>
       </c>
       <c r="F1" s="72" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>552</v>
@@ -10975,34 +10978,34 @@
         <v>562</v>
       </c>
       <c r="R1" s="72" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="S1" s="12" t="s">
         <v>563</v>
       </c>
       <c r="T1" s="15" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="V1" s="14" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="W1" s="14" t="s">
         <v>564</v>
       </c>
       <c r="X1" s="66" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="Y1" s="66" t="s">
         <v>565</v>
       </c>
       <c r="Z1" s="66" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AA1" s="66" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AB1" s="14" t="s">
         <v>566</v>
@@ -11011,19 +11014,19 @@
         <v>567</v>
       </c>
       <c r="AD1" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="AF1" s="66" t="s">
+        <v>412</v>
+      </c>
+      <c r="AG1" s="66" t="s">
+        <v>394</v>
+      </c>
+      <c r="AH1" s="13" t="s">
         <v>415</v>
-      </c>
-      <c r="AE1" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="AF1" s="66" t="s">
-        <v>414</v>
-      </c>
-      <c r="AG1" s="66" t="s">
-        <v>396</v>
-      </c>
-      <c r="AH1" s="13" t="s">
-        <v>417</v>
       </c>
       <c r="AI1" s="66" t="s">
         <v>568</v>
@@ -11032,13 +11035,13 @@
         <v>569</v>
       </c>
       <c r="AK1" s="63" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AL1" s="42" t="s">
         <v>570</v>
       </c>
       <c r="AM1" s="42" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AN1" s="14" t="s">
         <v>157</v>
@@ -11058,10 +11061,10 @@
         <v>164</v>
       </c>
       <c r="E2" s="59" t="s">
+        <v>419</v>
+      </c>
+      <c r="F2" s="64" t="s">
         <v>421</v>
-      </c>
-      <c r="F2" s="64" t="s">
-        <v>423</v>
       </c>
       <c r="G2" s="59" t="s">
         <v>571</v>
@@ -11097,34 +11100,34 @@
         <v>579</v>
       </c>
       <c r="R2" s="59" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="S2" s="59" t="s">
         <v>580</v>
       </c>
       <c r="T2" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U2" s="59" t="s">
         <v>581</v>
       </c>
       <c r="V2" s="59" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="W2" s="59" t="s">
         <v>582</v>
       </c>
       <c r="X2" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Y2" s="19" t="s">
         <v>583</v>
       </c>
       <c r="Z2" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="AA2" s="19" t="s">
         <v>434</v>
-      </c>
-      <c r="AA2" s="19" t="s">
-        <v>435</v>
       </c>
       <c r="AB2" s="19" t="s">
         <v>584</v>
@@ -11139,13 +11142,13 @@
         <v>180</v>
       </c>
       <c r="AF2" s="59" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AG2" s="59" t="s">
         <v>165</v>
       </c>
       <c r="AH2" s="19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AI2" s="20" t="s">
         <v>586</v>
@@ -11163,7 +11166,7 @@
         <v>589</v>
       </c>
       <c r="AN2" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">

--- a/DataSet/LoanIQ_DataSet/EVG_PTYLIQ04_BaselineNonAgentSyndication.xlsx
+++ b/DataSet/LoanIQ_DataSet/EVG_PTYLIQ04_BaselineNonAgentSyndication.xlsx
@@ -8223,7 +8223,7 @@
       </c>
       <c r="G2" s="59" t="inlineStr">
         <is>
-          <t>S4REV03112020173637</t>
+          <t>S4REV05012021113628ALB</t>
         </is>
       </c>
       <c r="I2" s="16" t="inlineStr">
